--- a/Data/HSBC_bank.xlsx
+++ b/Data/HSBC_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karan_mudaliar/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6B4E8-3566-6941-A933-24FCD42870D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922CCC46-4C46-D441-842E-E02B485407B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="12" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="4" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="537">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -11307,12 +11307,15 @@
   <dimension ref="A2:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>536</v>
+      </c>
       <c r="C2" s="1">
         <v>44926</v>
       </c>
@@ -12913,13 +12916,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C622C5-A61D-44BF-B27E-8BBFBEE8A96D}">
   <dimension ref="A2:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>536</v>
+      </c>
       <c r="C2" s="1">
         <v>44926</v>
       </c>
@@ -23558,8 +23567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BA7F06-3B79-4CD0-8D17-A7B6A3693559}">
   <dimension ref="A2:AE58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34373,7 +34382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1B87F-DD1A-4A5C-83A0-04451EBB24A9}">
   <dimension ref="A2:AE66"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE2" sqref="A2:AE2"/>
     </sheetView>
   </sheetViews>

--- a/Data/HSBC_bank.xlsx
+++ b/Data/HSBC_bank.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karan_mudaliar/Documents/GitHub/SVB_Analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achyut/Documents/GitHub/SVB_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922CCC46-4C46-D441-842E-E02B485407B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C65D36-5EEF-2D4C-88C7-73FC6CE33729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="4" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="4" activeTab="12" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="1" r:id="rId1"/>
     <sheet name="Income Statement" sheetId="2" r:id="rId2"/>
     <sheet name="Asset Yields and Funding Costs" sheetId="3" r:id="rId3"/>
     <sheet name="Balance Sheet $" sheetId="4" r:id="rId4"/>
-    <sheet name="Balance Sheet %" sheetId="5" r:id="rId5"/>
-    <sheet name="Concentrations of Credit" sheetId="6" r:id="rId6"/>
+    <sheet name="Balance Sheet Percentage" sheetId="5" r:id="rId5"/>
+    <sheet name="Credit Concentration" sheetId="6" r:id="rId6"/>
     <sheet name="Interest Rate Risk" sheetId="7" r:id="rId7"/>
-    <sheet name="Liquidity &amp; Funding" sheetId="8" r:id="rId8"/>
-    <sheet name="Liquidity &amp; Inv Portfolio" sheetId="9" r:id="rId9"/>
-    <sheet name="Capital analysis-a" sheetId="10" r:id="rId10"/>
-    <sheet name="Capital analysis-b" sheetId="11" r:id="rId11"/>
-    <sheet name="Capital analysis-c" sheetId="12" r:id="rId12"/>
-    <sheet name="Capital analysis-d" sheetId="13" r:id="rId13"/>
+    <sheet name="Liquidity and Funding" sheetId="8" r:id="rId8"/>
+    <sheet name="Liquidity &amp; Investment" sheetId="9" r:id="rId9"/>
+    <sheet name="Capital Analysis A" sheetId="10" r:id="rId10"/>
+    <sheet name="Capital Analysis B" sheetId="11" r:id="rId11"/>
+    <sheet name="Capital Analysis C" sheetId="12" r:id="rId12"/>
+    <sheet name="Capital Analysis D" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2021,774 +2021,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE4DD7-71B1-49A1-AD4A-B9AB7347D3DB}">
-  <dimension ref="A2:AJ260"/>
+  <dimension ref="A1:AJ259"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE2" sqref="A2:AE2"/>
+    <sheetView zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="T1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="U1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="V1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="W1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="X1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>43281</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>43281</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>43281</v>
+      </c>
+    </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44926</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44926</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44926</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44742</v>
-      </c>
-      <c r="F2" s="1">
-        <v>44742</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44742</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44561</v>
-      </c>
-      <c r="I2" s="1">
-        <v>44561</v>
-      </c>
-      <c r="J2" s="1">
-        <v>44561</v>
-      </c>
-      <c r="K2" s="1">
-        <v>44377</v>
-      </c>
-      <c r="L2" s="1">
-        <v>44377</v>
-      </c>
-      <c r="M2" s="1">
-        <v>44377</v>
-      </c>
-      <c r="N2" s="1">
-        <v>44196</v>
-      </c>
-      <c r="O2" s="1">
-        <v>44196</v>
-      </c>
-      <c r="P2" s="1">
-        <v>44196</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>44012</v>
-      </c>
-      <c r="R2" s="1">
-        <v>44012</v>
-      </c>
-      <c r="S2" s="1">
-        <v>44012</v>
-      </c>
-      <c r="T2" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U2" s="1">
-        <v>43830</v>
-      </c>
-      <c r="V2" s="1">
-        <v>43830</v>
-      </c>
-      <c r="W2" s="1">
-        <v>43646</v>
-      </c>
-      <c r="X2" s="1">
-        <v>43646</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>43646</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>43281</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>43281</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>43281</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2.23</v>
+      </c>
+      <c r="C4">
+        <v>2.88</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1.56</v>
+      </c>
+      <c r="F4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>1.36</v>
+      </c>
+      <c r="I4">
+        <v>2.11</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>1.39</v>
+      </c>
+      <c r="L4">
+        <v>2.13</v>
+      </c>
+      <c r="M4">
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <v>1.78</v>
+      </c>
+      <c r="O4">
+        <v>2.54</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2.78</v>
+      </c>
+      <c r="S4">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <v>2.78</v>
+      </c>
+      <c r="U4">
+        <v>3.47</v>
+      </c>
+      <c r="V4">
+        <v>15</v>
+      </c>
+      <c r="W4">
+        <v>2.91</v>
+      </c>
+      <c r="X4">
+        <v>3.59</v>
+      </c>
+      <c r="Y4">
+        <v>14</v>
+      </c>
+      <c r="Z4">
+        <v>2.6</v>
+      </c>
+      <c r="AA4">
+        <v>3.33</v>
+      </c>
+      <c r="AB4">
+        <v>15</v>
+      </c>
+      <c r="AC4">
+        <v>2.42</v>
+      </c>
+      <c r="AD4">
+        <v>3.19</v>
+      </c>
+      <c r="AE4">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>2.23</v>
+        <v>0.86</v>
       </c>
       <c r="C5">
-        <v>2.88</v>
+        <v>0.54</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>1.56</v>
+        <v>0.33</v>
       </c>
       <c r="F5">
-        <v>2.2400000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="H5">
-        <v>1.36</v>
+        <v>0.23</v>
       </c>
       <c r="I5">
-        <v>2.11</v>
+        <v>0.13</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>1.39</v>
+        <v>0.25</v>
       </c>
       <c r="L5">
-        <v>2.13</v>
+        <v>0.13</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="N5">
-        <v>1.78</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O5">
-        <v>2.54</v>
+        <v>0.34</v>
       </c>
       <c r="P5">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0.81</v>
       </c>
       <c r="R5">
-        <v>2.78</v>
+        <v>0.49</v>
       </c>
       <c r="S5">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="T5">
-        <v>2.78</v>
+        <v>1.44</v>
       </c>
       <c r="U5">
-        <v>3.47</v>
+        <v>0.92</v>
       </c>
       <c r="V5">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="W5">
-        <v>2.91</v>
+        <v>1.48</v>
       </c>
       <c r="X5">
-        <v>3.59</v>
+        <v>0.94</v>
       </c>
       <c r="Y5">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="Z5">
-        <v>2.6</v>
+        <v>1.21</v>
       </c>
       <c r="AA5">
-        <v>3.33</v>
+        <v>0.7</v>
       </c>
       <c r="AB5">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="AC5">
-        <v>2.42</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AD5">
-        <v>3.19</v>
+        <v>0.59</v>
       </c>
       <c r="AE5">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.86</v>
+        <v>1.37</v>
       </c>
       <c r="C6">
-        <v>0.54</v>
+        <v>2.34</v>
       </c>
       <c r="D6">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>0.33</v>
+        <v>1.23</v>
       </c>
       <c r="F6">
-        <v>0.16</v>
+        <v>2.08</v>
       </c>
       <c r="G6">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>0.23</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I6">
-        <v>0.13</v>
+        <v>1.99</v>
       </c>
       <c r="J6">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.25</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L6">
-        <v>0.13</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="N6">
-        <v>0.57999999999999996</v>
+        <v>1.19</v>
       </c>
       <c r="O6">
-        <v>0.34</v>
+        <v>2.21</v>
       </c>
       <c r="P6">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="Q6">
-        <v>0.81</v>
+        <v>1.19</v>
       </c>
       <c r="R6">
-        <v>0.49</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S6">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="T6">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="U6">
-        <v>0.92</v>
+        <v>2.54</v>
       </c>
       <c r="V6">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="W6">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="X6">
-        <v>0.94</v>
+        <v>2.62</v>
       </c>
       <c r="Y6">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="Z6">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AA6">
-        <v>0.7</v>
+        <v>2.61</v>
       </c>
       <c r="AB6">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="AC6">
-        <v>1.0900000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="AD6">
-        <v>0.59</v>
+        <v>2.58</v>
       </c>
       <c r="AE6">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1.37</v>
+        <v>0.89</v>
       </c>
       <c r="C7">
-        <v>2.34</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E7">
+        <v>0.91</v>
+      </c>
+      <c r="F7">
         <v>1.23</v>
       </c>
-      <c r="F7">
-        <v>2.08</v>
-      </c>
       <c r="G7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1.1299999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I7">
-        <v>1.99</v>
+        <v>1.2</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>1.1299999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>1.19</v>
+        <v>0.7</v>
       </c>
       <c r="O7">
-        <v>2.21</v>
+        <v>1.27</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q7">
-        <v>1.19</v>
+        <v>0.83</v>
       </c>
       <c r="R7">
-        <v>2.2799999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="S7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="T7">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="U7">
-        <v>2.54</v>
+        <v>1.56</v>
       </c>
       <c r="V7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="W7">
-        <v>1.43</v>
+        <v>0.91</v>
       </c>
       <c r="X7">
-        <v>2.62</v>
+        <v>1.56</v>
       </c>
       <c r="Y7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Z7">
-        <v>1.4</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AA7">
-        <v>2.61</v>
+        <v>1.63</v>
       </c>
       <c r="AB7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC7">
-        <v>1.33</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AD7">
-        <v>2.58</v>
+        <v>1.66</v>
       </c>
       <c r="AE7">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.89</v>
+        <v>1.55</v>
       </c>
       <c r="C8">
-        <v>1.1399999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>0.91</v>
+        <v>1.5</v>
       </c>
       <c r="F8">
-        <v>1.23</v>
+        <v>1.96</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>0.56000000000000005</v>
+        <v>1.47</v>
       </c>
       <c r="I8">
-        <v>1.2</v>
+        <v>1.92</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.61</v>
+        <v>1.45</v>
       </c>
       <c r="L8">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>24</v>
       </c>
       <c r="N8">
-        <v>0.7</v>
+        <v>1.99</v>
       </c>
       <c r="O8">
-        <v>1.27</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="P8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Q8">
-        <v>0.83</v>
+        <v>2.48</v>
       </c>
       <c r="R8">
-        <v>1.29</v>
+        <v>2.17</v>
       </c>
       <c r="S8">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="T8">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="U8">
-        <v>1.56</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W8">
-        <v>0.91</v>
+        <v>1.75</v>
       </c>
       <c r="X8">
-        <v>1.56</v>
+        <v>2.46</v>
       </c>
       <c r="Y8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z8">
-        <v>1.0900000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="AA8">
-        <v>1.63</v>
+        <v>2.52</v>
       </c>
       <c r="AB8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC8">
-        <v>1.1599999999999999</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AD8">
-        <v>1.66</v>
+        <v>2.52</v>
       </c>
       <c r="AE8">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>0.7</v>
+      </c>
+      <c r="C9">
         <v>1.55</v>
       </c>
-      <c r="C9">
-        <v>1.98</v>
-      </c>
       <c r="D9">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="F9">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H9">
+        <v>0.22</v>
+      </c>
+      <c r="I9">
+        <v>1.27</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L9">
+        <v>1.27</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>-0.09</v>
+      </c>
+      <c r="O9">
+        <v>1.34</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>-0.46</v>
+      </c>
+      <c r="R9">
         <v>1.47</v>
       </c>
-      <c r="I9">
-        <v>1.92</v>
-      </c>
-      <c r="J9">
-        <v>29</v>
-      </c>
-      <c r="K9">
-        <v>1.45</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>24</v>
-      </c>
-      <c r="N9">
-        <v>1.99</v>
-      </c>
-      <c r="O9">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="P9">
-        <v>36</v>
-      </c>
-      <c r="Q9">
-        <v>2.48</v>
-      </c>
-      <c r="R9">
-        <v>2.17</v>
-      </c>
       <c r="S9">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>1.98</v>
+        <v>0.38</v>
       </c>
       <c r="U9">
-        <v>2.4700000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="V9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>1.75</v>
+        <v>0.59</v>
       </c>
       <c r="X9">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="Y9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>2.06</v>
+        <v>0.43</v>
       </c>
       <c r="AA9">
-        <v>2.52</v>
+        <v>1.81</v>
       </c>
       <c r="AB9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>2.2799999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="AD9">
-        <v>2.52</v>
+        <v>1.81</v>
       </c>
       <c r="AE9">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10">
-        <v>1.55</v>
+        <v>0.21</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>1.36</v>
+        <v>0.11</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>0.22</v>
+        <v>-0.22</v>
       </c>
       <c r="I10">
-        <v>1.27</v>
+        <v>-0.1</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.28999999999999998</v>
+        <v>-0.35</v>
       </c>
       <c r="L10">
-        <v>1.27</v>
+        <v>-0.2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N10">
-        <v>-0.09</v>
+        <v>0.37</v>
       </c>
       <c r="O10">
-        <v>1.34</v>
+        <v>0.52</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Q10">
-        <v>-0.46</v>
+        <v>0.86</v>
       </c>
       <c r="R10">
-        <v>1.47</v>
+        <v>0.9</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="T10">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
       <c r="U10">
-        <v>1.7</v>
+        <v>0.21</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="W10">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
       <c r="X10">
-        <v>1.79</v>
+        <v>0.2</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Z10">
-        <v>0.43</v>
+        <v>-0.04</v>
       </c>
       <c r="AA10">
-        <v>1.81</v>
+        <v>0.16</v>
       </c>
       <c r="AB10">
         <v>3</v>
       </c>
       <c r="AC10">
-        <v>0.22</v>
+        <v>-0.13</v>
       </c>
       <c r="AD10">
-        <v>1.81</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AE10">
         <v>3</v>
@@ -2796,515 +2891,515 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="F11">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>-0.22</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="I11">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>-0.35</v>
+        <v>-0.11</v>
       </c>
       <c r="L11">
-        <v>-0.2</v>
+        <v>-0.01</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q11">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="S11">
-        <v>41</v>
-      </c>
-      <c r="T11">
-        <v>0.11</v>
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
       </c>
       <c r="U11">
-        <v>0.21</v>
-      </c>
-      <c r="V11">
-        <v>23</v>
-      </c>
-      <c r="W11">
-        <v>0.12</v>
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" t="s">
+        <v>58</v>
       </c>
       <c r="X11">
-        <v>0.2</v>
-      </c>
-      <c r="Y11">
-        <v>25</v>
-      </c>
-      <c r="Z11">
-        <v>-0.04</v>
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>58</v>
       </c>
       <c r="AA11">
-        <v>0.16</v>
-      </c>
-      <c r="AB11">
-        <v>3</v>
-      </c>
-      <c r="AC11">
-        <v>-0.13</v>
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>58</v>
       </c>
       <c r="AD11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AE11">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>1.36</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>-0.02</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>1.23</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.51</v>
       </c>
       <c r="I12">
-        <v>-0.01</v>
+        <v>1.38</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
       <c r="K12">
-        <v>-0.11</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>-0.01</v>
+        <v>1.48</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="P12">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1.32</v>
       </c>
       <c r="R12">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
-      <c r="T12" t="s">
-        <v>58</v>
+      <c r="T12">
+        <v>0.27</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" t="s">
-        <v>58</v>
+        <v>1.47</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>0.47</v>
       </c>
       <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>58</v>
+        <v>1.57</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>0.47</v>
       </c>
       <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>58</v>
+        <v>1.62</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>0.35</v>
       </c>
       <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>58</v>
+        <v>1.65</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.63</v>
+        <v>0.01</v>
       </c>
       <c r="C13">
-        <v>1.36</v>
+        <v>-0.01</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E13">
-        <v>0.56000000000000005</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="H13">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
       <c r="I13">
-        <v>1.38</v>
+        <v>0.01</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.04</v>
       </c>
       <c r="L13">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="N13">
-        <v>-0.46</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O13">
-        <v>0.84</v>
+        <v>0.03</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="Q13">
-        <v>-1.32</v>
+        <v>0.06</v>
       </c>
       <c r="R13">
-        <v>0.54</v>
+        <v>0.03</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="T13">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="U13">
-        <v>1.47</v>
+        <v>0.01</v>
       </c>
       <c r="V13">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="W13">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
       <c r="X13">
-        <v>1.57</v>
+        <v>0.01</v>
       </c>
       <c r="Y13">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="Z13">
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
       <c r="AA13">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="AC13">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="AD13">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
+        <v>-0.01</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>-0.01</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>73</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>93</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>65</v>
+      </c>
+      <c r="W14">
         <v>0.01</v>
-      </c>
-      <c r="C14">
-        <v>-0.01</v>
-      </c>
-      <c r="D14">
-        <v>90</v>
-      </c>
-      <c r="E14">
-        <v>0.03</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>90</v>
-      </c>
-      <c r="H14">
-        <v>0.04</v>
-      </c>
-      <c r="I14">
-        <v>0.01</v>
-      </c>
-      <c r="J14">
-        <v>87</v>
-      </c>
-      <c r="K14">
-        <v>0.04</v>
-      </c>
-      <c r="L14">
-        <v>0.01</v>
-      </c>
-      <c r="M14">
-        <v>86</v>
-      </c>
-      <c r="N14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O14">
-        <v>0.03</v>
-      </c>
-      <c r="P14">
-        <v>80</v>
-      </c>
-      <c r="Q14">
-        <v>0.06</v>
-      </c>
-      <c r="R14">
-        <v>0.03</v>
-      </c>
-      <c r="S14">
-        <v>79</v>
-      </c>
-      <c r="T14">
-        <v>0.05</v>
-      </c>
-      <c r="U14">
-        <v>0.01</v>
-      </c>
-      <c r="V14">
-        <v>92</v>
-      </c>
-      <c r="W14">
-        <v>0.03</v>
       </c>
       <c r="X14">
         <v>0.01</v>
       </c>
       <c r="Y14">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="Z14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="AC14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.01</v>
+        <v>0.63</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>-0.01</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>-0.39</v>
+      </c>
+      <c r="O15">
+        <v>0.87</v>
+      </c>
+      <c r="P15">
         <v>6</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>73</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1.26</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="S15">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V15">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>0.01</v>
+        <v>0.51</v>
       </c>
       <c r="X15">
-        <v>0.01</v>
+        <v>1.58</v>
       </c>
       <c r="Y15">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AE15">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="C16">
-        <v>1.36</v>
+        <v>1.06</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>0.57999999999999996</v>
+        <v>0.44</v>
       </c>
       <c r="F16">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
-        <v>0.55000000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="I16">
-        <v>1.4</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
       <c r="L16">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -3313,52 +3408,52 @@
         <v>-0.39</v>
       </c>
       <c r="O16">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="P16">
         <v>6</v>
       </c>
       <c r="Q16">
-        <v>-1.26</v>
+        <v>-1.19</v>
       </c>
       <c r="R16">
-        <v>0.56999999999999995</v>
+        <v>0.46</v>
       </c>
       <c r="S16">
         <v>3</v>
       </c>
       <c r="T16">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="U16">
-        <v>1.48</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="V16">
         <v>7</v>
       </c>
       <c r="W16">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="X16">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="Y16">
         <v>3</v>
       </c>
       <c r="Z16">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AA16">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="AB16">
         <v>3</v>
       </c>
       <c r="AC16">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="AD16">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="AE16">
         <v>3</v>
@@ -3366,197 +3461,197 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="H17">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.0900000000000001</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="K17">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="N17">
-        <v>-0.39</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="Q17">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="T17">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="V17">
+        <v>61</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>51</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>7</v>
       </c>
-      <c r="W17">
-        <v>0.39</v>
-      </c>
-      <c r="X17">
-        <v>1.25</v>
-      </c>
-      <c r="Y17">
-        <v>3</v>
-      </c>
-      <c r="Z17">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA17">
-        <v>1.29</v>
-      </c>
-      <c r="AB17">
-        <v>3</v>
-      </c>
       <c r="AC17">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G18">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J18">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M18">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>-0.39</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="P18">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1.19</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="S18">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="V18">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Y18">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AB18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE18">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0.48</v>
@@ -3649,1192 +3744,1192 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0.48</v>
-      </c>
-      <c r="C20">
-        <v>1.06</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>0.44</v>
-      </c>
-      <c r="F20">
-        <v>0.96</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>0.42</v>
-      </c>
-      <c r="I20">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>0.59</v>
-      </c>
-      <c r="L20">
-        <v>1.17</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>-0.39</v>
-      </c>
-      <c r="O20">
-        <v>0.68</v>
-      </c>
-      <c r="P20">
-        <v>6</v>
-      </c>
-      <c r="Q20">
-        <v>-1.19</v>
-      </c>
-      <c r="R20">
-        <v>0.46</v>
-      </c>
-      <c r="S20">
-        <v>3</v>
-      </c>
-      <c r="T20">
-        <v>0.19</v>
-      </c>
-      <c r="U20">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="V20">
-        <v>7</v>
-      </c>
-      <c r="W20">
-        <v>0.39</v>
-      </c>
-      <c r="X20">
-        <v>1.24</v>
-      </c>
-      <c r="Y20">
-        <v>3</v>
-      </c>
-      <c r="Z20">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA20">
-        <v>1.28</v>
-      </c>
-      <c r="AB20">
-        <v>3</v>
-      </c>
-      <c r="AC20">
-        <v>0.13</v>
-      </c>
-      <c r="AD20">
-        <v>1.29</v>
-      </c>
-      <c r="AE20">
-        <v>3</v>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>95.31</v>
+      </c>
+      <c r="C22">
+        <v>92.84</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>95.58</v>
+      </c>
+      <c r="F22">
+        <v>92.9</v>
+      </c>
+      <c r="G22">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>96.38</v>
+      </c>
+      <c r="I22">
+        <v>93.54</v>
+      </c>
+      <c r="J22">
+        <v>77</v>
+      </c>
+      <c r="K22">
+        <v>96.28</v>
+      </c>
+      <c r="L22">
+        <v>93.3</v>
+      </c>
+      <c r="M22">
+        <v>82</v>
+      </c>
+      <c r="N22">
+        <v>95.9</v>
+      </c>
+      <c r="O22">
+        <v>93.24</v>
+      </c>
+      <c r="P22">
+        <v>83</v>
+      </c>
+      <c r="Q22">
+        <v>95.48</v>
+      </c>
+      <c r="R22">
+        <v>92.67</v>
+      </c>
+      <c r="S22">
+        <v>82</v>
+      </c>
+      <c r="T22">
+        <v>94.7</v>
+      </c>
+      <c r="U22">
+        <v>91.67</v>
+      </c>
+      <c r="V22">
+        <v>88</v>
+      </c>
+      <c r="W22">
+        <v>94.59</v>
+      </c>
+      <c r="X22">
+        <v>91.64</v>
+      </c>
+      <c r="Y22">
+        <v>88</v>
+      </c>
+      <c r="Z22">
+        <v>94.66</v>
+      </c>
+      <c r="AA22">
+        <v>91.72</v>
+      </c>
+      <c r="AB22">
+        <v>92</v>
+      </c>
+      <c r="AC22">
+        <v>94.75</v>
+      </c>
+      <c r="AD22">
+        <v>91.74</v>
+      </c>
+      <c r="AE22">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>95.31</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>92.84</v>
+        <v>74.45</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>95.58</v>
+        <v>69.8</v>
       </c>
       <c r="F23">
-        <v>92.9</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="G23">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>96.38</v>
+        <v>71.84</v>
       </c>
       <c r="I23">
-        <v>93.54</v>
+        <v>76.8</v>
       </c>
       <c r="J23">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>96.28</v>
+        <v>75.33</v>
       </c>
       <c r="L23">
-        <v>93.3</v>
+        <v>77.16</v>
       </c>
       <c r="M23">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="N23">
-        <v>95.9</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="O23">
-        <v>93.24</v>
+        <v>80.62</v>
       </c>
       <c r="P23">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="Q23">
-        <v>95.48</v>
+        <v>78.31</v>
       </c>
       <c r="R23">
-        <v>92.67</v>
+        <v>80.459999999999994</v>
       </c>
       <c r="S23">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="T23">
-        <v>94.7</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="U23">
-        <v>91.67</v>
+        <v>79.08</v>
       </c>
       <c r="V23">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="W23">
-        <v>94.59</v>
+        <v>75.95</v>
       </c>
       <c r="X23">
-        <v>91.64</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="Y23">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="Z23">
-        <v>94.66</v>
+        <v>74.53</v>
       </c>
       <c r="AA23">
-        <v>91.72</v>
+        <v>78.27</v>
       </c>
       <c r="AB23">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="AC23">
-        <v>94.75</v>
+        <v>74.430000000000007</v>
       </c>
       <c r="AD23">
-        <v>91.74</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="AE23">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>2.34</v>
       </c>
       <c r="C24">
-        <v>74.45</v>
+        <v>3.11</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>69.8</v>
+        <v>1.64</v>
       </c>
       <c r="F24">
-        <v>74.930000000000007</v>
+        <v>2.42</v>
       </c>
       <c r="G24">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>71.84</v>
+        <v>1.42</v>
       </c>
       <c r="I24">
-        <v>76.8</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J24">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K24">
-        <v>75.33</v>
+        <v>1.44</v>
       </c>
       <c r="L24">
-        <v>77.16</v>
+        <v>2.29</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N24">
-        <v>78.540000000000006</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
-        <v>80.62</v>
+        <v>2.73</v>
       </c>
       <c r="P24">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q24">
-        <v>78.31</v>
+        <v>2.09</v>
       </c>
       <c r="R24">
-        <v>80.459999999999994</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="T24">
-        <v>76.430000000000007</v>
+        <v>2.94</v>
       </c>
       <c r="U24">
-        <v>79.08</v>
+        <v>3.78</v>
       </c>
       <c r="V24">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="W24">
-        <v>75.95</v>
+        <v>3.08</v>
       </c>
       <c r="X24">
-        <v>79.180000000000007</v>
+        <v>3.92</v>
       </c>
       <c r="Y24">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Z24">
-        <v>74.53</v>
+        <v>2.75</v>
       </c>
       <c r="AA24">
-        <v>78.27</v>
+        <v>3.63</v>
       </c>
       <c r="AB24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC24">
-        <v>74.430000000000007</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AD24">
-        <v>78.150000000000006</v>
+        <v>3.48</v>
       </c>
       <c r="AE24">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>2.34</v>
+        <v>0.91</v>
       </c>
       <c r="C25">
-        <v>3.11</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E25">
-        <v>1.64</v>
+        <v>0.35</v>
       </c>
       <c r="F25">
-        <v>2.42</v>
+        <v>0.17</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H25">
-        <v>1.42</v>
+        <v>0.24</v>
       </c>
       <c r="I25">
-        <v>2.2599999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>1.44</v>
+        <v>0.26</v>
       </c>
       <c r="L25">
-        <v>2.29</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="N25">
-        <v>1.85</v>
+        <v>0.61</v>
       </c>
       <c r="O25">
-        <v>2.73</v>
+        <v>0.36</v>
       </c>
       <c r="P25">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="Q25">
-        <v>2.09</v>
+        <v>0.85</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>0.53</v>
       </c>
       <c r="S25">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="T25">
-        <v>2.94</v>
+        <v>1.52</v>
       </c>
       <c r="U25">
-        <v>3.78</v>
+        <v>0.99</v>
       </c>
       <c r="V25">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="W25">
-        <v>3.08</v>
+        <v>1.57</v>
       </c>
       <c r="X25">
-        <v>3.92</v>
+        <v>1.03</v>
       </c>
       <c r="Y25">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="Z25">
-        <v>2.75</v>
+        <v>1.28</v>
       </c>
       <c r="AA25">
-        <v>3.63</v>
+        <v>0.76</v>
       </c>
       <c r="AB25">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="AC25">
-        <v>2.5499999999999998</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD25">
-        <v>3.48</v>
+        <v>0.64</v>
       </c>
       <c r="AE25">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>0.91</v>
+        <v>1.43</v>
       </c>
       <c r="C26">
-        <v>0.56999999999999995</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D26">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>0.35</v>
+        <v>1.29</v>
       </c>
       <c r="F26">
-        <v>0.17</v>
+        <v>2.25</v>
       </c>
       <c r="G26">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>0.24</v>
+        <v>1.18</v>
       </c>
       <c r="I26">
-        <v>0.13</v>
+        <v>2.13</v>
       </c>
       <c r="J26">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="K26">
-        <v>0.26</v>
+        <v>1.18</v>
       </c>
       <c r="L26">
-        <v>0.14000000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="M26">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="N26">
-        <v>0.61</v>
+        <v>1.25</v>
       </c>
       <c r="O26">
-        <v>0.36</v>
+        <v>2.37</v>
       </c>
       <c r="P26">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="Q26">
-        <v>0.85</v>
+        <v>1.24</v>
       </c>
       <c r="R26">
-        <v>0.53</v>
+        <v>2.46</v>
       </c>
       <c r="S26">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="T26">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="U26">
-        <v>0.99</v>
+        <v>2.77</v>
       </c>
       <c r="V26">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="W26">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="X26">
-        <v>1.03</v>
+        <v>2.87</v>
       </c>
       <c r="Y26">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="Z26">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AA26">
-        <v>0.76</v>
+        <v>2.85</v>
       </c>
       <c r="AB26">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="AC26">
-        <v>1.1499999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="AD26">
-        <v>0.64</v>
+        <v>2.82</v>
       </c>
       <c r="AE26">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1.43</v>
-      </c>
-      <c r="C27">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>1.29</v>
-      </c>
-      <c r="F27">
-        <v>2.25</v>
-      </c>
-      <c r="G27">
-        <v>12</v>
-      </c>
-      <c r="H27">
-        <v>1.18</v>
-      </c>
-      <c r="I27">
-        <v>2.13</v>
-      </c>
-      <c r="J27">
-        <v>12</v>
-      </c>
-      <c r="K27">
-        <v>1.18</v>
-      </c>
-      <c r="L27">
-        <v>2.15</v>
-      </c>
-      <c r="M27">
-        <v>13</v>
-      </c>
-      <c r="N27">
-        <v>1.25</v>
-      </c>
-      <c r="O27">
-        <v>2.37</v>
-      </c>
-      <c r="P27">
-        <v>16</v>
-      </c>
-      <c r="Q27">
-        <v>1.24</v>
-      </c>
-      <c r="R27">
-        <v>2.46</v>
-      </c>
-      <c r="S27">
-        <v>13</v>
-      </c>
-      <c r="T27">
-        <v>1.41</v>
-      </c>
-      <c r="U27">
-        <v>2.77</v>
-      </c>
-      <c r="V27">
-        <v>7</v>
-      </c>
-      <c r="W27">
-        <v>1.51</v>
-      </c>
-      <c r="X27">
-        <v>2.87</v>
-      </c>
-      <c r="Y27">
-        <v>7</v>
-      </c>
-      <c r="Z27">
-        <v>1.47</v>
-      </c>
-      <c r="AA27">
-        <v>2.85</v>
-      </c>
-      <c r="AB27">
         <v>11</v>
       </c>
-      <c r="AC27">
-        <v>1.41</v>
-      </c>
-      <c r="AD27">
-        <v>2.82</v>
-      </c>
-      <c r="AE27">
-        <v>11</v>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.01</v>
+      </c>
+      <c r="C29">
+        <v>0.24</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>0.02</v>
+      </c>
+      <c r="F29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G29">
+        <v>31</v>
+      </c>
+      <c r="H29">
+        <v>0.22</v>
+      </c>
+      <c r="I29">
+        <v>0.16</v>
+      </c>
+      <c r="J29">
+        <v>64</v>
+      </c>
+      <c r="K29">
+        <v>0.39</v>
+      </c>
+      <c r="L29">
+        <v>0.21</v>
+      </c>
+      <c r="M29">
+        <v>89</v>
+      </c>
+      <c r="N29">
+        <v>0.27</v>
+      </c>
+      <c r="O29">
+        <v>0.36</v>
+      </c>
+      <c r="P29">
+        <v>36</v>
+      </c>
+      <c r="Q29">
+        <v>0.34</v>
+      </c>
+      <c r="R29">
+        <v>0.37</v>
+      </c>
+      <c r="S29">
+        <v>44</v>
+      </c>
+      <c r="T29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U29">
+        <v>0.33</v>
+      </c>
+      <c r="V29">
+        <v>26</v>
+      </c>
+      <c r="W29">
+        <v>0.09</v>
+      </c>
+      <c r="X29">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y29">
+        <v>29</v>
+      </c>
+      <c r="Z29">
+        <v>0.1</v>
+      </c>
+      <c r="AA29">
+        <v>0.27</v>
+      </c>
+      <c r="AB29">
+        <v>23</v>
+      </c>
+      <c r="AC29">
+        <v>0.1</v>
+      </c>
+      <c r="AD29">
+        <v>0.26</v>
+      </c>
+      <c r="AE29">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>0.01</v>
+        <v>202.71</v>
       </c>
       <c r="C30">
-        <v>0.24</v>
+        <v>103.38</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>80.8</v>
       </c>
       <c r="F30">
-        <v>0.14000000000000001</v>
+        <v>153.55000000000001</v>
       </c>
       <c r="G30">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H30">
-        <v>0.22</v>
+        <v>4.32</v>
       </c>
       <c r="I30">
-        <v>0.16</v>
+        <v>152.69</v>
       </c>
       <c r="J30">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>0.39</v>
+        <v>3.26</v>
       </c>
       <c r="L30">
-        <v>0.21</v>
+        <v>33.86</v>
       </c>
       <c r="M30">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>0.27</v>
+        <v>-0.93</v>
       </c>
       <c r="O30">
-        <v>0.36</v>
+        <v>52.61</v>
       </c>
       <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>-3.59</v>
+      </c>
+      <c r="R30">
+        <v>11.31</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <v>6.93</v>
+      </c>
+      <c r="U30">
+        <v>60.91</v>
+      </c>
+      <c r="V30">
         <v>36</v>
       </c>
-      <c r="Q30">
-        <v>0.34</v>
-      </c>
-      <c r="R30">
-        <v>0.37</v>
-      </c>
-      <c r="S30">
-        <v>44</v>
-      </c>
-      <c r="T30">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U30">
-        <v>0.33</v>
-      </c>
-      <c r="V30">
-        <v>26</v>
-      </c>
       <c r="W30">
-        <v>0.09</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="X30">
-        <v>0.28999999999999998</v>
+        <v>37.5</v>
       </c>
       <c r="Y30">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="Z30">
-        <v>0.1</v>
+        <v>11.22</v>
       </c>
       <c r="AA30">
-        <v>0.27</v>
+        <v>114.26</v>
       </c>
       <c r="AB30">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AC30">
-        <v>0.1</v>
+        <v>5.89</v>
       </c>
       <c r="AD30">
-        <v>0.26</v>
+        <v>27.95</v>
       </c>
       <c r="AE30">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>202.71</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>103.38</v>
+        <v>1.24</v>
       </c>
       <c r="D31">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E31">
-        <v>80.8</v>
+        <v>0.89</v>
       </c>
       <c r="F31">
-        <v>153.55000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G31">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>4.32</v>
+        <v>0.82</v>
       </c>
       <c r="I31">
-        <v>152.69</v>
+        <v>1.17</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="K31">
-        <v>3.26</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>33.86</v>
+        <v>1.4</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N31">
-        <v>-0.93</v>
+        <v>1.59</v>
       </c>
       <c r="O31">
-        <v>52.61</v>
+        <v>1.78</v>
       </c>
       <c r="P31">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Q31">
-        <v>-3.59</v>
+        <v>1.68</v>
       </c>
       <c r="R31">
-        <v>11.31</v>
+        <v>1.77</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="T31">
-        <v>6.93</v>
+        <v>0.96</v>
       </c>
       <c r="U31">
-        <v>60.91</v>
+        <v>0.92</v>
       </c>
       <c r="V31">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W31">
-        <v>16.149999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="X31">
-        <v>37.5</v>
+        <v>0.95</v>
       </c>
       <c r="Y31">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="Z31">
-        <v>11.22</v>
+        <v>0.81</v>
       </c>
       <c r="AA31">
-        <v>114.26</v>
+        <v>0.94</v>
       </c>
       <c r="AB31">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="AC31">
-        <v>5.89</v>
+        <v>0.82</v>
       </c>
       <c r="AD31">
-        <v>27.95</v>
+        <v>0.95</v>
       </c>
       <c r="AE31">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>96.81</v>
       </c>
       <c r="C32">
-        <v>1.24</v>
+        <v>15.64</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E32">
-        <v>0.89</v>
+        <v>37.33</v>
       </c>
       <c r="F32">
-        <v>1.1299999999999999</v>
+        <v>18.59</v>
       </c>
       <c r="G32">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="H32">
-        <v>0.82</v>
+        <v>3.4</v>
       </c>
       <c r="I32">
-        <v>1.17</v>
+        <v>13.77</v>
       </c>
       <c r="J32">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="L32">
-        <v>1.4</v>
+        <v>8.67</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="N32">
-        <v>1.59</v>
+        <v>5.4</v>
       </c>
       <c r="O32">
-        <v>1.78</v>
+        <v>8.07</v>
       </c>
       <c r="P32">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="Q32">
-        <v>1.68</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="R32">
-        <v>1.77</v>
+        <v>4.87</v>
       </c>
       <c r="S32">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="T32">
-        <v>0.96</v>
+        <v>6.47</v>
       </c>
       <c r="U32">
-        <v>0.92</v>
+        <v>6.38</v>
       </c>
       <c r="V32">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="W32">
-        <v>0.88</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="X32">
-        <v>0.95</v>
+        <v>7.06</v>
       </c>
       <c r="Y32">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="Z32">
-        <v>0.81</v>
+        <v>8.08</v>
       </c>
       <c r="AA32">
-        <v>0.94</v>
+        <v>7.32</v>
       </c>
       <c r="AB32">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AC32">
-        <v>0.82</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="AD32">
-        <v>0.95</v>
+        <v>5.6</v>
       </c>
       <c r="AE32">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>96.81</v>
+        <v>1.29</v>
       </c>
       <c r="C33">
-        <v>15.64</v>
+        <v>3.49</v>
       </c>
       <c r="D33">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>37.33</v>
+        <v>1.02</v>
       </c>
       <c r="F33">
-        <v>18.59</v>
+        <v>2.9</v>
       </c>
       <c r="G33">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="H33">
-        <v>3.4</v>
+        <v>0.33</v>
       </c>
       <c r="I33">
-        <v>13.77</v>
+        <v>2.44</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>2.2400000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="L33">
-        <v>8.67</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>0.59</v>
+      </c>
+      <c r="O33">
+        <v>2.48</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>1.04</v>
+      </c>
+      <c r="R33">
+        <v>2.7</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>0.96</v>
+      </c>
+      <c r="U33">
+        <v>1.8</v>
+      </c>
+      <c r="V33">
         <v>12</v>
       </c>
-      <c r="N33">
-        <v>5.4</v>
-      </c>
-      <c r="O33">
-        <v>8.07</v>
-      </c>
-      <c r="P33">
-        <v>67</v>
-      </c>
-      <c r="Q33">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="R33">
-        <v>4.87</v>
-      </c>
-      <c r="S33">
-        <v>56</v>
-      </c>
-      <c r="T33">
-        <v>6.47</v>
-      </c>
-      <c r="U33">
-        <v>6.38</v>
-      </c>
-      <c r="V33">
-        <v>72</v>
-      </c>
       <c r="W33">
-        <v>9.6300000000000008</v>
+        <v>1.04</v>
       </c>
       <c r="X33">
-        <v>7.06</v>
+        <v>1.86</v>
       </c>
       <c r="Y33">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="Z33">
-        <v>8.08</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>7.32</v>
+        <v>1.83</v>
       </c>
       <c r="AB33">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="AC33">
-        <v>8.0399999999999991</v>
+        <v>0.65</v>
       </c>
       <c r="AD33">
-        <v>5.6</v>
+        <v>1.66</v>
       </c>
       <c r="AE33">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>1.29</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C34">
-        <v>3.49</v>
+        <v>0.49</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E34">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="F34">
-        <v>2.9</v>
+        <v>0.41</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H34">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="I34">
-        <v>2.44</v>
+        <v>0.44</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>2.3199999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="N34">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="O34">
-        <v>2.48</v>
+        <v>0.51</v>
       </c>
       <c r="P34">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="Q34">
-        <v>1.04</v>
+        <v>0.72</v>
       </c>
       <c r="R34">
-        <v>2.7</v>
+        <v>0.48</v>
       </c>
       <c r="S34">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="T34">
-        <v>0.96</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>0.52</v>
       </c>
       <c r="V34">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="W34">
-        <v>1.04</v>
+        <v>0.41</v>
       </c>
       <c r="X34">
-        <v>1.86</v>
+        <v>0.48</v>
       </c>
       <c r="Y34">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AA34">
-        <v>1.83</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AB34">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="AC34">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AD34">
-        <v>1.66</v>
+        <v>0.51</v>
       </c>
       <c r="AE34">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>1.1399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="C35">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="D35">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E35">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F35">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="G35">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H35">
-        <v>0.62</v>
+        <v>2.34</v>
       </c>
       <c r="I35">
-        <v>0.44</v>
+        <v>0.74</v>
       </c>
       <c r="J35">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>2.78</v>
       </c>
       <c r="L35">
-        <v>0.36</v>
+        <v>0.9</v>
       </c>
       <c r="M35">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="N35">
+        <v>2.69</v>
+      </c>
+      <c r="O35">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P35">
+        <v>93</v>
+      </c>
+      <c r="Q35">
+        <v>1.66</v>
+      </c>
+      <c r="R35">
+        <v>0.94</v>
+      </c>
+      <c r="S35">
+        <v>82</v>
+      </c>
+      <c r="T35">
+        <v>1.05</v>
+      </c>
+      <c r="U35">
+        <v>0.79</v>
+      </c>
+      <c r="V35">
+        <v>80</v>
+      </c>
+      <c r="W35">
+        <v>0.88</v>
+      </c>
+      <c r="X35">
+        <v>0.81</v>
+      </c>
+      <c r="Y35">
+        <v>62</v>
+      </c>
+      <c r="Z35">
+        <v>0.83</v>
+      </c>
+      <c r="AA35">
+        <v>0.81</v>
+      </c>
+      <c r="AB35">
+        <v>53</v>
+      </c>
+      <c r="AC35">
+        <v>1.29</v>
+      </c>
+      <c r="AD35">
         <v>0.87</v>
       </c>
-      <c r="O35">
-        <v>0.51</v>
-      </c>
-      <c r="P35">
-        <v>80</v>
-      </c>
-      <c r="Q35">
-        <v>0.72</v>
-      </c>
-      <c r="R35">
-        <v>0.48</v>
-      </c>
-      <c r="S35">
-        <v>86</v>
-      </c>
-      <c r="T35">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="U35">
-        <v>0.52</v>
-      </c>
-      <c r="V35">
-        <v>65</v>
-      </c>
-      <c r="W35">
-        <v>0.41</v>
-      </c>
-      <c r="X35">
-        <v>0.48</v>
-      </c>
-      <c r="Y35">
-        <v>40</v>
-      </c>
-      <c r="Z35">
-        <v>0.92</v>
-      </c>
-      <c r="AA35">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AB35">
+      <c r="AE35">
         <v>84</v>
-      </c>
-      <c r="AC35">
-        <v>0.5</v>
-      </c>
-      <c r="AD35">
-        <v>0.51</v>
-      </c>
-      <c r="AE35">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0.78</v>
       </c>
       <c r="C36">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D36">
         <v>65</v>
       </c>
       <c r="E36">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F36">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="G36">
         <v>75</v>
       </c>
       <c r="H36">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="I36">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="J36">
         <v>93</v>
       </c>
       <c r="K36">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="L36">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M36">
         <v>93</v>
@@ -4843,7 +4938,7 @@
         <v>2.69</v>
       </c>
       <c r="O36">
-        <v>1.0900000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P36">
         <v>93</v>
@@ -4852,1675 +4947,1580 @@
         <v>1.66</v>
       </c>
       <c r="R36">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="S36">
         <v>82</v>
       </c>
       <c r="T36">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U36">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="V36">
         <v>80</v>
       </c>
       <c r="W36">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="X36">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="Y36">
         <v>62</v>
       </c>
       <c r="Z36">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AA36">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="AB36">
         <v>53</v>
       </c>
       <c r="AC36">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AD36">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="AE36">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0.78</v>
-      </c>
-      <c r="C37">
-        <v>0.61</v>
-      </c>
-      <c r="D37">
-        <v>65</v>
-      </c>
-      <c r="E37">
-        <v>0.89</v>
-      </c>
-      <c r="F37">
-        <v>0.61</v>
-      </c>
-      <c r="G37">
-        <v>75</v>
-      </c>
-      <c r="H37">
-        <v>2.35</v>
-      </c>
-      <c r="I37">
-        <v>0.75</v>
-      </c>
-      <c r="J37">
-        <v>93</v>
-      </c>
-      <c r="K37">
-        <v>2.79</v>
-      </c>
-      <c r="L37">
-        <v>0.91</v>
-      </c>
-      <c r="M37">
-        <v>93</v>
-      </c>
-      <c r="N37">
-        <v>2.69</v>
-      </c>
-      <c r="O37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P37">
-        <v>93</v>
-      </c>
-      <c r="Q37">
-        <v>1.66</v>
-      </c>
-      <c r="R37">
-        <v>0.96</v>
-      </c>
-      <c r="S37">
-        <v>82</v>
-      </c>
-      <c r="T37">
-        <v>1.06</v>
-      </c>
-      <c r="U37">
-        <v>0.81</v>
-      </c>
-      <c r="V37">
-        <v>80</v>
-      </c>
-      <c r="W37">
-        <v>0.9</v>
-      </c>
-      <c r="X37">
-        <v>0.84</v>
-      </c>
-      <c r="Y37">
-        <v>62</v>
-      </c>
-      <c r="Z37">
-        <v>0.85</v>
-      </c>
-      <c r="AA37">
-        <v>0.84</v>
-      </c>
-      <c r="AB37">
-        <v>53</v>
-      </c>
-      <c r="AC37">
-        <v>1.31</v>
-      </c>
-      <c r="AD37">
-        <v>0.91</v>
-      </c>
-      <c r="AE37">
-        <v>84</v>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-6.65</v>
+      </c>
+      <c r="C39">
+        <v>1.37</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>-15.87</v>
+      </c>
+      <c r="F39">
+        <v>-3.12</v>
+      </c>
+      <c r="G39">
+        <v>21</v>
+      </c>
+      <c r="H39">
+        <v>-28.39</v>
+      </c>
+      <c r="I39">
+        <v>-9.17</v>
+      </c>
+      <c r="J39">
+        <v>16</v>
+      </c>
+      <c r="K39">
+        <v>-26.73</v>
+      </c>
+      <c r="L39">
+        <v>-8.09</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>-3.42</v>
+      </c>
+      <c r="O39">
+        <v>-3.65</v>
+      </c>
+      <c r="P39">
+        <v>56</v>
+      </c>
+      <c r="Q39">
+        <v>11.6</v>
+      </c>
+      <c r="R39">
+        <v>2.63</v>
+      </c>
+      <c r="S39">
+        <v>75</v>
+      </c>
+      <c r="T39">
+        <v>30.62</v>
+      </c>
+      <c r="U39">
+        <v>16.48</v>
+      </c>
+      <c r="V39">
+        <v>84</v>
+      </c>
+      <c r="W39">
+        <v>37.42</v>
+      </c>
+      <c r="X39">
+        <v>18.11</v>
+      </c>
+      <c r="Y39">
+        <v>85</v>
+      </c>
+      <c r="Z39">
+        <v>21.11</v>
+      </c>
+      <c r="AA39">
+        <v>15.29</v>
+      </c>
+      <c r="AB39">
+        <v>69</v>
+      </c>
+      <c r="AC39">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="AD39">
+        <v>15.07</v>
+      </c>
+      <c r="AE39">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>-6.65</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="C40">
-        <v>1.37</v>
+        <v>50.63</v>
       </c>
       <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>35.33</v>
+      </c>
+      <c r="F40">
+        <v>49.42</v>
+      </c>
+      <c r="G40">
         <v>25</v>
       </c>
-      <c r="E40">
-        <v>-15.87</v>
-      </c>
-      <c r="F40">
-        <v>-3.12</v>
-      </c>
-      <c r="G40">
-        <v>21</v>
-      </c>
       <c r="H40">
-        <v>-28.39</v>
+        <v>31.13</v>
       </c>
       <c r="I40">
-        <v>-9.17</v>
+        <v>46.67</v>
       </c>
       <c r="J40">
         <v>16</v>
       </c>
       <c r="K40">
-        <v>-26.73</v>
+        <v>29.81</v>
       </c>
       <c r="L40">
-        <v>-8.09</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>-3.42</v>
+        <v>31.98</v>
       </c>
       <c r="O40">
-        <v>-3.65</v>
+        <v>47.39</v>
       </c>
       <c r="P40">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q40">
-        <v>11.6</v>
+        <v>33.14</v>
       </c>
       <c r="R40">
-        <v>2.63</v>
+        <v>49.29</v>
       </c>
       <c r="S40">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="T40">
-        <v>30.62</v>
+        <v>38.08</v>
       </c>
       <c r="U40">
-        <v>16.48</v>
+        <v>54.17</v>
       </c>
       <c r="V40">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="W40">
-        <v>37.42</v>
+        <v>38.14</v>
       </c>
       <c r="X40">
-        <v>18.11</v>
+        <v>55.06</v>
       </c>
       <c r="Y40">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="Z40">
-        <v>21.11</v>
+        <v>39.25</v>
       </c>
       <c r="AA40">
-        <v>15.29</v>
+        <v>54.2</v>
       </c>
       <c r="AB40">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AC40">
-        <v>19.920000000000002</v>
+        <v>35.89</v>
       </c>
       <c r="AD40">
-        <v>15.07</v>
+        <v>54.07</v>
       </c>
       <c r="AE40">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>35.090000000000003</v>
+        <v>41.64</v>
       </c>
       <c r="C41">
-        <v>50.63</v>
+        <v>61.72</v>
       </c>
       <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>42.86</v>
+      </c>
+      <c r="F41">
+        <v>59.38</v>
+      </c>
+      <c r="G41">
         <v>18</v>
       </c>
-      <c r="E41">
-        <v>35.33</v>
-      </c>
-      <c r="F41">
-        <v>49.42</v>
-      </c>
-      <c r="G41">
-        <v>25</v>
-      </c>
       <c r="H41">
-        <v>31.13</v>
+        <v>37.51</v>
       </c>
       <c r="I41">
-        <v>46.67</v>
+        <v>55.47</v>
       </c>
       <c r="J41">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K41">
-        <v>29.81</v>
+        <v>35.81</v>
       </c>
       <c r="L41">
-        <v>45</v>
+        <v>54.13</v>
       </c>
       <c r="M41">
         <v>20</v>
       </c>
       <c r="N41">
-        <v>31.98</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="O41">
-        <v>47.39</v>
+        <v>57.02</v>
       </c>
       <c r="P41">
         <v>16</v>
       </c>
       <c r="Q41">
-        <v>33.14</v>
+        <v>41.43</v>
       </c>
       <c r="R41">
+        <v>60.41</v>
+      </c>
+      <c r="S41">
+        <v>17</v>
+      </c>
+      <c r="T41">
         <v>49.29</v>
       </c>
-      <c r="S41">
-        <v>20</v>
-      </c>
-      <c r="T41">
-        <v>38.08</v>
-      </c>
       <c r="U41">
-        <v>54.17</v>
+        <v>69.61</v>
       </c>
       <c r="V41">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W41">
-        <v>38.14</v>
+        <v>52.2</v>
       </c>
       <c r="X41">
-        <v>55.06</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="Y41">
         <v>14</v>
       </c>
       <c r="Z41">
-        <v>39.25</v>
+        <v>52.76</v>
       </c>
       <c r="AA41">
-        <v>54.2</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AB41">
         <v>19</v>
       </c>
       <c r="AC41">
-        <v>35.89</v>
+        <v>49.08</v>
       </c>
       <c r="AD41">
-        <v>54.07</v>
+        <v>70.5</v>
       </c>
       <c r="AE41">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>41.64</v>
-      </c>
-      <c r="C42">
-        <v>61.72</v>
-      </c>
-      <c r="D42">
-        <v>15</v>
-      </c>
-      <c r="E42">
-        <v>42.86</v>
-      </c>
-      <c r="F42">
-        <v>59.38</v>
-      </c>
-      <c r="G42">
-        <v>18</v>
-      </c>
-      <c r="H42">
-        <v>37.51</v>
-      </c>
-      <c r="I42">
-        <v>55.47</v>
-      </c>
-      <c r="J42">
-        <v>19</v>
-      </c>
-      <c r="K42">
-        <v>35.81</v>
-      </c>
-      <c r="L42">
-        <v>54.13</v>
-      </c>
-      <c r="M42">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <v>39.659999999999997</v>
-      </c>
-      <c r="O42">
-        <v>57.02</v>
-      </c>
-      <c r="P42">
-        <v>16</v>
-      </c>
-      <c r="Q42">
-        <v>41.43</v>
-      </c>
-      <c r="R42">
-        <v>60.41</v>
-      </c>
-      <c r="S42">
-        <v>17</v>
-      </c>
-      <c r="T42">
-        <v>49.29</v>
-      </c>
-      <c r="U42">
-        <v>69.61</v>
-      </c>
-      <c r="V42">
-        <v>15</v>
-      </c>
-      <c r="W42">
-        <v>52.2</v>
-      </c>
-      <c r="X42">
-        <v>71.959999999999994</v>
-      </c>
-      <c r="Y42">
-        <v>14</v>
-      </c>
-      <c r="Z42">
-        <v>52.76</v>
-      </c>
-      <c r="AA42">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="AB42">
-        <v>19</v>
-      </c>
-      <c r="AC42">
-        <v>49.08</v>
-      </c>
-      <c r="AD42">
-        <v>70.5</v>
-      </c>
-      <c r="AE42">
-        <v>15</v>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>10.933299999999999</v>
+      </c>
+      <c r="C44">
+        <v>8.76</v>
+      </c>
+      <c r="D44">
+        <v>96</v>
+      </c>
+      <c r="E44">
+        <v>12.126899999999999</v>
+      </c>
+      <c r="F44">
+        <v>8.4</v>
+      </c>
+      <c r="G44">
+        <v>93</v>
+      </c>
+      <c r="H44">
+        <v>10.474399999999999</v>
+      </c>
+      <c r="I44">
+        <v>8.25</v>
+      </c>
+      <c r="J44">
+        <v>93</v>
+      </c>
+      <c r="K44">
+        <v>10.765700000000001</v>
+      </c>
+      <c r="L44">
+        <v>8.56</v>
+      </c>
+      <c r="M44">
+        <v>89</v>
+      </c>
+      <c r="N44">
+        <v>10.3386</v>
+      </c>
+      <c r="O44">
+        <v>8.42</v>
+      </c>
+      <c r="P44">
+        <v>90</v>
+      </c>
+      <c r="Q44">
+        <v>9.9498999999999995</v>
+      </c>
+      <c r="R44">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="S44">
+        <v>86</v>
+      </c>
+      <c r="T44">
+        <v>12.032999999999999</v>
+      </c>
+      <c r="U44">
+        <v>9.56</v>
+      </c>
+      <c r="V44">
+        <v>88</v>
+      </c>
+      <c r="W44">
+        <v>11.684699999999999</v>
+      </c>
+      <c r="X44">
+        <v>9.61</v>
+      </c>
+      <c r="Y44">
+        <v>92</v>
+      </c>
+      <c r="Z44">
+        <v>13.0573</v>
+      </c>
+      <c r="AA44">
+        <v>9.56</v>
+      </c>
+      <c r="AB44">
+        <v>92</v>
+      </c>
+      <c r="AC44">
+        <v>12.134600000000001</v>
+      </c>
+      <c r="AD44">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="AE44">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>10.933299999999999</v>
+        <v>19.850200000000001</v>
       </c>
       <c r="C45">
-        <v>8.76</v>
+        <v>15.79</v>
       </c>
       <c r="D45">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E45">
-        <v>12.126899999999999</v>
+        <v>22.038699999999999</v>
       </c>
       <c r="F45">
-        <v>8.4</v>
+        <v>15.46</v>
       </c>
       <c r="G45">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H45">
-        <v>10.474399999999999</v>
+        <v>22.076799999999999</v>
       </c>
       <c r="I45">
-        <v>8.25</v>
+        <v>15.74</v>
       </c>
       <c r="J45">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>10.765700000000001</v>
+        <v>22.290800000000001</v>
       </c>
       <c r="L45">
-        <v>8.56</v>
+        <v>15.57</v>
       </c>
       <c r="M45">
         <v>89</v>
       </c>
       <c r="N45">
-        <v>10.3386</v>
+        <v>21.053999999999998</v>
       </c>
       <c r="O45">
-        <v>8.42</v>
+        <v>15.12</v>
       </c>
       <c r="P45">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q45">
-        <v>9.9498999999999995</v>
+        <v>19.532399999999999</v>
       </c>
       <c r="R45">
-        <v>8.4700000000000006</v>
+        <v>14.93</v>
       </c>
       <c r="S45">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T45">
-        <v>12.032999999999999</v>
+        <v>18.6508</v>
       </c>
       <c r="U45">
-        <v>9.56</v>
+        <v>14.11</v>
       </c>
       <c r="V45">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="W45">
-        <v>11.684699999999999</v>
+        <v>19.0413</v>
       </c>
       <c r="X45">
-        <v>9.61</v>
+        <v>14.24</v>
       </c>
       <c r="Y45">
         <v>92</v>
       </c>
       <c r="Z45">
-        <v>13.0573</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="AA45">
-        <v>9.56</v>
+        <v>14.28</v>
       </c>
       <c r="AB45">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AC45">
-        <v>12.134600000000001</v>
+        <v>20.444600000000001</v>
       </c>
       <c r="AD45">
-        <v>9.7799999999999994</v>
+        <v>14.49</v>
       </c>
       <c r="AE45">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="C46">
+        <v>44.95</v>
+      </c>
+      <c r="D46">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <v>14.28</v>
+      </c>
+      <c r="F46">
+        <v>30.99</v>
+      </c>
+      <c r="G46">
+        <v>43</v>
+      </c>
+      <c r="H46">
+        <v>12.49</v>
+      </c>
+      <c r="I46">
+        <v>48.02</v>
+      </c>
+      <c r="J46">
+        <v>29</v>
+      </c>
+      <c r="K46">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L46">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="M46">
+        <v>31</v>
+      </c>
+      <c r="N46">
+        <v>-15.39</v>
+      </c>
+      <c r="O46">
+        <v>50.21</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>-5.77</v>
+      </c>
+      <c r="R46">
+        <v>69.28</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="U46">
+        <v>72.08</v>
+      </c>
+      <c r="V46">
+        <v>19</v>
+      </c>
+      <c r="W46">
+        <v>20.27</v>
+      </c>
+      <c r="X46">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="Y46">
+        <v>25</v>
+      </c>
+      <c r="Z46">
+        <v>26.4</v>
+      </c>
+      <c r="AA46">
+        <v>77.02</v>
+      </c>
+      <c r="AB46">
+        <v>7</v>
+      </c>
+      <c r="AC46">
+        <v>56.22</v>
+      </c>
+      <c r="AD46">
+        <v>54.12</v>
+      </c>
+      <c r="AE46">
         <v>42</v>
-      </c>
-      <c r="B46">
-        <v>19.850200000000001</v>
-      </c>
-      <c r="C46">
-        <v>15.79</v>
-      </c>
-      <c r="D46">
-        <v>84</v>
-      </c>
-      <c r="E46">
-        <v>22.038699999999999</v>
-      </c>
-      <c r="F46">
-        <v>15.46</v>
-      </c>
-      <c r="G46">
-        <v>87</v>
-      </c>
-      <c r="H46">
-        <v>22.076799999999999</v>
-      </c>
-      <c r="I46">
-        <v>15.74</v>
-      </c>
-      <c r="J46">
-        <v>87</v>
-      </c>
-      <c r="K46">
-        <v>22.290800000000001</v>
-      </c>
-      <c r="L46">
-        <v>15.57</v>
-      </c>
-      <c r="M46">
-        <v>89</v>
-      </c>
-      <c r="N46">
-        <v>21.053999999999998</v>
-      </c>
-      <c r="O46">
-        <v>15.12</v>
-      </c>
-      <c r="P46">
-        <v>93</v>
-      </c>
-      <c r="Q46">
-        <v>19.532399999999999</v>
-      </c>
-      <c r="R46">
-        <v>14.93</v>
-      </c>
-      <c r="S46">
-        <v>89</v>
-      </c>
-      <c r="T46">
-        <v>18.6508</v>
-      </c>
-      <c r="U46">
-        <v>14.11</v>
-      </c>
-      <c r="V46">
-        <v>92</v>
-      </c>
-      <c r="W46">
-        <v>19.0413</v>
-      </c>
-      <c r="X46">
-        <v>14.24</v>
-      </c>
-      <c r="Y46">
-        <v>92</v>
-      </c>
-      <c r="Z46">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="AA46">
-        <v>14.28</v>
-      </c>
-      <c r="AB46">
-        <v>96</v>
-      </c>
-      <c r="AC46">
-        <v>20.444600000000001</v>
-      </c>
-      <c r="AD46">
-        <v>14.49</v>
-      </c>
-      <c r="AE46">
-        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>17.350000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="C47">
-        <v>44.95</v>
+        <v>3.41</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>14.28</v>
+        <v>2.52</v>
       </c>
       <c r="F47">
-        <v>30.99</v>
+        <v>3.47</v>
       </c>
       <c r="G47">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H47">
-        <v>12.49</v>
+        <v>6.71</v>
       </c>
       <c r="I47">
-        <v>48.02</v>
+        <v>3.98</v>
       </c>
       <c r="J47">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>8.6999999999999993</v>
+        <v>7.57</v>
       </c>
       <c r="L47">
-        <v>35.479999999999997</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="N47">
-        <v>-15.39</v>
+        <v>8.01</v>
       </c>
       <c r="O47">
-        <v>50.21</v>
+        <v>5.79</v>
       </c>
       <c r="P47">
+        <v>80</v>
+      </c>
+      <c r="Q47">
+        <v>5.51</v>
+      </c>
+      <c r="R47">
+        <v>5.35</v>
+      </c>
+      <c r="S47">
+        <v>55</v>
+      </c>
+      <c r="T47">
+        <v>3.33</v>
+      </c>
+      <c r="U47">
+        <v>4.67</v>
+      </c>
+      <c r="V47">
+        <v>26</v>
+      </c>
+      <c r="W47">
         <v>3</v>
       </c>
-      <c r="Q47">
-        <v>-5.77</v>
-      </c>
-      <c r="R47">
-        <v>69.28</v>
-      </c>
-      <c r="S47">
-        <v>6</v>
-      </c>
-      <c r="T47">
-        <v>39.869999999999997</v>
-      </c>
-      <c r="U47">
-        <v>72.08</v>
-      </c>
-      <c r="V47">
-        <v>19</v>
-      </c>
-      <c r="W47">
-        <v>20.27</v>
-      </c>
       <c r="X47">
-        <v>64.209999999999994</v>
+        <v>4.75</v>
       </c>
       <c r="Y47">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z47">
-        <v>26.4</v>
+        <v>2.54</v>
       </c>
       <c r="AA47">
-        <v>77.02</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="AB47">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AC47">
-        <v>56.22</v>
+        <v>3.82</v>
       </c>
       <c r="AD47">
-        <v>54.12</v>
+        <v>5.16</v>
       </c>
       <c r="AE47">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48">
-        <v>2.42</v>
-      </c>
-      <c r="C48">
-        <v>3.41</v>
-      </c>
-      <c r="D48">
-        <v>40</v>
-      </c>
-      <c r="E48">
-        <v>2.52</v>
-      </c>
-      <c r="F48">
-        <v>3.47</v>
-      </c>
-      <c r="G48">
-        <v>37</v>
-      </c>
-      <c r="H48">
-        <v>6.71</v>
-      </c>
-      <c r="I48">
-        <v>3.98</v>
-      </c>
-      <c r="J48">
-        <v>77</v>
-      </c>
-      <c r="K48">
-        <v>7.57</v>
-      </c>
-      <c r="L48">
-        <v>4.5</v>
-      </c>
-      <c r="M48">
-        <v>86</v>
-      </c>
-      <c r="N48">
-        <v>8.01</v>
-      </c>
-      <c r="O48">
-        <v>5.79</v>
-      </c>
-      <c r="P48">
-        <v>80</v>
-      </c>
-      <c r="Q48">
-        <v>5.51</v>
-      </c>
-      <c r="R48">
-        <v>5.35</v>
-      </c>
-      <c r="S48">
-        <v>55</v>
-      </c>
-      <c r="T48">
-        <v>3.33</v>
-      </c>
-      <c r="U48">
-        <v>4.67</v>
-      </c>
-      <c r="V48">
-        <v>26</v>
-      </c>
-      <c r="W48">
-        <v>3</v>
-      </c>
-      <c r="X48">
-        <v>4.75</v>
-      </c>
-      <c r="Y48">
-        <v>22</v>
-      </c>
-      <c r="Z48">
-        <v>2.54</v>
-      </c>
-      <c r="AA48">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="AB48">
-        <v>23</v>
-      </c>
-      <c r="AC48">
-        <v>3.82</v>
-      </c>
-      <c r="AD48">
-        <v>5.16</v>
-      </c>
-      <c r="AE48">
         <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>-13.58</v>
+      </c>
+      <c r="C50">
+        <v>2.69</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>-13.27</v>
+      </c>
+      <c r="F50">
+        <v>10.32</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>-5.0599999999999996</v>
+      </c>
+      <c r="I50">
+        <v>14.05</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>-7.71</v>
+      </c>
+      <c r="L50">
+        <v>9.94</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>14.51</v>
+      </c>
+      <c r="O50">
+        <v>19.18</v>
+      </c>
+      <c r="P50">
+        <v>40</v>
+      </c>
+      <c r="Q50">
+        <v>16.79</v>
+      </c>
+      <c r="R50">
+        <v>18.37</v>
+      </c>
+      <c r="S50">
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <v>1.81</v>
+      </c>
+      <c r="U50">
+        <v>6.91</v>
+      </c>
+      <c r="V50">
+        <v>26</v>
+      </c>
+      <c r="W50">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="X50">
+        <v>6.22</v>
+      </c>
+      <c r="Y50">
+        <v>14</v>
+      </c>
+      <c r="Z50">
+        <v>-5.85</v>
+      </c>
+      <c r="AA50">
+        <v>3.76</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
+      </c>
+      <c r="AC50">
+        <v>-6.93</v>
+      </c>
+      <c r="AD50">
+        <v>3.4</v>
+      </c>
+      <c r="AE50">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>-13.58</v>
+        <v>-10.78</v>
       </c>
       <c r="C51">
-        <v>2.69</v>
+        <v>12.01</v>
       </c>
       <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>-1.84</v>
+      </c>
+      <c r="F51">
+        <v>12.34</v>
+      </c>
+      <c r="G51">
+        <v>25</v>
+      </c>
+      <c r="H51">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="I51">
+        <v>12.73</v>
+      </c>
+      <c r="J51">
         <v>12</v>
       </c>
-      <c r="E51">
-        <v>-13.27</v>
-      </c>
-      <c r="F51">
-        <v>10.32</v>
-      </c>
-      <c r="G51">
+      <c r="K51">
         <v>3</v>
       </c>
-      <c r="H51">
-        <v>-5.0599999999999996</v>
-      </c>
-      <c r="I51">
-        <v>14.05</v>
-      </c>
-      <c r="J51">
-        <v>6</v>
-      </c>
-      <c r="K51">
-        <v>-7.71</v>
-      </c>
       <c r="L51">
-        <v>9.94</v>
+        <v>11.76</v>
       </c>
       <c r="M51">
+        <v>20</v>
+      </c>
+      <c r="N51">
+        <v>0.67</v>
+      </c>
+      <c r="O51">
+        <v>7.64</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
+      <c r="Q51">
+        <v>0.79</v>
+      </c>
+      <c r="R51">
+        <v>3.96</v>
+      </c>
+      <c r="S51">
+        <v>20</v>
+      </c>
+      <c r="T51">
+        <v>-6.44</v>
+      </c>
+      <c r="U51">
+        <v>5.84</v>
+      </c>
+      <c r="V51">
         <v>3</v>
       </c>
-      <c r="N51">
-        <v>14.51</v>
-      </c>
-      <c r="O51">
-        <v>19.18</v>
-      </c>
-      <c r="P51">
-        <v>40</v>
-      </c>
-      <c r="Q51">
-        <v>16.79</v>
-      </c>
-      <c r="R51">
-        <v>18.37</v>
-      </c>
-      <c r="S51">
-        <v>48</v>
-      </c>
-      <c r="T51">
-        <v>1.81</v>
-      </c>
-      <c r="U51">
-        <v>6.91</v>
-      </c>
-      <c r="V51">
-        <v>26</v>
-      </c>
       <c r="W51">
-        <v>1.1599999999999999</v>
+        <v>-6.07</v>
       </c>
       <c r="X51">
-        <v>6.22</v>
+        <v>4.49</v>
       </c>
       <c r="Y51">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z51">
-        <v>-5.85</v>
+        <v>0.78</v>
       </c>
       <c r="AA51">
-        <v>3.76</v>
+        <v>1.82</v>
       </c>
       <c r="AB51">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AC51">
-        <v>-6.93</v>
+        <v>-3.95</v>
       </c>
       <c r="AD51">
-        <v>3.4</v>
+        <v>3.12</v>
       </c>
       <c r="AE51">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>-10.78</v>
+        <v>-2.59</v>
       </c>
       <c r="C52">
-        <v>12.01</v>
+        <v>12.44</v>
       </c>
       <c r="D52">
         <v>6</v>
       </c>
       <c r="E52">
-        <v>-1.84</v>
+        <v>2.82</v>
       </c>
       <c r="F52">
-        <v>12.34</v>
+        <v>17.37</v>
       </c>
       <c r="G52">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H52">
-        <v>-2.4900000000000002</v>
+        <v>-7.58</v>
       </c>
       <c r="I52">
-        <v>12.73</v>
+        <v>13.37</v>
       </c>
       <c r="J52">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K52">
+        <v>-17</v>
+      </c>
+      <c r="L52">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="M52">
         <v>3</v>
       </c>
-      <c r="L52">
-        <v>11.76</v>
-      </c>
-      <c r="M52">
+      <c r="N52">
+        <v>-3.82</v>
+      </c>
+      <c r="O52">
+        <v>4.5</v>
+      </c>
+      <c r="P52">
         <v>20</v>
       </c>
-      <c r="N52">
-        <v>0.67</v>
-      </c>
-      <c r="O52">
-        <v>7.64</v>
-      </c>
-      <c r="P52">
-        <v>10</v>
-      </c>
       <c r="Q52">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
       <c r="R52">
-        <v>3.96</v>
+        <v>8.09</v>
       </c>
       <c r="S52">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T52">
-        <v>-6.44</v>
+        <v>-1.23</v>
       </c>
       <c r="U52">
-        <v>5.84</v>
+        <v>6.1</v>
       </c>
       <c r="V52">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W52">
-        <v>-6.07</v>
+        <v>7.5</v>
       </c>
       <c r="X52">
-        <v>4.49</v>
+        <v>6.59</v>
       </c>
       <c r="Y52">
+        <v>62</v>
+      </c>
+      <c r="Z52">
+        <v>1.32</v>
+      </c>
+      <c r="AA52">
+        <v>4.54</v>
+      </c>
+      <c r="AB52">
+        <v>23</v>
+      </c>
+      <c r="AC52">
+        <v>-3.72</v>
+      </c>
+      <c r="AD52">
+        <v>2.9</v>
+      </c>
+      <c r="AE52">
         <v>11</v>
-      </c>
-      <c r="Z52">
-        <v>0.78</v>
-      </c>
-      <c r="AA52">
-        <v>1.82</v>
-      </c>
-      <c r="AB52">
-        <v>42</v>
-      </c>
-      <c r="AC52">
-        <v>-3.95</v>
-      </c>
-      <c r="AD52">
-        <v>3.12</v>
-      </c>
-      <c r="AE52">
-        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>-2.59</v>
+        <v>-28.46</v>
       </c>
       <c r="C53">
-        <v>12.44</v>
+        <v>-17.739999999999998</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>2.82</v>
+        <v>-19.09</v>
       </c>
       <c r="F53">
-        <v>17.37</v>
+        <v>-24.04</v>
       </c>
       <c r="G53">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H53">
-        <v>-7.58</v>
+        <v>8</v>
       </c>
       <c r="I53">
-        <v>13.37</v>
+        <v>10.23</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="K53">
-        <v>-17</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="L53">
-        <v>4.4800000000000004</v>
+        <v>23.82</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="N53">
-        <v>-3.82</v>
+        <v>143.25</v>
       </c>
       <c r="O53">
-        <v>4.5</v>
+        <v>219.1</v>
       </c>
       <c r="P53">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="Q53">
-        <v>1.5</v>
+        <v>159.59</v>
       </c>
       <c r="R53">
-        <v>8.09</v>
+        <v>189.09</v>
       </c>
       <c r="S53">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="T53">
-        <v>-1.23</v>
+        <v>-21.5</v>
       </c>
       <c r="U53">
-        <v>6.1</v>
+        <v>1.07</v>
       </c>
       <c r="V53">
+        <v>34</v>
+      </c>
+      <c r="W53">
+        <v>-41.81</v>
+      </c>
+      <c r="X53">
+        <v>4.8</v>
+      </c>
+      <c r="Y53">
         <v>11</v>
       </c>
-      <c r="W53">
-        <v>7.5</v>
-      </c>
-      <c r="X53">
-        <v>6.59</v>
-      </c>
-      <c r="Y53">
-        <v>62</v>
-      </c>
       <c r="Z53">
-        <v>1.32</v>
+        <v>-35.479999999999997</v>
       </c>
       <c r="AA53">
-        <v>4.54</v>
+        <v>22.97</v>
       </c>
       <c r="AB53">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AC53">
-        <v>-3.72</v>
+        <v>-30.65</v>
       </c>
       <c r="AD53">
-        <v>2.9</v>
+        <v>3.64</v>
       </c>
       <c r="AE53">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B54">
-        <v>-28.46</v>
+        <v>16.68</v>
       </c>
       <c r="C54">
-        <v>-17.739999999999998</v>
+        <v>159</v>
       </c>
       <c r="D54">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E54">
-        <v>-19.09</v>
+        <v>-6.62</v>
       </c>
       <c r="F54">
-        <v>-24.04</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="G54">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>-45.63</v>
       </c>
       <c r="I54">
-        <v>10.23</v>
+        <v>-22.85</v>
       </c>
       <c r="J54">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K54">
-        <v>18.850000000000001</v>
+        <v>-52.68</v>
       </c>
       <c r="L54">
-        <v>23.82</v>
+        <v>-35.39</v>
       </c>
       <c r="M54">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N54">
-        <v>143.25</v>
+        <v>0.2</v>
       </c>
       <c r="O54">
-        <v>219.1</v>
+        <v>-22.29</v>
       </c>
       <c r="P54">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q54">
-        <v>159.59</v>
+        <v>18.89</v>
       </c>
       <c r="R54">
-        <v>189.09</v>
+        <v>-5.78</v>
       </c>
       <c r="S54">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="T54">
-        <v>-21.5</v>
+        <v>46.13</v>
       </c>
       <c r="U54">
-        <v>1.07</v>
+        <v>6.21</v>
       </c>
       <c r="V54">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="W54">
-        <v>-41.81</v>
+        <v>44.39</v>
       </c>
       <c r="X54">
-        <v>4.8</v>
+        <v>18.27</v>
       </c>
       <c r="Y54">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Z54">
-        <v>-35.479999999999997</v>
+        <v>-5.9</v>
       </c>
       <c r="AA54">
-        <v>22.97</v>
+        <v>20.72</v>
       </c>
       <c r="AB54">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AC54">
-        <v>-30.65</v>
+        <v>-16.25</v>
       </c>
       <c r="AD54">
-        <v>3.64</v>
+        <v>16.89</v>
       </c>
       <c r="AE54">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55">
-        <v>16.68</v>
-      </c>
-      <c r="C55">
-        <v>159</v>
-      </c>
-      <c r="D55">
-        <v>34</v>
-      </c>
-      <c r="E55">
-        <v>-6.62</v>
-      </c>
-      <c r="F55">
-        <v>36.380000000000003</v>
-      </c>
-      <c r="G55">
-        <v>31</v>
-      </c>
-      <c r="H55">
-        <v>-45.63</v>
-      </c>
-      <c r="I55">
-        <v>-22.85</v>
-      </c>
-      <c r="J55">
-        <v>32</v>
-      </c>
-      <c r="K55">
-        <v>-52.68</v>
-      </c>
-      <c r="L55">
-        <v>-35.39</v>
-      </c>
-      <c r="M55">
-        <v>31</v>
-      </c>
-      <c r="N55">
-        <v>0.2</v>
-      </c>
-      <c r="O55">
-        <v>-22.29</v>
-      </c>
-      <c r="P55">
-        <v>70</v>
-      </c>
-      <c r="Q55">
-        <v>18.89</v>
-      </c>
-      <c r="R55">
-        <v>-5.78</v>
-      </c>
-      <c r="S55">
-        <v>75</v>
-      </c>
-      <c r="T55">
-        <v>46.13</v>
-      </c>
-      <c r="U55">
-        <v>6.21</v>
-      </c>
-      <c r="V55">
-        <v>92</v>
-      </c>
-      <c r="W55">
-        <v>44.39</v>
-      </c>
-      <c r="X55">
-        <v>18.27</v>
-      </c>
-      <c r="Y55">
-        <v>81</v>
-      </c>
-      <c r="Z55">
-        <v>-5.9</v>
-      </c>
-      <c r="AA55">
-        <v>20.72</v>
-      </c>
-      <c r="AB55">
-        <v>23</v>
-      </c>
-      <c r="AC55">
-        <v>-16.25</v>
-      </c>
-      <c r="AD55">
-        <v>16.89</v>
-      </c>
-      <c r="AE55">
-        <v>7</v>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2">
+        <v>172894393</v>
+      </c>
+      <c r="F56" s="2">
+        <v>177309197</v>
+      </c>
+      <c r="I56" s="2">
+        <v>195564276</v>
+      </c>
+      <c r="L56" s="2">
+        <v>197915068</v>
+      </c>
+      <c r="O56" s="2">
+        <v>199118803</v>
+      </c>
+      <c r="R56" s="2">
+        <v>196068087</v>
+      </c>
+      <c r="U56" s="2">
+        <v>176135127</v>
+      </c>
+      <c r="X56" s="2">
+        <v>173804618</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>176602279</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>181635505</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2">
-        <v>172894393</v>
+        <v>823618</v>
       </c>
       <c r="F57" s="2">
-        <v>177309197</v>
+        <v>388945</v>
       </c>
       <c r="I57" s="2">
-        <v>195564276</v>
+        <v>813279</v>
       </c>
       <c r="L57" s="2">
-        <v>197915068</v>
+        <v>584948</v>
       </c>
       <c r="O57" s="2">
-        <v>199118803</v>
+        <v>-776503</v>
       </c>
       <c r="R57" s="2">
-        <v>196068087</v>
+        <v>-1164363</v>
       </c>
       <c r="U57" s="2">
-        <v>176135127</v>
+        <v>340983</v>
       </c>
       <c r="X57" s="2">
-        <v>173804618</v>
+        <v>335376</v>
       </c>
       <c r="AA57" s="2">
-        <v>176602279</v>
+        <v>514954</v>
       </c>
       <c r="AD57" s="2">
-        <v>181635505</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="2">
-        <v>823618</v>
-      </c>
-      <c r="F58" s="2">
-        <v>388945</v>
-      </c>
-      <c r="I58" s="2">
-        <v>813279</v>
-      </c>
-      <c r="L58" s="2">
-        <v>584948</v>
-      </c>
-      <c r="O58" s="2">
-        <v>-776503</v>
-      </c>
-      <c r="R58" s="2">
-        <v>-1164363</v>
-      </c>
-      <c r="U58" s="2">
-        <v>340983</v>
-      </c>
-      <c r="X58" s="2">
-        <v>335376</v>
-      </c>
-      <c r="AA58" s="2">
-        <v>514954</v>
-      </c>
-      <c r="AD58" s="2">
         <v>120899</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>53</v>
       </c>
-      <c r="C60">
+      <c r="C59">
         <v>31</v>
       </c>
-      <c r="F60">
+      <c r="F59">
         <v>31</v>
       </c>
-      <c r="I60">
+      <c r="I59">
         <v>30</v>
       </c>
-      <c r="L60">
+      <c r="L59">
         <v>28</v>
       </c>
-      <c r="O60">
+      <c r="O59">
         <v>29</v>
       </c>
-      <c r="R60">
+      <c r="R59">
         <v>28</v>
       </c>
-      <c r="U60">
+      <c r="U59">
         <v>25</v>
       </c>
-      <c r="X60">
+      <c r="X59">
         <v>26</v>
       </c>
-      <c r="AA60">
+      <c r="AA59">
         <v>25</v>
       </c>
-      <c r="AD60">
+      <c r="AD59">
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ199" t="s">
+    <row r="198" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ198" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ200">
+        <v>1.24</v>
       </c>
     </row>
     <row r="201" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ201">
-        <v>1.24</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="202" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ202">
-        <v>7.03</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="203" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ203">
-        <v>6.76</v>
+        <v>-71.430000000000007</v>
       </c>
     </row>
     <row r="204" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ204">
-        <v>-71.430000000000007</v>
+        <v>-8.85</v>
       </c>
     </row>
     <row r="205" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ205">
-        <v>-8.85</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="206" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ206">
-        <v>94.3</v>
+      <c r="AJ206" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ207" t="s">
-        <v>58</v>
+      <c r="AJ207">
+        <v>1.5</v>
       </c>
     </row>
     <row r="208" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ208">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="209" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ209">
-        <v>3.25</v>
+        <v>-11.63</v>
       </c>
     </row>
     <row r="210" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ210">
-        <v>-11.63</v>
+        <v>41.51</v>
       </c>
     </row>
     <row r="211" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ211">
-        <v>41.51</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="212" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ212">
-        <v>-25.75</v>
+      <c r="AJ212" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ213" t="s">
-        <v>58</v>
+      <c r="AJ213">
+        <v>51.23</v>
       </c>
     </row>
     <row r="214" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ214">
-        <v>51.23</v>
+        <v>453.09</v>
       </c>
     </row>
     <row r="215" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ215">
-        <v>453.09</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="216" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ216">
-        <v>-3.4</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="217" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ217">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="218" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ218">
         <v>18.68</v>
+      </c>
+    </row>
+    <row r="219" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ219">
+        <v>5.89</v>
       </c>
     </row>
     <row r="220" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ220">
-        <v>5.89</v>
+        <v>-9.89</v>
       </c>
     </row>
     <row r="221" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ221">
-        <v>-9.89</v>
+        <v>-66.28</v>
       </c>
     </row>
     <row r="222" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ222">
-        <v>-66.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ223">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="224" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ224">
-        <v>-2.91</v>
+        <v>-19.350000000000001</v>
       </c>
     </row>
     <row r="225" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ225">
-        <v>-19.350000000000001</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="226" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ226">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="227" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ227">
         <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ229">
+        <v>20.87</v>
       </c>
     </row>
     <row r="230" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ230">
-        <v>20.87</v>
+        <v>228.59</v>
       </c>
     </row>
     <row r="231" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ231">
-        <v>228.59</v>
+        <v>67.38</v>
       </c>
     </row>
     <row r="232" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ232">
-        <v>67.38</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="233" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ233">
-        <v>33.4</v>
+        <v>-35.770000000000003</v>
       </c>
     </row>
     <row r="234" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ234">
-        <v>-35.770000000000003</v>
+        <v>52.26</v>
       </c>
     </row>
     <row r="235" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ235">
-        <v>52.26</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="236" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ236">
-        <v>40.14</v>
+        <v>52.26</v>
       </c>
     </row>
     <row r="237" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ237">
-        <v>52.26</v>
+        <v>-20.29</v>
       </c>
     </row>
     <row r="238" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ238">
-        <v>-20.29</v>
+        <v>59.72</v>
       </c>
     </row>
     <row r="239" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ239">
-        <v>59.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="240" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ240">
-        <v>27.86</v>
+        <v>-54.18</v>
       </c>
     </row>
     <row r="241" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ241">
-        <v>-54.18</v>
+        <v>275</v>
       </c>
     </row>
     <row r="242" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ242">
-        <v>275</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ243">
-        <v>100</v>
+        <v>150.86000000000001</v>
       </c>
     </row>
     <row r="244" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ244">
-        <v>150.86000000000001</v>
+        <v>-63.49</v>
       </c>
     </row>
     <row r="245" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ245">
-        <v>-63.49</v>
+        <v>-29.77</v>
       </c>
     </row>
     <row r="246" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ246">
-        <v>-29.77</v>
+        <v>-29.86</v>
       </c>
     </row>
     <row r="247" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ247">
-        <v>-29.86</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="248" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ248">
-        <v>19.32</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="249" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ249">
-        <v>-1.46</v>
-      </c>
-    </row>
-    <row r="250" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ250">
         <v>16.79</v>
+      </c>
+    </row>
+    <row r="253" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ253">
+        <v>-18.39</v>
       </c>
     </row>
     <row r="254" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ254">
-        <v>-18.39</v>
+        <v>-16.440000000000001</v>
       </c>
     </row>
     <row r="255" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ255">
-        <v>-16.440000000000001</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="256" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ256">
-        <v>11.85</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="257" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ257">
-        <v>26.34</v>
+        <v>-37.409999999999997</v>
       </c>
     </row>
     <row r="258" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ258">
-        <v>-37.409999999999997</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="259" spans="36:36" x14ac:dyDescent="0.2">
       <c r="AJ259">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="260" spans="36:36" x14ac:dyDescent="0.2">
-      <c r="AJ260">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -12916,7 +12916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C622C5-A61D-44BF-B27E-8BBFBEE8A96D}">
   <dimension ref="A2:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23567,7 +23567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BA7F06-3B79-4CD0-8D17-A7B6A3693559}">
   <dimension ref="A2:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/Data/HSBC_bank.xlsx
+++ b/Data/HSBC_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D8F656-DCF2-4C66-B919-53CD27BDF27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0F9F6-07B3-4836-9949-AF28E1AFE8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="1" r:id="rId1"/>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE4DD7-71B1-49A1-AD4A-B9AB7347D3DB}">
   <dimension ref="A1:AJ259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,34 +5440,34 @@
       <c r="A56" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="8">
+      <c r="B56" s="8">
         <v>172894393</v>
       </c>
-      <c r="F56" s="8">
+      <c r="E56" s="8">
         <v>177309197</v>
       </c>
-      <c r="I56" s="8">
+      <c r="H56" s="8">
         <v>195564276</v>
       </c>
-      <c r="L56" s="8">
+      <c r="K56" s="8">
         <v>197915068</v>
       </c>
-      <c r="O56" s="8">
+      <c r="N56" s="8">
         <v>199118803</v>
       </c>
-      <c r="R56" s="8">
+      <c r="Q56" s="8">
         <v>196068087</v>
       </c>
-      <c r="U56" s="8">
+      <c r="T56" s="8">
         <v>176135127</v>
       </c>
-      <c r="X56" s="8">
+      <c r="W56" s="8">
         <v>173804618</v>
       </c>
-      <c r="AA56" s="8">
+      <c r="Z56" s="8">
         <v>176602279</v>
       </c>
-      <c r="AD56" s="8">
+      <c r="AC56" s="8">
         <v>181635505</v>
       </c>
     </row>
@@ -5475,34 +5475,34 @@
       <c r="A57" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="8">
+      <c r="B57" s="8">
         <v>823618</v>
       </c>
-      <c r="F57" s="8">
+      <c r="E57" s="8">
         <v>388945</v>
       </c>
-      <c r="I57" s="8">
+      <c r="H57" s="8">
         <v>813279</v>
       </c>
-      <c r="L57" s="8">
+      <c r="K57" s="8">
         <v>584948</v>
       </c>
-      <c r="O57" s="8">
+      <c r="N57" s="8">
         <v>-776503</v>
       </c>
-      <c r="R57" s="8">
+      <c r="Q57" s="8">
         <v>-1164363</v>
       </c>
-      <c r="U57" s="8">
+      <c r="T57" s="8">
         <v>340983</v>
       </c>
-      <c r="X57" s="8">
+      <c r="W57" s="8">
         <v>335376</v>
       </c>
-      <c r="AA57" s="8">
+      <c r="Z57" s="8">
         <v>514954</v>
       </c>
-      <c r="AD57" s="8">
+      <c r="AC57" s="8">
         <v>120899</v>
       </c>
     </row>
@@ -5510,34 +5510,34 @@
       <c r="A59" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="6">
+      <c r="B59" s="6">
         <v>31</v>
       </c>
-      <c r="F59" s="6">
+      <c r="E59" s="6">
         <v>31</v>
       </c>
-      <c r="I59" s="6">
+      <c r="H59" s="6">
         <v>30</v>
       </c>
-      <c r="L59" s="6">
+      <c r="K59" s="6">
         <v>28</v>
       </c>
-      <c r="O59" s="6">
+      <c r="N59" s="6">
         <v>29</v>
       </c>
-      <c r="R59" s="6">
+      <c r="Q59" s="6">
         <v>28</v>
       </c>
-      <c r="U59" s="6">
+      <c r="T59" s="6">
         <v>25</v>
       </c>
-      <c r="X59" s="6">
+      <c r="W59" s="6">
         <v>26</v>
       </c>
-      <c r="AA59" s="6">
+      <c r="Z59" s="6">
         <v>25</v>
       </c>
-      <c r="AD59" s="6">
+      <c r="AC59" s="6">
         <v>25</v>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF4DD6E-6927-43DD-B587-C70F4BE9BCFE}">
   <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -11260,7 +11260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BA7F06-3B79-4CD0-8D17-A7B6A3693559}">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -15650,7 +15650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99729B79-BB03-4909-8EE0-EFF27AB5013D}">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -18626,10 +18626,33 @@
   <dimension ref="A1:AE65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -21296,1028 +21319,1028 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="2">
+      <c r="B34" s="2">
         <v>121829597</v>
       </c>
-      <c r="F34" s="2">
+      <c r="E34" s="2">
         <v>120744667</v>
       </c>
-      <c r="I34" s="2">
+      <c r="H34" s="2">
         <v>141023495</v>
       </c>
-      <c r="L34" s="2">
+      <c r="K34" s="2">
         <v>143179975</v>
       </c>
-      <c r="O34" s="2">
+      <c r="N34" s="2">
         <v>146957673</v>
       </c>
-      <c r="R34" s="2">
+      <c r="Q34" s="2">
         <v>149821047</v>
       </c>
-      <c r="U34" s="2">
+      <c r="T34" s="2">
         <v>121897803</v>
       </c>
-      <c r="X34" s="2">
+      <c r="W34" s="2">
         <v>118000582</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="Z34" s="2">
         <v>110908136</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AC34" s="2">
         <v>117194536</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="2">
+      <c r="B35" s="2">
         <v>160388</v>
       </c>
-      <c r="F35" s="2">
+      <c r="E35" s="2">
         <v>133695</v>
       </c>
-      <c r="I35" s="2">
+      <c r="H35" s="2">
         <v>297037</v>
       </c>
-      <c r="L35" s="2">
+      <c r="K35" s="2">
         <v>306017</v>
       </c>
-      <c r="O35" s="2">
+      <c r="N35" s="2">
         <v>321877</v>
       </c>
-      <c r="R35" s="2">
+      <c r="Q35" s="2">
         <v>604885</v>
       </c>
-      <c r="U35" s="2">
+      <c r="T35" s="2">
         <v>360836</v>
       </c>
-      <c r="X35" s="2">
+      <c r="W35" s="2">
         <v>505419</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="Z35" s="2">
         <v>432765</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AC35" s="2">
         <v>515403</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="2">
+      <c r="B36" s="2">
         <v>829247</v>
       </c>
-      <c r="F36" s="2">
+      <c r="E36" s="2">
         <v>705082</v>
       </c>
-      <c r="I36" s="2">
+      <c r="H36" s="2">
         <v>745587</v>
       </c>
-      <c r="L36" s="2">
+      <c r="K36" s="2">
         <v>549107</v>
       </c>
-      <c r="O36" s="2">
+      <c r="N36" s="2">
         <v>371647</v>
       </c>
-      <c r="R36" s="2">
+      <c r="Q36" s="2">
         <v>426783</v>
       </c>
-      <c r="U36" s="2">
+      <c r="T36" s="2">
         <v>747822</v>
       </c>
-      <c r="X36" s="2">
+      <c r="W36" s="2">
         <v>436914</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="Z36" s="2">
         <v>583832</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AC36" s="2">
         <v>550366</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="2">
+      <c r="B37" s="2">
         <v>11527185</v>
       </c>
-      <c r="F37" s="2">
+      <c r="E37" s="2">
         <v>15813211</v>
       </c>
-      <c r="I37" s="2">
+      <c r="H37" s="2">
         <v>12114391</v>
       </c>
-      <c r="L37" s="2">
+      <c r="K37" s="2">
         <v>15512340</v>
       </c>
-      <c r="O37" s="2">
+      <c r="N37" s="2">
         <v>9847035</v>
       </c>
-      <c r="R37" s="2">
+      <c r="Q37" s="2">
         <v>14497713</v>
       </c>
-      <c r="U37" s="2">
+      <c r="T37" s="2">
         <v>7954251</v>
       </c>
-      <c r="X37" s="2">
+      <c r="W37" s="2">
         <v>10246515</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="Z37" s="2">
         <v>11543196</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AC37" s="2">
         <v>10014481</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="2">
+      <c r="B38" s="2">
         <v>2537755</v>
       </c>
-      <c r="F38" s="2">
+      <c r="E38" s="2">
         <v>1878470</v>
       </c>
-      <c r="I38" s="2">
+      <c r="H38" s="2">
         <v>1825760</v>
       </c>
-      <c r="L38" s="2">
+      <c r="K38" s="2">
         <v>2565713</v>
       </c>
-      <c r="O38" s="2">
+      <c r="N38" s="2">
         <v>2144664</v>
       </c>
-      <c r="R38" s="2">
+      <c r="Q38" s="2">
         <v>3449568</v>
       </c>
-      <c r="U38" s="2">
+      <c r="T38" s="2">
         <v>2602599</v>
       </c>
-      <c r="X38" s="2">
+      <c r="W38" s="2">
         <v>2833051</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="Z38" s="2">
         <v>2874000</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AC38" s="2">
         <v>2318945</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="2">
+      <c r="B39" s="2">
         <v>136884172</v>
       </c>
-      <c r="F39" s="2">
+      <c r="E39" s="2">
         <v>139275125</v>
       </c>
-      <c r="I39" s="2">
+      <c r="H39" s="2">
         <v>156006270</v>
       </c>
-      <c r="L39" s="2">
+      <c r="K39" s="2">
         <v>162113152</v>
       </c>
-      <c r="O39" s="2">
+      <c r="N39" s="2">
         <v>159642896</v>
       </c>
-      <c r="R39" s="2">
+      <c r="Q39" s="2">
         <v>168799996</v>
       </c>
-      <c r="U39" s="2">
+      <c r="T39" s="2">
         <v>133563311</v>
       </c>
-      <c r="X39" s="2">
+      <c r="W39" s="2">
         <v>132022481</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="Z39" s="2">
         <v>126341929</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AC39" s="2">
         <v>130593731</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="2">
+      <c r="B41" s="2">
         <v>29278560</v>
       </c>
-      <c r="F41" s="2">
+      <c r="E41" s="2">
         <v>30059347</v>
       </c>
-      <c r="I41" s="2">
+      <c r="H41" s="2">
         <v>35726149</v>
       </c>
-      <c r="L41" s="2">
+      <c r="K41" s="2">
         <v>36632346</v>
       </c>
-      <c r="O41" s="2">
+      <c r="N41" s="2">
         <v>26377965</v>
       </c>
-      <c r="R41" s="2">
+      <c r="Q41" s="2">
         <v>24837405</v>
       </c>
-      <c r="U41" s="2">
+      <c r="T41" s="2">
         <v>19059894</v>
       </c>
-      <c r="X41" s="2">
+      <c r="W41" s="2">
         <v>20549683</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="Z41" s="2">
         <v>22881555</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AC41" s="2">
         <v>23291204</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="2">
+      <c r="B42" s="2">
         <v>18706313</v>
       </c>
-      <c r="F42" s="2">
+      <c r="E42" s="2">
         <v>17777739</v>
       </c>
-      <c r="I42" s="2">
+      <c r="H42" s="2">
         <v>17796832</v>
       </c>
-      <c r="L42" s="2">
+      <c r="K42" s="2">
         <v>19055691</v>
       </c>
-      <c r="O42" s="2">
+      <c r="N42" s="2">
         <v>17600188</v>
       </c>
-      <c r="R42" s="2">
+      <c r="Q42" s="2">
         <v>19980994</v>
       </c>
-      <c r="U42" s="2">
+      <c r="T42" s="2">
         <v>10622063</v>
       </c>
-      <c r="X42" s="2">
+      <c r="W42" s="2">
         <v>6080843</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="Z42" s="2">
         <v>5707072</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AC42" s="2">
         <v>4719120</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="2">
+      <c r="B43" s="2">
         <v>81805610</v>
       </c>
-      <c r="F43" s="2">
+      <c r="E43" s="2">
         <v>83039649</v>
       </c>
-      <c r="I43" s="2">
+      <c r="H43" s="2">
         <v>97656465</v>
       </c>
-      <c r="L43" s="2">
+      <c r="K43" s="2">
         <v>99229361</v>
       </c>
-      <c r="O43" s="2">
+      <c r="N43" s="2">
         <v>110370543</v>
       </c>
-      <c r="R43" s="2">
+      <c r="Q43" s="2">
         <v>115865820</v>
       </c>
-      <c r="U43" s="2">
+      <c r="T43" s="2">
         <v>99086465</v>
       </c>
-      <c r="X43" s="2">
+      <c r="W43" s="2">
         <v>100310788</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="Z43" s="2">
         <v>91267951</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AC43" s="2">
         <v>95772402</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="2">
+      <c r="B44" s="2">
         <v>129790483</v>
       </c>
-      <c r="F44" s="2">
+      <c r="E44" s="2">
         <v>130876735</v>
       </c>
-      <c r="I44" s="2">
+      <c r="H44" s="2">
         <v>151179446</v>
       </c>
-      <c r="L44" s="2">
+      <c r="K44" s="2">
         <v>154917398</v>
       </c>
-      <c r="O44" s="2">
+      <c r="N44" s="2">
         <v>154348696</v>
       </c>
-      <c r="R44" s="2">
+      <c r="Q44" s="2">
         <v>160684219</v>
       </c>
-      <c r="U44" s="2">
+      <c r="T44" s="2">
         <v>128768422</v>
       </c>
-      <c r="X44" s="2">
+      <c r="W44" s="2">
         <v>126941314</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="Z44" s="2">
         <v>119856578</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AC44" s="2">
         <v>123782726</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="2">
+      <c r="B45" s="2">
         <v>7093689</v>
       </c>
-      <c r="F45" s="2">
+      <c r="E45" s="2">
         <v>8398390</v>
       </c>
-      <c r="I45" s="2">
+      <c r="H45" s="2">
         <v>4826824</v>
       </c>
-      <c r="L45" s="2">
+      <c r="K45" s="2">
         <v>7195754</v>
       </c>
-      <c r="O45" s="2">
+      <c r="N45" s="2">
         <v>5294200</v>
       </c>
-      <c r="R45" s="2">
+      <c r="Q45" s="2">
         <v>8115777</v>
       </c>
-      <c r="U45" s="2">
+      <c r="T45" s="2">
         <v>4794889</v>
       </c>
-      <c r="X45" s="2">
+      <c r="W45" s="2">
         <v>5081167</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="Z45" s="2">
         <v>6485351</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AC45" s="2">
         <v>6811005</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="2">
+      <c r="B46" s="2">
         <v>136884172</v>
       </c>
-      <c r="F46" s="2">
+      <c r="E46" s="2">
         <v>139275125</v>
       </c>
-      <c r="I46" s="2">
+      <c r="H46" s="2">
         <v>156006270</v>
       </c>
-      <c r="L46" s="2">
+      <c r="K46" s="2">
         <v>162113152</v>
       </c>
-      <c r="O46" s="2">
+      <c r="N46" s="2">
         <v>159642896</v>
       </c>
-      <c r="R46" s="2">
+      <c r="Q46" s="2">
         <v>168799996</v>
       </c>
-      <c r="U46" s="2">
+      <c r="T46" s="2">
         <v>133563311</v>
       </c>
-      <c r="X46" s="2">
+      <c r="W46" s="2">
         <v>132022481</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="Z46" s="2">
         <v>126341929</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AC46" s="2">
         <v>130593731</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="2">
+      <c r="B49" s="2">
         <v>36416798</v>
       </c>
-      <c r="F49" s="2">
+      <c r="E49" s="2">
         <v>34508908</v>
       </c>
-      <c r="I49" s="2">
+      <c r="H49" s="2">
         <v>31540959</v>
       </c>
-      <c r="L49" s="2">
+      <c r="K49" s="2">
         <v>34880604</v>
       </c>
-      <c r="O49" s="2">
+      <c r="N49" s="2">
         <v>51195710</v>
       </c>
-      <c r="R49" s="2">
+      <c r="Q49" s="2">
         <v>65105855</v>
       </c>
-      <c r="U49" s="2">
+      <c r="T49" s="2">
         <v>56911642</v>
       </c>
-      <c r="X49" s="2">
+      <c r="W49" s="2">
         <v>63716339</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="Z49" s="2">
         <v>51902771</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AC49" s="2">
         <v>55618698</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="2">
+      <c r="B50" s="2">
         <v>24856735</v>
       </c>
-      <c r="F50" s="2">
+      <c r="E50" s="2">
         <v>21347322</v>
       </c>
-      <c r="I50" s="2">
+      <c r="H50" s="2">
         <v>21303286</v>
       </c>
-      <c r="L50" s="2">
+      <c r="K50" s="2">
         <v>22859813</v>
       </c>
-      <c r="O50" s="2">
+      <c r="N50" s="2">
         <v>39184907</v>
       </c>
-      <c r="R50" s="2">
+      <c r="Q50" s="2">
         <v>48312575</v>
       </c>
-      <c r="U50" s="2">
+      <c r="T50" s="2">
         <v>39106213</v>
       </c>
-      <c r="X50" s="2">
+      <c r="W50" s="2">
         <v>40635920</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="Z50" s="2">
         <v>26761031</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AC50" s="2">
         <v>28143868</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
-      <c r="C51" s="2">
+      <c r="B51" s="2">
         <v>103033341</v>
       </c>
-      <c r="F51" s="2">
+      <c r="E51" s="2">
         <v>107597839</v>
       </c>
-      <c r="I51" s="2">
+      <c r="H51" s="2">
         <v>128657444</v>
       </c>
-      <c r="L51" s="2">
+      <c r="K51" s="2">
         <v>130303967</v>
       </c>
-      <c r="O51" s="2">
+      <c r="N51" s="2">
         <v>115190308</v>
       </c>
-      <c r="R51" s="2">
+      <c r="Q51" s="2">
         <v>114647096</v>
       </c>
-      <c r="U51" s="2">
+      <c r="T51" s="2">
         <v>84255893</v>
       </c>
-      <c r="X51" s="2">
+      <c r="W51" s="2">
         <v>81810716</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="Z51" s="2">
         <v>83984355</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AC51" s="2">
         <v>87615303</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="2">
+      <c r="B52" s="2">
         <v>1184077</v>
       </c>
-      <c r="F52" s="2">
+      <c r="E52" s="2">
         <v>950828</v>
       </c>
-      <c r="I52" s="2">
+      <c r="H52" s="2">
         <v>1205307</v>
       </c>
-      <c r="L52" s="2">
+      <c r="K52" s="2">
         <v>1319983</v>
       </c>
-      <c r="O52" s="2">
+      <c r="N52" s="2">
         <v>1880520</v>
       </c>
-      <c r="R52" s="2">
+      <c r="Q52" s="2">
         <v>1872246</v>
       </c>
-      <c r="U52" s="2">
+      <c r="T52" s="2">
         <v>1754013</v>
       </c>
-      <c r="X52" s="2">
+      <c r="W52" s="2">
         <v>1644210</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="Z52" s="2">
         <v>1378425</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AC52" s="2">
         <v>1534828</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="2">
+      <c r="B53" s="2">
         <v>1220900</v>
       </c>
-      <c r="F53" s="2">
+      <c r="E53" s="2">
         <v>1324039</v>
       </c>
-      <c r="I53" s="2">
+      <c r="H53" s="2">
         <v>1900332</v>
       </c>
-      <c r="L53" s="2">
+      <c r="K53" s="2">
         <v>2483241</v>
       </c>
-      <c r="O53" s="2">
+      <c r="N53" s="2">
         <v>3276235</v>
       </c>
-      <c r="R53" s="2">
+      <c r="Q53" s="2">
         <v>4515417</v>
       </c>
-      <c r="U53" s="2">
+      <c r="T53" s="2">
         <v>6487202</v>
       </c>
-      <c r="X53" s="2">
+      <c r="W53" s="2">
         <v>8300375</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="Z53" s="2">
         <v>7906591</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AC53" s="2">
         <v>7318267</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="2">
+      <c r="B54" s="2">
         <v>11276583</v>
       </c>
-      <c r="F54" s="2">
+      <c r="E54" s="2">
         <v>6378780</v>
       </c>
-      <c r="I54" s="2">
+      <c r="H54" s="2">
         <v>4657875</v>
       </c>
-      <c r="L54" s="2">
+      <c r="K54" s="2">
         <v>6081616</v>
       </c>
-      <c r="O54" s="2">
+      <c r="N54" s="2">
         <v>16832574</v>
       </c>
-      <c r="R54" s="2">
+      <c r="Q54" s="2">
         <v>22613394</v>
       </c>
-      <c r="U54" s="2">
+      <c r="T54" s="2">
         <v>27447477</v>
       </c>
-      <c r="X54" s="2">
+      <c r="W54" s="2">
         <v>27291041</v>
       </c>
-      <c r="AA54" s="2">
+      <c r="Z54" s="2">
         <v>17473785</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AC54" s="2">
         <v>14552049</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="2">
+      <c r="B55" s="2">
         <v>2350592</v>
       </c>
-      <c r="F55" s="2">
+      <c r="E55" s="2">
         <v>2276417</v>
       </c>
-      <c r="I55" s="2">
+      <c r="H55" s="2">
         <v>2275914</v>
       </c>
-      <c r="L55" s="2">
+      <c r="K55" s="2">
         <v>2275969</v>
       </c>
-      <c r="O55" s="2">
+      <c r="N55" s="2">
         <v>2420404</v>
       </c>
-      <c r="R55" s="2">
+      <c r="Q55" s="2">
         <v>2304842</v>
       </c>
-      <c r="U55" s="2">
+      <c r="T55" s="2">
         <v>843462</v>
       </c>
-      <c r="X55" s="2">
+      <c r="W55" s="2">
         <v>3969048</v>
       </c>
-      <c r="AA55" s="2">
+      <c r="Z55" s="2">
         <v>5202235</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AC55" s="2">
         <v>8767301</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>211</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
         <v>1000000</v>
       </c>
-      <c r="O56" s="2">
+      <c r="N56" s="2">
         <v>3250000</v>
       </c>
-      <c r="R56" s="2">
+      <c r="Q56" s="2">
         <v>3750000</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="X56" s="2">
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
         <v>1000000</v>
       </c>
-      <c r="AA56" s="2">
+      <c r="Z56" s="2">
         <v>1100000</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AC56" s="2">
         <v>2100000</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>212</v>
       </c>
-      <c r="C57" s="2">
+      <c r="B57" s="2">
         <v>1000000</v>
       </c>
-      <c r="F57" s="2">
+      <c r="E57" s="2">
         <v>1000000</v>
       </c>
-      <c r="I57" s="2">
+      <c r="H57" s="2">
         <v>1000000</v>
       </c>
-      <c r="L57" s="2">
+      <c r="K57" s="2">
         <v>1000000</v>
       </c>
-      <c r="O57" s="2">
+      <c r="N57" s="2">
         <v>1000000</v>
       </c>
-      <c r="R57" s="2">
+      <c r="Q57" s="2">
         <v>2000000</v>
       </c>
-      <c r="U57" s="2">
+      <c r="T57" s="2">
         <v>1000000</v>
       </c>
-      <c r="X57" s="2">
+      <c r="W57" s="2">
         <v>1000000</v>
       </c>
-      <c r="AA57" s="2">
+      <c r="Z57" s="2">
         <v>1000000</v>
       </c>
-      <c r="AD57" s="2">
+      <c r="AC57" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="2">
+      <c r="B58" s="2">
         <v>1127272</v>
       </c>
-      <c r="F58" s="2">
+      <c r="E58" s="2">
         <v>910705</v>
       </c>
-      <c r="I58" s="2">
+      <c r="H58" s="2">
         <v>348810</v>
       </c>
-      <c r="L58" s="2">
+      <c r="K58" s="2">
         <v>575884</v>
       </c>
-      <c r="O58" s="2">
+      <c r="N58" s="2">
         <v>353489</v>
       </c>
-      <c r="R58" s="2">
+      <c r="Q58" s="2">
         <v>2663563</v>
       </c>
-      <c r="U58" s="2">
+      <c r="T58" s="2">
         <v>114071</v>
       </c>
-      <c r="X58" s="2">
+      <c r="W58" s="2">
         <v>1061765</v>
       </c>
-      <c r="AA58" s="2">
+      <c r="Z58" s="2">
         <v>753906</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AC58" s="2">
         <v>722132</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="2">
+      <c r="B59" s="2">
         <v>3241314</v>
       </c>
-      <c r="F59" s="2">
+      <c r="E59" s="2">
         <v>4217345</v>
       </c>
-      <c r="I59" s="2">
+      <c r="H59" s="2">
         <v>3546373</v>
       </c>
-      <c r="L59" s="2">
+      <c r="K59" s="2">
         <v>3224893</v>
       </c>
-      <c r="O59" s="2">
+      <c r="N59" s="2">
         <v>5690375</v>
       </c>
-      <c r="R59" s="2">
+      <c r="Q59" s="2">
         <v>3448181</v>
       </c>
-      <c r="U59" s="2">
+      <c r="T59" s="2">
         <v>8587492</v>
       </c>
-      <c r="X59" s="2">
+      <c r="W59" s="2">
         <v>9445019</v>
       </c>
-      <c r="AA59" s="2">
+      <c r="Z59" s="2">
         <v>8807358</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AC59" s="2">
         <v>7359949</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>215</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>216</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="X61" s="2">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
         <v>1415000</v>
       </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="2">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
         <v>2000000</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>217</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>218</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>219</v>
       </c>
-      <c r="C64" s="2">
+      <c r="B64" s="2">
         <v>18843821</v>
       </c>
-      <c r="F64" s="2">
+      <c r="E64" s="2">
         <v>18785382</v>
       </c>
-      <c r="I64" s="2">
+      <c r="H64" s="2">
         <v>18508409</v>
       </c>
-      <c r="L64" s="2">
+      <c r="K64" s="2">
         <v>19322599</v>
       </c>
-      <c r="O64" s="2">
+      <c r="N64" s="2">
         <v>23966410</v>
       </c>
-      <c r="R64" s="2">
+      <c r="Q64" s="2">
         <v>28612677</v>
       </c>
-      <c r="U64" s="2">
+      <c r="T64" s="2">
         <v>25226050</v>
       </c>
-      <c r="X64" s="2">
+      <c r="W64" s="2">
         <v>22647771</v>
       </c>
-      <c r="AA64" s="2">
+      <c r="Z64" s="2">
         <v>17303600</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AC64" s="2">
         <v>18389441</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>220</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
         <v>0</v>
       </c>
     </row>
@@ -22330,11 +22353,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF13DDB7-C300-4754-AB4D-259095691DE0}">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -24635,34 +24676,34 @@
       <c r="A31" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="2">
+      <c r="B31" s="2">
         <v>42409737</v>
       </c>
-      <c r="F31" s="2">
+      <c r="E31" s="2">
         <v>49337993</v>
       </c>
-      <c r="I31" s="2">
+      <c r="H31" s="2">
         <v>59281852</v>
       </c>
-      <c r="L31" s="2">
+      <c r="K31" s="2">
         <v>60982544</v>
       </c>
-      <c r="O31" s="2">
+      <c r="N31" s="2">
         <v>54889353</v>
       </c>
-      <c r="R31" s="2">
+      <c r="Q31" s="2">
         <v>51312519</v>
       </c>
-      <c r="U31" s="2">
+      <c r="T31" s="2">
         <v>22565430</v>
       </c>
-      <c r="X31" s="2">
+      <c r="W31" s="2">
         <v>19766875</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="Z31" s="2">
         <v>28744399</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AC31" s="2">
         <v>33966802</v>
       </c>
     </row>
@@ -24670,244 +24711,244 @@
       <c r="A32" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="2">
+      <c r="B32" s="2">
         <v>58719848</v>
       </c>
-      <c r="F32" s="2">
+      <c r="E32" s="2">
         <v>67851775</v>
       </c>
-      <c r="I32" s="2">
+      <c r="H32" s="2">
         <v>78089719</v>
       </c>
-      <c r="L32" s="2">
+      <c r="K32" s="2">
         <v>77585406</v>
       </c>
-      <c r="O32" s="2">
+      <c r="N32" s="2">
         <v>70389773</v>
       </c>
-      <c r="R32" s="2">
+      <c r="Q32" s="2">
         <v>69462331</v>
       </c>
-      <c r="U32" s="2">
+      <c r="T32" s="2">
         <v>39450860</v>
       </c>
-      <c r="X32" s="2">
+      <c r="W32" s="2">
         <v>42522826</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="Z32" s="2">
         <v>47041198</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AC32" s="2">
         <v>49940056</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>248</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>249</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>250</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="2">
+      <c r="B36" s="2">
         <v>3645008</v>
       </c>
-      <c r="F36" s="2">
+      <c r="E36" s="2">
         <v>5296566</v>
       </c>
-      <c r="I36" s="2">
+      <c r="H36" s="2">
         <v>8217147</v>
       </c>
-      <c r="L36" s="2">
+      <c r="K36" s="2">
         <v>7163408</v>
       </c>
-      <c r="O36" s="2">
+      <c r="N36" s="2">
         <v>9727333</v>
       </c>
-      <c r="R36" s="2">
+      <c r="Q36" s="2">
         <v>9330385</v>
       </c>
-      <c r="U36" s="2">
+      <c r="T36" s="2">
         <v>8501819</v>
       </c>
-      <c r="X36" s="2">
+      <c r="W36" s="2">
         <v>11766488</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="Z36" s="2">
         <v>9187207</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AC36" s="2">
         <v>8937447</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>252</v>
       </c>
-      <c r="C37" s="2">
+      <c r="B37" s="2">
         <v>17530039</v>
       </c>
-      <c r="F37" s="2">
+      <c r="E37" s="2">
         <v>16715665</v>
       </c>
-      <c r="I37" s="2">
+      <c r="H37" s="2">
         <v>17776643</v>
       </c>
-      <c r="L37" s="2">
+      <c r="K37" s="2">
         <v>21276960</v>
       </c>
-      <c r="O37" s="2">
+      <c r="N37" s="2">
         <v>18145915</v>
       </c>
-      <c r="R37" s="2">
+      <c r="Q37" s="2">
         <v>14842321</v>
       </c>
-      <c r="U37" s="2">
+      <c r="T37" s="2">
         <v>14342340</v>
       </c>
-      <c r="X37" s="2">
+      <c r="W37" s="2">
         <v>17371102</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="Z37" s="2">
         <v>18189525</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AC37" s="2">
         <v>16489396</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="2">
+      <c r="B38" s="2">
         <v>353556</v>
       </c>
-      <c r="F38" s="2">
+      <c r="E38" s="2">
         <v>488863</v>
       </c>
-      <c r="I38" s="2">
+      <c r="H38" s="2">
         <v>4217466</v>
       </c>
-      <c r="L38" s="2">
+      <c r="K38" s="2">
         <v>4105853</v>
       </c>
-      <c r="O38" s="2">
+      <c r="N38" s="2">
         <v>336764</v>
       </c>
-      <c r="R38" s="2">
+      <c r="Q38" s="2">
         <v>141891</v>
       </c>
-      <c r="U38" s="2">
+      <c r="T38" s="2">
         <v>208903</v>
       </c>
-      <c r="X38" s="2">
+      <c r="W38" s="2">
         <v>130451</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="Z38" s="2">
         <v>449744</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AC38" s="2">
         <v>122678</v>
       </c>
     </row>
@@ -24918,66 +24959,70 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C622C5-A61D-44BF-B27E-8BBFBEE8A96D}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>287</v>
       </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
       <c r="C1" s="1">
-        <v>44926</v>
+        <v>44742</v>
       </c>
       <c r="D1" s="1">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="E1" s="1">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="F1" s="1">
-        <v>44377</v>
+        <v>44196</v>
       </c>
       <c r="G1" s="1">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="H1" s="1">
-        <v>44012</v>
+        <v>43830</v>
       </c>
       <c r="I1" s="1">
-        <v>43830</v>
+        <v>43646</v>
       </c>
       <c r="J1" s="1">
-        <v>43646</v>
+        <v>43465</v>
       </c>
       <c r="K1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="L1" s="1">
         <v>43281</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>256</v>
       </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
@@ -25005,84 +25050,84 @@
       <c r="K4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>257</v>
       </c>
+      <c r="B5" s="2">
+        <v>8010</v>
+      </c>
       <c r="C5" s="2">
-        <v>8010</v>
+        <v>8175</v>
       </c>
       <c r="D5" s="2">
-        <v>8175</v>
+        <v>7807</v>
       </c>
       <c r="E5" s="2">
-        <v>7807</v>
+        <v>7021</v>
       </c>
       <c r="F5" s="2">
-        <v>7021</v>
+        <v>11184</v>
       </c>
       <c r="G5" s="2">
-        <v>11184</v>
+        <v>9180</v>
       </c>
       <c r="H5" s="2">
-        <v>9180</v>
+        <v>13733</v>
       </c>
       <c r="I5" s="2">
-        <v>13733</v>
+        <v>4474</v>
       </c>
       <c r="J5" s="2">
-        <v>4474</v>
+        <v>4976</v>
       </c>
       <c r="K5" s="2">
-        <v>4976</v>
-      </c>
-      <c r="L5" s="2">
         <v>9386</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>258</v>
       </c>
+      <c r="B6" s="2">
+        <v>458000</v>
+      </c>
       <c r="C6" s="2">
         <v>458000</v>
       </c>
       <c r="D6" s="2">
-        <v>458000</v>
+        <v>459625</v>
       </c>
       <c r="E6" s="2">
-        <v>459625</v>
+        <v>462874</v>
       </c>
       <c r="F6" s="2">
-        <v>462874</v>
+        <v>466123</v>
       </c>
       <c r="G6" s="2">
-        <v>466123</v>
+        <v>469372</v>
       </c>
       <c r="H6" s="2">
-        <v>469372</v>
+        <v>1256622</v>
       </c>
       <c r="I6" s="2">
-        <v>1256622</v>
+        <v>1624526</v>
       </c>
       <c r="J6" s="2">
-        <v>1624526</v>
+        <v>1627775</v>
       </c>
       <c r="K6" s="2">
-        <v>1627775</v>
-      </c>
-      <c r="L6" s="2">
         <v>1631024</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>259</v>
       </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -25110,54 +25155,54 @@
       <c r="K7" t="s">
         <v>55</v>
       </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>260</v>
       </c>
+      <c r="B8" s="2">
+        <v>17992150</v>
+      </c>
       <c r="C8" s="2">
-        <v>17992150</v>
+        <v>20637333</v>
       </c>
       <c r="D8" s="2">
-        <v>20637333</v>
+        <v>20165475</v>
       </c>
       <c r="E8" s="2">
-        <v>20165475</v>
+        <v>21024422</v>
       </c>
       <c r="F8" s="2">
-        <v>21024422</v>
+        <v>20679973</v>
       </c>
       <c r="G8" s="2">
-        <v>20679973</v>
+        <v>20412612</v>
       </c>
       <c r="H8" s="2">
-        <v>20412612</v>
+        <v>20543022</v>
       </c>
       <c r="I8" s="2">
-        <v>20543022</v>
+        <v>20251975</v>
       </c>
       <c r="J8" s="2">
-        <v>20251975</v>
+        <v>21956327</v>
       </c>
       <c r="K8" s="2">
-        <v>21956327</v>
-      </c>
-      <c r="L8" s="2">
         <v>21561425</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>262</v>
       </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" t="s">
         <v>55</v>
       </c>
@@ -25185,14 +25230,14 @@
       <c r="K11" t="s">
         <v>55</v>
       </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>263</v>
       </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
@@ -25220,49 +25265,49 @@
       <c r="K12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>264</v>
       </c>
+      <c r="B13" s="2">
+        <v>681511</v>
+      </c>
       <c r="C13" s="2">
-        <v>681511</v>
+        <v>594724</v>
       </c>
       <c r="D13" s="2">
-        <v>594724</v>
+        <v>550710</v>
       </c>
       <c r="E13" s="2">
-        <v>550710</v>
+        <v>676654</v>
       </c>
       <c r="F13" s="2">
-        <v>676654</v>
+        <v>1181892</v>
       </c>
       <c r="G13" s="2">
-        <v>1181892</v>
+        <v>1286951</v>
       </c>
       <c r="H13" s="2">
-        <v>1286951</v>
+        <v>740543</v>
       </c>
       <c r="I13" s="2">
-        <v>740543</v>
+        <v>703093</v>
       </c>
       <c r="J13" s="2">
-        <v>703093</v>
+        <v>636689</v>
       </c>
       <c r="K13" s="2">
-        <v>636689</v>
-      </c>
-      <c r="L13" s="2">
         <v>623453</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>265</v>
       </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
@@ -25290,14 +25335,14 @@
       <c r="K14" t="s">
         <v>55</v>
       </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>266</v>
       </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
       <c r="C15" t="s">
         <v>55</v>
       </c>
@@ -25325,89 +25370,89 @@
       <c r="K15" t="s">
         <v>55</v>
       </c>
-      <c r="L15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>267</v>
       </c>
+      <c r="B16" s="2">
+        <v>2122305</v>
+      </c>
       <c r="C16" s="2">
-        <v>2122305</v>
+        <v>2035518</v>
       </c>
       <c r="D16" s="2">
-        <v>2035518</v>
+        <v>1991504</v>
       </c>
       <c r="E16" s="2">
-        <v>1991504</v>
+        <v>2117448</v>
       </c>
       <c r="F16" s="2">
-        <v>2117448</v>
+        <v>2622686</v>
       </c>
       <c r="G16" s="2">
-        <v>2622686</v>
+        <v>2727745</v>
       </c>
       <c r="H16" s="2">
-        <v>2727745</v>
+        <v>2181337</v>
       </c>
       <c r="I16" s="2">
-        <v>2181337</v>
+        <v>3403077</v>
       </c>
       <c r="J16" s="2">
-        <v>3403077</v>
+        <v>3336666</v>
       </c>
       <c r="K16" s="2">
-        <v>3336666</v>
-      </c>
-      <c r="L16" s="2">
         <v>3573392</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
+      <c r="B19" s="2">
+        <v>20114455</v>
+      </c>
       <c r="C19" s="2">
-        <v>20114455</v>
+        <v>22672851</v>
       </c>
       <c r="D19" s="2">
-        <v>22672851</v>
+        <v>22156979</v>
       </c>
       <c r="E19" s="2">
-        <v>22156979</v>
+        <v>23141870</v>
       </c>
       <c r="F19" s="2">
-        <v>23141870</v>
+        <v>23302659</v>
       </c>
       <c r="G19" s="2">
-        <v>23302659</v>
+        <v>23140357</v>
       </c>
       <c r="H19" s="2">
-        <v>23140357</v>
+        <v>22724359</v>
       </c>
       <c r="I19" s="2">
-        <v>22724359</v>
+        <v>23655052</v>
       </c>
       <c r="J19" s="2">
-        <v>23655052</v>
+        <v>25292993</v>
       </c>
       <c r="K19" s="2">
-        <v>25292993</v>
-      </c>
-      <c r="L19" s="2">
         <v>25134817</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>270</v>
       </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
@@ -25435,14 +25480,14 @@
       <c r="K20" t="s">
         <v>55</v>
       </c>
-      <c r="L20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>271</v>
       </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
@@ -25470,454 +25515,454 @@
       <c r="K21" t="s">
         <v>55</v>
       </c>
-      <c r="L21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>272</v>
       </c>
+      <c r="B22" s="2">
+        <v>20114455</v>
+      </c>
       <c r="C22" s="2">
-        <v>20114455</v>
+        <v>22672851</v>
       </c>
       <c r="D22" s="2">
-        <v>22672851</v>
+        <v>22156979</v>
       </c>
       <c r="E22" s="2">
-        <v>22156979</v>
+        <v>23141870</v>
       </c>
       <c r="F22" s="2">
-        <v>23141870</v>
+        <v>23302659</v>
       </c>
       <c r="G22" s="2">
-        <v>23302659</v>
+        <v>23140357</v>
       </c>
       <c r="H22" s="2">
-        <v>23140357</v>
+        <v>22724359</v>
       </c>
       <c r="I22" s="2">
-        <v>22724359</v>
+        <v>23655052</v>
       </c>
       <c r="J22" s="2">
-        <v>23655052</v>
+        <v>25292993</v>
       </c>
       <c r="K22" s="2">
-        <v>25292993</v>
-      </c>
-      <c r="L22" s="2">
         <v>25134817</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>275</v>
       </c>
+      <c r="B26" s="2">
+        <v>2484616</v>
+      </c>
       <c r="C26" s="2">
-        <v>2484616</v>
+        <v>2513931</v>
       </c>
       <c r="D26" s="2">
-        <v>2513931</v>
+        <v>2609269</v>
       </c>
       <c r="E26" s="2">
-        <v>2609269</v>
+        <v>2581854</v>
       </c>
       <c r="F26" s="2">
-        <v>2581854</v>
+        <v>2476204</v>
       </c>
       <c r="G26" s="2">
-        <v>2476204</v>
+        <v>2238489</v>
       </c>
       <c r="H26" s="2">
-        <v>2238489</v>
+        <v>1879805</v>
       </c>
       <c r="I26" s="2">
-        <v>1879805</v>
+        <v>2311064</v>
       </c>
       <c r="J26" s="2">
-        <v>2311064</v>
+        <v>2469789</v>
       </c>
       <c r="K26" s="2">
-        <v>2469789</v>
-      </c>
-      <c r="L26" s="2">
         <v>2456518</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>276</v>
       </c>
+      <c r="B27" s="2">
+        <v>8285177</v>
+      </c>
       <c r="C27" s="2">
-        <v>8285177</v>
+        <v>7954301</v>
       </c>
       <c r="D27" s="2">
-        <v>7954301</v>
+        <v>8623898</v>
       </c>
       <c r="E27" s="2">
-        <v>8623898</v>
+        <v>8338901</v>
       </c>
       <c r="F27" s="2">
-        <v>8338901</v>
+        <v>8368495</v>
       </c>
       <c r="G27" s="2">
-        <v>8368495</v>
+        <v>8506069</v>
       </c>
       <c r="H27" s="2">
-        <v>8506069</v>
+        <v>8277288</v>
       </c>
       <c r="I27" s="2">
-        <v>8277288</v>
+        <v>8210192</v>
       </c>
       <c r="J27" s="2">
-        <v>8210192</v>
+        <v>8214439</v>
       </c>
       <c r="K27" s="2">
-        <v>8214439</v>
-      </c>
-      <c r="L27" s="2">
         <v>8174510</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>277</v>
       </c>
+      <c r="B28" s="2">
+        <v>39760096</v>
+      </c>
       <c r="C28" s="2">
-        <v>39760096</v>
+        <v>41289512</v>
       </c>
       <c r="D28" s="2">
-        <v>41289512</v>
+        <v>38604553</v>
       </c>
       <c r="E28" s="2">
-        <v>38604553</v>
+        <v>40095680</v>
       </c>
       <c r="F28" s="2">
-        <v>40095680</v>
+        <v>44398304</v>
       </c>
       <c r="G28" s="2">
-        <v>44398304</v>
+        <v>50251437</v>
       </c>
       <c r="H28" s="2">
-        <v>50251437</v>
+        <v>48819660</v>
       </c>
       <c r="I28" s="2">
-        <v>48819660</v>
+        <v>50900868</v>
       </c>
       <c r="J28" s="2">
-        <v>50900868</v>
+        <v>49236951</v>
       </c>
       <c r="K28" s="2">
-        <v>49236951</v>
-      </c>
-      <c r="L28" s="2">
         <v>46928575</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>278</v>
       </c>
+      <c r="B29" s="2">
+        <v>56044634</v>
+      </c>
       <c r="C29" s="2">
-        <v>56044634</v>
+        <v>57253537</v>
       </c>
       <c r="D29" s="2">
-        <v>57253537</v>
+        <v>54133828</v>
       </c>
       <c r="E29" s="2">
-        <v>54133828</v>
+        <v>55338479</v>
       </c>
       <c r="F29" s="2">
-        <v>55338479</v>
+        <v>60066374</v>
       </c>
       <c r="G29" s="2">
-        <v>60066374</v>
+        <v>66318170</v>
       </c>
       <c r="H29" s="2">
-        <v>66318170</v>
+        <v>64089187</v>
       </c>
       <c r="I29" s="2">
-        <v>64089187</v>
+        <v>66803120</v>
       </c>
       <c r="J29" s="2">
-        <v>66803120</v>
+        <v>66001996</v>
       </c>
       <c r="K29" s="2">
-        <v>66001996</v>
-      </c>
-      <c r="L29" s="2">
         <v>64392791</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>279</v>
       </c>
+      <c r="B30" s="2">
+        <v>46923656</v>
+      </c>
       <c r="C30" s="2">
-        <v>46923656</v>
+        <v>70969233</v>
       </c>
       <c r="D30" s="2">
-        <v>70969233</v>
+        <v>78411251</v>
       </c>
       <c r="E30" s="2">
-        <v>78411251</v>
+        <v>82180524</v>
       </c>
       <c r="F30" s="2">
-        <v>82180524</v>
+        <v>57162844</v>
       </c>
       <c r="G30" s="2">
-        <v>57162844</v>
+        <v>66324196</v>
       </c>
       <c r="H30" s="2">
-        <v>66324196</v>
+        <v>46613552</v>
       </c>
       <c r="I30" s="2">
-        <v>46613552</v>
+        <v>56737574</v>
       </c>
       <c r="J30" s="2">
-        <v>56737574</v>
+        <v>54761475</v>
       </c>
       <c r="K30" s="2">
-        <v>54761475</v>
-      </c>
-      <c r="L30" s="2">
         <v>62245589</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>275</v>
       </c>
+      <c r="B33" s="2">
+        <v>2245936</v>
+      </c>
       <c r="C33" s="2">
-        <v>2245936</v>
+        <v>1938173</v>
       </c>
       <c r="D33" s="2">
-        <v>1938173</v>
+        <v>1590694</v>
       </c>
       <c r="E33" s="2">
-        <v>1590694</v>
+        <v>1955780</v>
       </c>
       <c r="F33" s="2">
-        <v>1955780</v>
+        <v>2422911</v>
       </c>
       <c r="G33" s="2">
-        <v>2422911</v>
+        <v>2804754</v>
       </c>
       <c r="H33" s="2">
-        <v>2804754</v>
+        <v>2804509</v>
       </c>
       <c r="I33" s="2">
-        <v>2804509</v>
+        <v>2640995</v>
       </c>
       <c r="J33" s="2">
-        <v>2640995</v>
+        <v>2353541</v>
       </c>
       <c r="K33" s="2">
-        <v>2353541</v>
-      </c>
-      <c r="L33" s="2">
         <v>2547798</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>276</v>
       </c>
+      <c r="B34" s="2">
+        <v>434955</v>
+      </c>
       <c r="C34" s="2">
-        <v>434955</v>
+        <v>420828</v>
       </c>
       <c r="D34" s="2">
-        <v>420828</v>
+        <v>453167</v>
       </c>
       <c r="E34" s="2">
-        <v>453167</v>
+        <v>405116</v>
       </c>
       <c r="F34" s="2">
-        <v>405116</v>
+        <v>178243</v>
       </c>
       <c r="G34" s="2">
-        <v>178243</v>
+        <v>177356</v>
       </c>
       <c r="H34" s="2">
-        <v>177356</v>
+        <v>796458</v>
       </c>
       <c r="I34" s="2">
-        <v>796458</v>
+        <v>643295</v>
       </c>
       <c r="J34" s="2">
-        <v>643295</v>
+        <v>315749</v>
       </c>
       <c r="K34" s="2">
-        <v>315749</v>
-      </c>
-      <c r="L34" s="2">
         <v>303225</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>277</v>
       </c>
+      <c r="B35" s="2">
+        <v>38598233</v>
+      </c>
       <c r="C35" s="2">
-        <v>38598233</v>
+        <v>40199806</v>
       </c>
       <c r="D35" s="2">
-        <v>40199806</v>
+        <v>40588548</v>
       </c>
       <c r="E35" s="2">
-        <v>40588548</v>
+        <v>42092839</v>
       </c>
       <c r="F35" s="2">
-        <v>42092839</v>
+        <v>44081963</v>
       </c>
       <c r="G35" s="2">
-        <v>44081963</v>
+        <v>43922771</v>
       </c>
       <c r="H35" s="2">
-        <v>43922771</v>
+        <v>49556535</v>
       </c>
       <c r="I35" s="2">
-        <v>49556535</v>
+        <v>48455177</v>
       </c>
       <c r="J35" s="2">
-        <v>48455177</v>
+        <v>49369170</v>
       </c>
       <c r="K35" s="2">
-        <v>49369170</v>
-      </c>
-      <c r="L35" s="2">
         <v>49642976</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>281</v>
       </c>
+      <c r="B36" s="2">
+        <v>42340843</v>
+      </c>
       <c r="C36" s="2">
-        <v>42340843</v>
+        <v>43601187</v>
       </c>
       <c r="D36" s="2">
-        <v>43601187</v>
+        <v>43547015</v>
       </c>
       <c r="E36" s="2">
-        <v>43547015</v>
+        <v>45489995</v>
       </c>
       <c r="F36" s="2">
-        <v>45489995</v>
+        <v>47832979</v>
       </c>
       <c r="G36" s="2">
-        <v>47832979</v>
+        <v>48188231</v>
       </c>
       <c r="H36" s="2">
-        <v>48188231</v>
+        <v>54097241</v>
       </c>
       <c r="I36" s="2">
-        <v>54097241</v>
+        <v>52741946</v>
       </c>
       <c r="J36" s="2">
-        <v>52741946</v>
+        <v>53254742</v>
       </c>
       <c r="K36" s="2">
-        <v>53254742</v>
-      </c>
-      <c r="L36" s="2">
         <v>53733368</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>279</v>
       </c>
+      <c r="B37" s="2">
+        <v>1623125</v>
+      </c>
       <c r="C37" s="2">
-        <v>1623125</v>
+        <v>1714532</v>
       </c>
       <c r="D37" s="2">
-        <v>1714532</v>
+        <v>1736514</v>
       </c>
       <c r="E37" s="2">
-        <v>1736514</v>
+        <v>1666969</v>
       </c>
       <c r="F37" s="2">
-        <v>1666969</v>
+        <v>1510805</v>
       </c>
       <c r="G37" s="2">
-        <v>1510805</v>
+        <v>1126637</v>
       </c>
       <c r="H37" s="2">
-        <v>1126637</v>
+        <v>972514</v>
       </c>
       <c r="I37" s="2">
-        <v>972514</v>
+        <v>1444310</v>
       </c>
       <c r="J37" s="2">
-        <v>1444310</v>
+        <v>1051935</v>
       </c>
       <c r="K37" s="2">
-        <v>1051935</v>
-      </c>
-      <c r="L37" s="2">
         <v>1056344</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>254</v>
       </c>
+      <c r="B40" s="2">
+        <v>101331275</v>
+      </c>
       <c r="C40" s="2">
-        <v>101331275</v>
+        <v>102877292</v>
       </c>
       <c r="D40" s="2">
-        <v>102877292</v>
+        <v>100363232</v>
       </c>
       <c r="E40" s="2">
-        <v>100363232</v>
+        <v>103818128</v>
       </c>
       <c r="F40" s="2">
-        <v>103818128</v>
+        <v>110680657</v>
       </c>
       <c r="G40" s="2">
-        <v>110680657</v>
+        <v>118471367</v>
       </c>
       <c r="H40" s="2">
-        <v>118471367</v>
+        <v>121841302</v>
       </c>
       <c r="I40" s="2">
-        <v>121841302</v>
+        <v>124230056</v>
       </c>
       <c r="J40" s="2">
-        <v>124230056</v>
+        <v>125399022</v>
       </c>
       <c r="K40" s="2">
-        <v>125399022</v>
-      </c>
-      <c r="L40" s="2">
         <v>122941219</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>283</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>0</v>
       </c>
@@ -25945,14 +25990,14 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>284</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>0</v>
       </c>
@@ -25980,14 +26025,14 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>285</v>
       </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
@@ -26015,42 +26060,39 @@
       <c r="K43" t="s">
         <v>55</v>
       </c>
-      <c r="L43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>286</v>
       </c>
+      <c r="B44" s="2">
+        <v>101331275</v>
+      </c>
       <c r="C44" s="2">
-        <v>101331275</v>
+        <v>102877292</v>
       </c>
       <c r="D44" s="2">
-        <v>102877292</v>
+        <v>100363232</v>
       </c>
       <c r="E44" s="2">
-        <v>100363232</v>
+        <v>103818128</v>
       </c>
       <c r="F44" s="2">
-        <v>103818128</v>
+        <v>110680657</v>
       </c>
       <c r="G44" s="2">
-        <v>110680657</v>
+        <v>118471367</v>
       </c>
       <c r="H44" s="2">
-        <v>118471367</v>
+        <v>121841302</v>
       </c>
       <c r="I44" s="2">
-        <v>121841302</v>
+        <v>124230056</v>
       </c>
       <c r="J44" s="2">
-        <v>124230056</v>
+        <v>125399022</v>
       </c>
       <c r="K44" s="2">
-        <v>125399022</v>
-      </c>
-      <c r="L44" s="2">
         <v>122941219</v>
       </c>
     </row>

--- a/Data/HSBC_bank.xlsx
+++ b/Data/HSBC_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0F9F6-07B3-4836-9949-AF28E1AFE8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EA5145-2E7C-471E-9171-A84D33A786F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Ratios" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="287">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>Number of banks in Peer Group</t>
   </si>
   <si>
     <t>1 Year</t>
@@ -1277,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE4DD7-71B1-49A1-AD4A-B9AB7347D3DB}">
-  <dimension ref="A1:AJ259"/>
+  <dimension ref="A1:AJ258"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:AC59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1320,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="7">
         <v>44926</v>
@@ -2240,40 +2237,40 @@
         <v>3</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" s="6">
         <v>0</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X11" s="6">
         <v>0</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA11" s="6">
         <v>0</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD11" s="6">
         <v>0</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -5506,313 +5503,278 @@
         <v>120899</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="197" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ197" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="6">
-        <v>31</v>
-      </c>
-      <c r="E59" s="6">
-        <v>31</v>
-      </c>
-      <c r="H59" s="6">
-        <v>30</v>
-      </c>
-      <c r="K59" s="6">
-        <v>28</v>
-      </c>
-      <c r="N59" s="6">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>28</v>
-      </c>
-      <c r="T59" s="6">
-        <v>25</v>
-      </c>
-      <c r="W59" s="6">
-        <v>26</v>
-      </c>
-      <c r="Z59" s="6">
-        <v>25</v>
-      </c>
-      <c r="AC59" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="198" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ198" s="6" t="s">
-        <v>54</v>
+    </row>
+    <row r="199" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ199" s="6">
+        <v>1.24</v>
       </c>
     </row>
     <row r="200" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ200" s="6">
-        <v>1.24</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="201" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ201" s="6">
-        <v>7.03</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="202" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ202" s="6">
-        <v>6.76</v>
+        <v>-71.430000000000007</v>
       </c>
     </row>
     <row r="203" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ203" s="6">
-        <v>-71.430000000000007</v>
+        <v>-8.85</v>
       </c>
     </row>
     <row r="204" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ204" s="6">
-        <v>-8.85</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="205" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ205" s="6">
-        <v>94.3</v>
+      <c r="AJ205" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="206" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ206" s="6" t="s">
-        <v>55</v>
+      <c r="AJ206" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="207" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ207" s="6">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="208" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ208" s="6">
-        <v>3.25</v>
+        <v>-11.63</v>
       </c>
     </row>
     <row r="209" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ209" s="6">
-        <v>-11.63</v>
+        <v>41.51</v>
       </c>
     </row>
     <row r="210" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ210" s="6">
-        <v>41.51</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="211" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ211" s="6">
-        <v>-25.75</v>
+      <c r="AJ211" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="212" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ212" s="6" t="s">
-        <v>55</v>
+      <c r="AJ212" s="6">
+        <v>51.23</v>
       </c>
     </row>
     <row r="213" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ213" s="6">
-        <v>51.23</v>
+        <v>453.09</v>
       </c>
     </row>
     <row r="214" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ214" s="6">
-        <v>453.09</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="215" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ215" s="6">
-        <v>-3.4</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="216" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ216" s="6">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="217" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ217" s="6">
         <v>18.68</v>
+      </c>
+    </row>
+    <row r="218" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ218" s="6">
+        <v>5.89</v>
       </c>
     </row>
     <row r="219" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ219" s="6">
-        <v>5.89</v>
+        <v>-9.89</v>
       </c>
     </row>
     <row r="220" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ220" s="6">
-        <v>-9.89</v>
+        <v>-66.28</v>
       </c>
     </row>
     <row r="221" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ221" s="6">
-        <v>-66.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ222" s="6">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="223" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ223" s="6">
-        <v>-2.91</v>
+        <v>-19.350000000000001</v>
       </c>
     </row>
     <row r="224" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ224" s="6">
-        <v>-19.350000000000001</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="225" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ225" s="6">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="226" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ226" s="6">
         <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ228" s="6">
+        <v>20.87</v>
       </c>
     </row>
     <row r="229" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ229" s="6">
-        <v>20.87</v>
+        <v>228.59</v>
       </c>
     </row>
     <row r="230" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ230" s="6">
-        <v>228.59</v>
+        <v>67.38</v>
       </c>
     </row>
     <row r="231" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ231" s="6">
-        <v>67.38</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="232" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ232" s="6">
-        <v>33.4</v>
+        <v>-35.770000000000003</v>
       </c>
     </row>
     <row r="233" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ233" s="6">
-        <v>-35.770000000000003</v>
+        <v>52.26</v>
       </c>
     </row>
     <row r="234" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ234" s="6">
-        <v>52.26</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="235" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ235" s="6">
-        <v>40.14</v>
+        <v>52.26</v>
       </c>
     </row>
     <row r="236" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ236" s="6">
-        <v>52.26</v>
+        <v>-20.29</v>
       </c>
     </row>
     <row r="237" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ237" s="6">
-        <v>-20.29</v>
+        <v>59.72</v>
       </c>
     </row>
     <row r="238" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ238" s="6">
-        <v>59.72</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="239" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ239" s="6">
-        <v>27.86</v>
+        <v>-54.18</v>
       </c>
     </row>
     <row r="240" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ240" s="6">
-        <v>-54.18</v>
+        <v>275</v>
       </c>
     </row>
     <row r="241" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ241" s="6">
-        <v>275</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ242" s="6">
-        <v>100</v>
+        <v>150.86000000000001</v>
       </c>
     </row>
     <row r="243" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ243" s="6">
-        <v>150.86000000000001</v>
+        <v>-63.49</v>
       </c>
     </row>
     <row r="244" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ244" s="6">
-        <v>-63.49</v>
+        <v>-29.77</v>
       </c>
     </row>
     <row r="245" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ245" s="6">
-        <v>-29.77</v>
+        <v>-29.86</v>
       </c>
     </row>
     <row r="246" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ246" s="6">
-        <v>-29.86</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="247" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ247" s="6">
-        <v>19.32</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="248" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ248" s="6">
-        <v>-1.46</v>
-      </c>
-    </row>
-    <row r="249" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ249" s="6">
         <v>16.79</v>
+      </c>
+    </row>
+    <row r="252" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ252" s="6">
+        <v>-18.39</v>
       </c>
     </row>
     <row r="253" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ253" s="6">
-        <v>-18.39</v>
+        <v>-16.440000000000001</v>
       </c>
     </row>
     <row r="254" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ254" s="6">
-        <v>-16.440000000000001</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="255" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ255" s="6">
-        <v>11.85</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="256" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ256" s="6">
-        <v>26.34</v>
+        <v>-37.409999999999997</v>
       </c>
     </row>
     <row r="257" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ257" s="6">
-        <v>-37.409999999999997</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="258" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ258" s="6">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="259" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ259" s="6">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -5833,7 +5795,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -5928,7 +5890,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6023,7 +5985,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>3.52</v>
@@ -6118,7 +6080,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>3.52</v>
@@ -6213,7 +6175,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>3.31</v>
@@ -6308,7 +6270,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>2.97</v>
@@ -6403,7 +6365,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>4.13</v>
@@ -6498,7 +6460,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>3.67</v>
@@ -6593,7 +6555,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>5.66</v>
@@ -6688,7 +6650,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>8.23</v>
@@ -6783,7 +6745,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>2.85</v>
@@ -6878,43 +6840,43 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>8.74</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>2.77</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12">
         <v>2.59</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12">
         <v>2.41</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>2.1</v>
@@ -6973,7 +6935,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>2.06</v>
@@ -7068,7 +7030,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>2.06</v>
@@ -7163,7 +7125,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>2.13</v>
@@ -7258,7 +7220,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>2.1</v>
@@ -7353,7 +7315,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>1.32</v>
@@ -7448,7 +7410,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>1.22</v>
@@ -7543,7 +7505,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>3.8</v>
@@ -7638,7 +7600,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>1.07</v>
@@ -7733,7 +7695,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>1.89</v>
@@ -7828,7 +7790,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>0.48</v>
@@ -7923,7 +7885,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>2.96</v>
@@ -8018,7 +7980,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>1.03</v>
@@ -8113,7 +8075,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>4.72</v>
@@ -8208,7 +8170,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <v>4.9400000000000004</v>
@@ -8303,7 +8265,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28">
         <v>6.16</v>
@@ -8398,102 +8360,102 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30">
         <v>1.23</v>
@@ -8588,7 +8550,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>2.89</v>
@@ -8683,12 +8645,12 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>34.31</v>
@@ -8783,7 +8745,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>34.31</v>
@@ -8878,7 +8840,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>14.1</v>
@@ -8973,7 +8935,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>9.98</v>
@@ -9068,7 +9030,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>4.12</v>
@@ -9163,7 +9125,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>13.78</v>
@@ -9258,7 +9220,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>0.1</v>
@@ -9353,7 +9315,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>0.13</v>
@@ -9448,7 +9410,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>0.03</v>
@@ -9543,7 +9505,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9638,7 +9600,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>22.49</v>
@@ -9733,7 +9695,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>6.32</v>
@@ -9828,7 +9790,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>14.79</v>
@@ -9923,7 +9885,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>1.39</v>
@@ -10018,7 +9980,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>24.18</v>
@@ -10113,7 +10075,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>2.86</v>
@@ -10208,7 +10170,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>67.180000000000007</v>
@@ -10303,7 +10265,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>14.55</v>
@@ -10398,7 +10360,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>42.25</v>
@@ -10493,7 +10455,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>6.81</v>
@@ -10588,7 +10550,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>3.56</v>
@@ -10683,7 +10645,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>0.93</v>
@@ -10778,7 +10740,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>1.02</v>
@@ -10873,7 +10835,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>0.86</v>
@@ -10968,7 +10930,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60">
         <v>1.88</v>
@@ -11063,7 +11025,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61">
         <v>70</v>
@@ -11158,7 +11120,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63">
         <v>5.4</v>
@@ -11268,7 +11230,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -11363,7 +11325,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11458,7 +11420,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>0.76</v>
@@ -11553,7 +11515,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>33.42</v>
@@ -11648,7 +11610,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -11743,7 +11705,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>33.89</v>
@@ -11838,7 +11800,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>19.37</v>
@@ -11933,7 +11895,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>8.61</v>
@@ -12028,7 +11990,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>12.13</v>
@@ -12123,7 +12085,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <v>3.33</v>
@@ -12218,7 +12180,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12275,45 +12237,45 @@
         <v>65</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <v>18.059999999999999</v>
@@ -12408,7 +12370,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <v>7.0000000000000007E-2</v>
@@ -12503,7 +12465,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <v>95.46</v>
@@ -12598,7 +12560,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>0.56000000000000005</v>
@@ -12693,7 +12655,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>0.12</v>
@@ -12788,7 +12750,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12883,7 +12845,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12978,7 +12940,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <v>0.01</v>
@@ -13073,7 +13035,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23">
         <v>3.85</v>
@@ -13168,7 +13130,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24">
         <v>4.55</v>
@@ -13263,7 +13225,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -13358,7 +13320,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27">
         <v>5.39</v>
@@ -13453,12 +13415,12 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30">
         <v>18.510000000000002</v>
@@ -13553,7 +13515,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31">
         <v>10.61</v>
@@ -13648,7 +13610,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32">
         <v>15.11</v>
@@ -13743,7 +13705,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33">
         <v>27.59</v>
@@ -13838,7 +13800,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34">
         <v>1.47</v>
@@ -13933,7 +13895,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35">
         <v>8.35</v>
@@ -14028,7 +13990,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36">
         <v>64.95</v>
@@ -14123,7 +14085,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37">
         <v>8.35</v>
@@ -14218,7 +14180,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38">
         <v>5.43</v>
@@ -14313,7 +14275,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>3.82</v>
@@ -14408,7 +14370,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40">
         <v>82.54</v>
@@ -14503,7 +14465,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42">
         <v>0.65</v>
@@ -14598,7 +14560,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43">
         <v>0.57999999999999996</v>
@@ -14693,7 +14655,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44">
         <v>2.95</v>
@@ -14788,7 +14750,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45">
         <v>12.95</v>
@@ -14883,7 +14845,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>0.86</v>
@@ -14978,7 +14940,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48">
         <v>1.61</v>
@@ -15073,7 +15035,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B49">
         <v>89.2</v>
@@ -15168,7 +15130,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51">
         <v>10.8</v>
@@ -15263,7 +15225,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52">
         <v>100</v>
@@ -15358,7 +15320,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54">
         <v>10.72</v>
@@ -15453,7 +15415,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55">
         <v>8.35</v>
@@ -15548,7 +15510,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57">
         <v>2.2400000000000002</v>
@@ -15658,7 +15620,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -15753,7 +15715,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -15848,7 +15810,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>20.25</v>
@@ -15943,7 +15905,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>8.83</v>
@@ -16038,7 +16000,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5">
         <v>5.23</v>
@@ -16133,7 +16095,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>32.42</v>
@@ -16228,7 +16190,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8">
         <v>1.72</v>
@@ -16323,7 +16285,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9">
         <v>2.0299999999999998</v>
@@ -16418,7 +16380,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <v>10.54</v>
@@ -16513,7 +16475,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12">
         <v>3.83</v>
@@ -16608,7 +16570,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13">
         <v>3.54</v>
@@ -16703,7 +16665,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -16798,7 +16760,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16">
         <v>0.01</v>
@@ -16893,7 +16855,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17">
         <v>0.01</v>
@@ -16988,12 +16950,12 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20">
         <v>16.829999999999998</v>
@@ -17088,7 +17050,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21">
         <v>4.5</v>
@@ -17183,7 +17145,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22">
         <v>71.02</v>
@@ -17278,7 +17240,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24">
         <v>-0.28000000000000003</v>
@@ -17373,7 +17335,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25">
         <v>-2.5299999999999998</v>
@@ -17468,12 +17430,12 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28">
         <v>24.94</v>
@@ -17568,7 +17530,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29">
         <v>1.25</v>
@@ -17663,7 +17625,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30">
         <v>23.69</v>
@@ -17758,7 +17720,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32">
         <v>29.5</v>
@@ -17853,7 +17815,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33">
         <v>2.2000000000000002</v>
@@ -17948,7 +17910,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34">
         <v>27.3</v>
@@ -18043,7 +18005,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36">
         <v>70.03</v>
@@ -18138,7 +18100,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37">
         <v>280.75</v>
@@ -18233,7 +18195,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38">
         <v>-45.09</v>
@@ -18328,12 +18290,12 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -18428,7 +18390,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42">
         <v>0.12</v>
@@ -18523,7 +18485,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43">
         <v>0.12</v>
@@ -18656,7 +18618,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -18751,7 +18713,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -18846,7 +18808,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -18941,7 +18903,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <v>0.12</v>
@@ -19036,7 +18998,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>0.61</v>
@@ -19131,7 +19093,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <v>8.42</v>
@@ -19226,7 +19188,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>1.85</v>
@@ -19321,7 +19283,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -19416,7 +19378,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>21.39</v>
@@ -19511,7 +19473,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>13.67</v>
@@ -19606,7 +19568,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>59.76</v>
@@ -19701,7 +19663,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>94.82</v>
@@ -19796,7 +19758,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>5.18</v>
@@ -19891,7 +19853,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -19986,12 +19948,12 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18">
         <v>-6.65</v>
@@ -20086,7 +20048,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19">
         <v>63.43</v>
@@ -20276,7 +20238,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21">
         <v>170.62</v>
@@ -20371,7 +20333,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22">
         <v>419.1</v>
@@ -20466,7 +20428,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23">
         <v>-27.52</v>
@@ -20656,7 +20618,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25">
         <v>55.32</v>
@@ -20751,7 +20713,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26">
         <v>94.16</v>
@@ -20846,7 +20808,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27">
         <v>13.77</v>
@@ -20941,7 +20903,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -21036,7 +20998,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B29">
         <v>13.77</v>
@@ -21131,7 +21093,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -21226,7 +21188,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -21321,12 +21283,12 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2">
         <v>121829597</v>
@@ -21361,7 +21323,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="2">
         <v>160388</v>
@@ -21396,7 +21358,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2">
         <v>829247</v>
@@ -21431,7 +21393,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="2">
         <v>11527185</v>
@@ -21466,7 +21428,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" s="2">
         <v>2537755</v>
@@ -21501,7 +21463,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="2">
         <v>136884172</v>
@@ -21536,7 +21498,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="2">
         <v>29278560</v>
@@ -21571,7 +21533,7 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="2">
         <v>18706313</v>
@@ -21606,7 +21568,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="2">
         <v>81805610</v>
@@ -21641,7 +21603,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="2">
         <v>129790483</v>
@@ -21676,7 +21638,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="2">
         <v>7093689</v>
@@ -21711,7 +21673,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="2">
         <v>136884172</v>
@@ -21746,12 +21708,12 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" s="2">
         <v>36416798</v>
@@ -21821,7 +21783,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2">
         <v>103033341</v>
@@ -21856,7 +21818,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52" s="2">
         <v>1184077</v>
@@ -21891,7 +21853,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B53" s="2">
         <v>1220900</v>
@@ -21926,7 +21888,7 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54" s="2">
         <v>11276583</v>
@@ -21961,7 +21923,7 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B55" s="2">
         <v>2350592</v>
@@ -21996,7 +21958,7 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -22031,7 +21993,7 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" s="2">
         <v>1000000</v>
@@ -22066,7 +22028,7 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" s="2">
         <v>1127272</v>
@@ -22101,7 +22063,7 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" s="2">
         <v>3241314</v>
@@ -22136,7 +22098,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -22171,7 +22133,7 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -22206,7 +22168,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -22241,7 +22203,7 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -22276,7 +22238,7 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B64" s="2">
         <v>18843821</v>
@@ -22311,7 +22273,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -22379,7 +22341,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="5">
         <v>44926</v>
@@ -22474,7 +22436,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -22664,7 +22626,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4">
         <v>7.0000000000000007E-2</v>
@@ -22759,7 +22721,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5">
         <v>41.17</v>
@@ -22854,7 +22816,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6">
         <v>13.04</v>
@@ -22949,17 +22911,17 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10">
         <v>29.39</v>
@@ -23054,7 +23016,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11">
         <v>0.01</v>
@@ -23149,7 +23111,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12">
         <v>46.76</v>
@@ -23244,7 +23206,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13">
         <v>16.71</v>
@@ -23339,7 +23301,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14">
         <v>1.17</v>
@@ -23434,7 +23396,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15">
         <v>0.31</v>
@@ -23529,7 +23491,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -23624,7 +23586,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -23719,7 +23681,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18">
         <v>5.31</v>
@@ -23814,7 +23776,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19">
         <v>0.34</v>
@@ -23909,7 +23871,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -24004,12 +23966,12 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -24104,7 +24066,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24">
         <v>-9.86</v>
@@ -24199,7 +24161,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25">
         <v>-6.22</v>
@@ -24294,7 +24256,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26">
         <v>-2.86</v>
@@ -24389,7 +24351,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27">
         <v>10.48</v>
@@ -24484,7 +24446,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28">
         <v>30.45</v>
@@ -24579,7 +24541,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29">
         <v>0.61</v>
@@ -24674,7 +24636,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="2">
         <v>42409737</v>
@@ -24709,7 +24671,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2">
         <v>58719848</v>
@@ -24744,7 +24706,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -24779,7 +24741,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -24814,7 +24776,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -24849,7 +24811,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2">
         <v>3645008</v>
@@ -24884,7 +24846,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2">
         <v>17530039</v>
@@ -24919,7 +24881,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2">
         <v>353556</v>
@@ -24961,7 +24923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C622C5-A61D-44BF-B27E-8BBFBEE8A96D}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -24973,7 +24935,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -25008,7 +24970,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -25018,42 +24980,42 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="2">
         <v>8010</v>
@@ -25088,7 +25050,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="2">
         <v>458000</v>
@@ -25123,42 +25085,42 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" s="2">
         <v>17992150</v>
@@ -25193,82 +25155,82 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="2">
         <v>681511</v>
@@ -25303,77 +25265,77 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="2">
         <v>2122305</v>
@@ -25408,12 +25370,12 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" s="2">
         <v>20114455</v>
@@ -25448,77 +25410,77 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" s="2">
         <v>20114455</v>
@@ -25553,17 +25515,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" s="2">
         <v>2484616</v>
@@ -25598,7 +25560,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2">
         <v>8285177</v>
@@ -25633,7 +25595,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" s="2">
         <v>39760096</v>
@@ -25668,7 +25630,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2">
         <v>56044634</v>
@@ -25703,7 +25665,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2">
         <v>46923656</v>
@@ -25738,12 +25700,12 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2">
         <v>2245936</v>
@@ -25778,7 +25740,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2">
         <v>434955</v>
@@ -25813,7 +25775,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2">
         <v>38598233</v>
@@ -25848,7 +25810,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" s="2">
         <v>42340843</v>
@@ -25883,7 +25845,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2">
         <v>1623125</v>
@@ -25918,12 +25880,12 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2">
         <v>101331275</v>
@@ -25958,7 +25920,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -25993,7 +25955,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -26028,42 +25990,42 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2">
         <v>101331275</v>

--- a/Data/HSBC_bank.xlsx
+++ b/Data/HSBC_bank.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasre\OneDrive\Documents\GitHub\SVB_Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EA5145-2E7C-471E-9171-A84D33A786F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58605C1E-49A3-43C7-863A-4943C6576E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{1C77B446-3795-4E7B-B557-8CFE1FC6F933}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary Ratios" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary Ratios" sheetId="14" r:id="rId1"/>
     <sheet name="Asset Yields and Funding Costs" sheetId="3" r:id="rId2"/>
     <sheet name="Balance Sheet Percentage" sheetId="5" r:id="rId3"/>
     <sheet name="Interest Rate Risk" sheetId="7" r:id="rId4"/>
     <sheet name="Liquidity and Funding" sheetId="8" r:id="rId5"/>
-    <sheet name="Liquidity &amp; Investment" sheetId="9" r:id="rId6"/>
-    <sheet name="Capital Analysis D" sheetId="13" r:id="rId7"/>
+    <sheet name="Liquidity and Funding - Totals" sheetId="15" r:id="rId6"/>
+    <sheet name="Liquidity &amp; Investment" sheetId="9" r:id="rId7"/>
+    <sheet name="Liquidity &amp; Investment - Totals" sheetId="16" r:id="rId8"/>
+    <sheet name="Capital Analysis D" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="286">
   <si>
     <t>Earnings and Profitability</t>
   </si>
@@ -200,9 +202,6 @@
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>1 Year</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1273,54 +1272,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FE4DD7-71B1-49A1-AD4A-B9AB7347D3DB}">
-  <dimension ref="A1:AJ258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A6B02-D952-45D4-9567-671AA46742D5}">
+  <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="8.85546875" style="6"/>
-    <col min="36" max="36" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="6"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="7">
         <v>44926</v>
@@ -1512,6 +1475,36 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2237,40 +2230,40 @@
         <v>3</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U11" s="6">
         <v>0</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X11" s="6">
         <v>0</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA11" s="6">
         <v>0</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD11" s="6">
         <v>0</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -3033,10 +3026,73 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+    </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3513,10 +3569,73 @@
         <v>11</v>
       </c>
     </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+    </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -4278,10 +4397,73 @@
         <v>84</v>
       </c>
     </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+    </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
@@ -4568,10 +4750,73 @@
         <v>15</v>
       </c>
     </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+    </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -4953,10 +5198,73 @@
         <v>34</v>
       </c>
     </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+    </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -5433,6 +5741,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+    </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>51</v>
@@ -5440,33 +5781,53 @@
       <c r="B56" s="8">
         <v>172894393</v>
       </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="8">
         <v>177309197</v>
       </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
       <c r="H56" s="8">
         <v>195564276</v>
       </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
       <c r="K56" s="8">
         <v>197915068</v>
       </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
       <c r="N56" s="8">
         <v>199118803</v>
       </c>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
       <c r="Q56" s="8">
         <v>196068087</v>
       </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
       <c r="T56" s="8">
         <v>176135127</v>
       </c>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
       <c r="W56" s="8">
         <v>173804618</v>
       </c>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
       <c r="Z56" s="8">
         <v>176602279</v>
       </c>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
       <c r="AC56" s="8">
         <v>181635505</v>
       </c>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -5475,308 +5836,53 @@
       <c r="B57" s="8">
         <v>823618</v>
       </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="8">
         <v>388945</v>
       </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
       <c r="H57" s="8">
         <v>813279</v>
       </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
       <c r="K57" s="8">
         <v>584948</v>
       </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
       <c r="N57" s="8">
         <v>-776503</v>
       </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
       <c r="Q57" s="8">
         <v>-1164363</v>
       </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
       <c r="T57" s="8">
         <v>340983</v>
       </c>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
       <c r="W57" s="8">
         <v>335376</v>
       </c>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
       <c r="Z57" s="8">
         <v>514954</v>
       </c>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
       <c r="AC57" s="8">
         <v>120899</v>
       </c>
-    </row>
-    <row r="197" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ197" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="199" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ199" s="6">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="200" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ200" s="6">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="201" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ201" s="6">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="202" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ202" s="6">
-        <v>-71.430000000000007</v>
-      </c>
-    </row>
-    <row r="203" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ203" s="6">
-        <v>-8.85</v>
-      </c>
-    </row>
-    <row r="204" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ204" s="6">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="205" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ205" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="206" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ206" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="207" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ207" s="6">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="208" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ208" s="6">
-        <v>-11.63</v>
-      </c>
-    </row>
-    <row r="209" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ209" s="6">
-        <v>41.51</v>
-      </c>
-    </row>
-    <row r="210" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ210" s="6">
-        <v>-25.75</v>
-      </c>
-    </row>
-    <row r="211" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ211" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="212" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ212" s="6">
-        <v>51.23</v>
-      </c>
-    </row>
-    <row r="213" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ213" s="6">
-        <v>453.09</v>
-      </c>
-    </row>
-    <row r="214" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ214" s="6">
-        <v>-3.4</v>
-      </c>
-    </row>
-    <row r="215" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ215" s="6">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="216" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ216" s="6">
-        <v>18.68</v>
-      </c>
-    </row>
-    <row r="218" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ218" s="6">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="219" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ219" s="6">
-        <v>-9.89</v>
-      </c>
-    </row>
-    <row r="220" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ220" s="6">
-        <v>-66.28</v>
-      </c>
-    </row>
-    <row r="221" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ221" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ222" s="6">
-        <v>-2.91</v>
-      </c>
-    </row>
-    <row r="223" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ223" s="6">
-        <v>-19.350000000000001</v>
-      </c>
-    </row>
-    <row r="224" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ224" s="6">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="225" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ225" s="6">
-        <v>17.829999999999998</v>
-      </c>
-    </row>
-    <row r="228" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ228" s="6">
-        <v>20.87</v>
-      </c>
-    </row>
-    <row r="229" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ229" s="6">
-        <v>228.59</v>
-      </c>
-    </row>
-    <row r="230" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ230" s="6">
-        <v>67.38</v>
-      </c>
-    </row>
-    <row r="231" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ231" s="6">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="232" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ232" s="6">
-        <v>-35.770000000000003</v>
-      </c>
-    </row>
-    <row r="233" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ233" s="6">
-        <v>52.26</v>
-      </c>
-    </row>
-    <row r="234" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ234" s="6">
-        <v>40.14</v>
-      </c>
-    </row>
-    <row r="235" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ235" s="6">
-        <v>52.26</v>
-      </c>
-    </row>
-    <row r="236" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ236" s="6">
-        <v>-20.29</v>
-      </c>
-    </row>
-    <row r="237" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ237" s="6">
-        <v>59.72</v>
-      </c>
-    </row>
-    <row r="238" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ238" s="6">
-        <v>27.86</v>
-      </c>
-    </row>
-    <row r="239" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ239" s="6">
-        <v>-54.18</v>
-      </c>
-    </row>
-    <row r="240" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ240" s="6">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="241" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ241" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="242" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ242" s="6">
-        <v>150.86000000000001</v>
-      </c>
-    </row>
-    <row r="243" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ243" s="6">
-        <v>-63.49</v>
-      </c>
-    </row>
-    <row r="244" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ244" s="6">
-        <v>-29.77</v>
-      </c>
-    </row>
-    <row r="245" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ245" s="6">
-        <v>-29.86</v>
-      </c>
-    </row>
-    <row r="246" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ246" s="6">
-        <v>19.32</v>
-      </c>
-    </row>
-    <row r="247" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ247" s="6">
-        <v>-1.46</v>
-      </c>
-    </row>
-    <row r="248" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ248" s="6">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="252" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ252" s="6">
-        <v>-18.39</v>
-      </c>
-    </row>
-    <row r="253" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ253" s="6">
-        <v>-16.440000000000001</v>
-      </c>
-    </row>
-    <row r="254" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ254" s="6">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="255" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ255" s="6">
-        <v>26.34</v>
-      </c>
-    </row>
-    <row r="256" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ256" s="6">
-        <v>-37.409999999999997</v>
-      </c>
-    </row>
-    <row r="257" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ257" s="6">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="258" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ258" s="6">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5795,7 +5901,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -5890,7 +5996,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -5985,7 +6091,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>3.52</v>
@@ -6080,7 +6186,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>3.52</v>
@@ -6175,7 +6281,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>3.31</v>
@@ -6270,7 +6376,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>2.97</v>
@@ -6365,7 +6471,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>4.13</v>
@@ -6460,7 +6566,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>3.67</v>
@@ -6555,7 +6661,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>5.66</v>
@@ -6650,7 +6756,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>8.23</v>
@@ -6745,7 +6851,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>2.85</v>
@@ -6840,43 +6946,43 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>8.74</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>2.77</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12">
         <v>2.59</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12">
         <v>2.41</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>2.1</v>
@@ -6935,7 +7041,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>2.06</v>
@@ -7030,7 +7136,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>2.06</v>
@@ -7125,7 +7231,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>2.13</v>
@@ -7220,7 +7326,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>2.1</v>
@@ -7315,7 +7421,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>1.32</v>
@@ -7410,7 +7516,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>1.22</v>
@@ -7505,7 +7611,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>3.8</v>
@@ -7600,7 +7706,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>1.07</v>
@@ -7695,7 +7801,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>1.89</v>
@@ -7790,7 +7896,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>0.48</v>
@@ -7885,7 +7991,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>2.96</v>
@@ -7980,7 +8086,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>1.03</v>
@@ -8075,7 +8181,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>4.72</v>
@@ -8170,7 +8276,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>4.9400000000000004</v>
@@ -8265,7 +8371,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>6.16</v>
@@ -8360,102 +8466,102 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>1.23</v>
@@ -8550,7 +8656,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32">
         <v>2.89</v>
@@ -8645,12 +8751,12 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>34.31</v>
@@ -8745,7 +8851,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>34.31</v>
@@ -8840,7 +8946,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>14.1</v>
@@ -8935,7 +9041,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38">
         <v>9.98</v>
@@ -9030,7 +9136,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>4.12</v>
@@ -9125,7 +9231,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>13.78</v>
@@ -9220,7 +9326,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>0.1</v>
@@ -9315,7 +9421,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>0.13</v>
@@ -9410,7 +9516,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>0.03</v>
@@ -9505,7 +9611,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9600,7 +9706,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>22.49</v>
@@ -9695,7 +9801,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <v>6.32</v>
@@ -9790,7 +9896,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47">
         <v>14.79</v>
@@ -9885,7 +9991,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <v>1.39</v>
@@ -9980,7 +10086,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49">
         <v>24.18</v>
@@ -10075,7 +10181,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>2.86</v>
@@ -10170,7 +10276,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51">
         <v>67.180000000000007</v>
@@ -10265,7 +10371,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52">
         <v>14.55</v>
@@ -10360,7 +10466,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53">
         <v>42.25</v>
@@ -10455,7 +10561,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54">
         <v>6.81</v>
@@ -10550,7 +10656,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55">
         <v>3.56</v>
@@ -10645,7 +10751,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>0.93</v>
@@ -10740,7 +10846,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>1.02</v>
@@ -10835,7 +10941,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0.86</v>
@@ -10930,7 +11036,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60">
         <v>1.88</v>
@@ -11025,7 +11131,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>70</v>
@@ -11120,7 +11226,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63">
         <v>5.4</v>
@@ -11230,7 +11336,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -11325,7 +11431,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -11420,7 +11526,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>0.76</v>
@@ -11515,7 +11621,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>33.42</v>
@@ -11610,7 +11716,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -11705,7 +11811,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>33.89</v>
@@ -11800,7 +11906,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>19.37</v>
@@ -11895,7 +12001,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>8.61</v>
@@ -11990,7 +12096,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>12.13</v>
@@ -12085,7 +12191,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11">
         <v>3.33</v>
@@ -12180,7 +12286,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12237,45 +12343,45 @@
         <v>65</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>18.059999999999999</v>
@@ -12370,7 +12476,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>7.0000000000000007E-2</v>
@@ -12465,7 +12571,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16">
         <v>95.46</v>
@@ -12560,7 +12666,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18">
         <v>0.56000000000000005</v>
@@ -12655,7 +12761,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>0.12</v>
@@ -12750,7 +12856,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12845,7 +12951,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12940,7 +13046,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22">
         <v>0.01</v>
@@ -13035,7 +13141,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23">
         <v>3.85</v>
@@ -13130,7 +13236,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24">
         <v>4.55</v>
@@ -13225,7 +13331,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -13320,7 +13426,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27">
         <v>5.39</v>
@@ -13415,12 +13521,12 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30">
         <v>18.510000000000002</v>
@@ -13515,7 +13621,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31">
         <v>10.61</v>
@@ -13610,7 +13716,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32">
         <v>15.11</v>
@@ -13705,7 +13811,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33">
         <v>27.59</v>
@@ -13800,7 +13906,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34">
         <v>1.47</v>
@@ -13895,7 +14001,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35">
         <v>8.35</v>
@@ -13990,7 +14096,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>64.95</v>
@@ -14085,7 +14191,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37">
         <v>8.35</v>
@@ -14180,7 +14286,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38">
         <v>5.43</v>
@@ -14275,7 +14381,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39">
         <v>3.82</v>
@@ -14370,7 +14476,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40">
         <v>82.54</v>
@@ -14465,7 +14571,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>0.65</v>
@@ -14560,7 +14666,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43">
         <v>0.57999999999999996</v>
@@ -14655,7 +14761,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44">
         <v>2.95</v>
@@ -14750,7 +14856,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45">
         <v>12.95</v>
@@ -14845,7 +14951,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47">
         <v>0.86</v>
@@ -14940,7 +15046,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48">
         <v>1.61</v>
@@ -15035,7 +15141,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49">
         <v>89.2</v>
@@ -15130,7 +15236,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51">
         <v>10.8</v>
@@ -15225,7 +15331,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52">
         <v>100</v>
@@ -15320,7 +15426,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54">
         <v>10.72</v>
@@ -15415,7 +15521,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55">
         <v>8.35</v>
@@ -15510,7 +15616,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57">
         <v>2.2400000000000002</v>
@@ -15620,7 +15726,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -15715,7 +15821,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -15810,7 +15916,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>20.25</v>
@@ -15905,7 +16011,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>8.83</v>
@@ -16000,7 +16106,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>5.23</v>
@@ -16095,7 +16201,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>32.42</v>
@@ -16190,7 +16296,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8">
         <v>1.72</v>
@@ -16285,7 +16391,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9">
         <v>2.0299999999999998</v>
@@ -16380,7 +16486,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>10.54</v>
@@ -16475,7 +16581,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12">
         <v>3.83</v>
@@ -16570,7 +16676,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13">
         <v>3.54</v>
@@ -16665,7 +16771,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -16760,7 +16866,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16">
         <v>0.01</v>
@@ -16855,7 +16961,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17">
         <v>0.01</v>
@@ -16950,12 +17056,12 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20">
         <v>16.829999999999998</v>
@@ -17050,7 +17156,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21">
         <v>4.5</v>
@@ -17145,7 +17251,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22">
         <v>71.02</v>
@@ -17240,7 +17346,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24">
         <v>-0.28000000000000003</v>
@@ -17335,7 +17441,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25">
         <v>-2.5299999999999998</v>
@@ -17430,12 +17536,12 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28">
         <v>24.94</v>
@@ -17530,7 +17636,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>1.25</v>
@@ -17625,7 +17731,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30">
         <v>23.69</v>
@@ -17720,7 +17826,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>29.5</v>
@@ -17815,7 +17921,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33">
         <v>2.2000000000000002</v>
@@ -17910,7 +18016,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34">
         <v>27.3</v>
@@ -18005,7 +18111,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>70.03</v>
@@ -18100,7 +18206,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37">
         <v>280.75</v>
@@ -18195,7 +18301,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38">
         <v>-45.09</v>
@@ -18290,12 +18396,12 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -18390,7 +18496,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42">
         <v>0.12</v>
@@ -18485,7 +18591,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43">
         <v>0.12</v>
@@ -18585,10 +18691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1B87F-DD1A-4A5C-83A0-04451EBB24A9}">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18618,7 +18724,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -18713,7 +18819,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -18808,7 +18914,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -18903,7 +19009,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>0.12</v>
@@ -18998,7 +19104,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>0.61</v>
@@ -19093,7 +19199,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>8.42</v>
@@ -19188,7 +19294,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>1.85</v>
@@ -19283,7 +19389,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -19378,7 +19484,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>21.39</v>
@@ -19473,7 +19579,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>13.67</v>
@@ -19568,7 +19674,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>59.76</v>
@@ -19663,7 +19769,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>94.82</v>
@@ -19758,7 +19864,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>5.18</v>
@@ -19853,7 +19959,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -19948,12 +20054,12 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18">
         <v>-6.65</v>
@@ -20048,7 +20154,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19">
         <v>63.43</v>
@@ -20238,7 +20344,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21">
         <v>170.62</v>
@@ -20333,7 +20439,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22">
         <v>419.1</v>
@@ -20428,7 +20534,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23">
         <v>-27.52</v>
@@ -20618,7 +20724,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25">
         <v>55.32</v>
@@ -20713,7 +20819,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26">
         <v>94.16</v>
@@ -20808,7 +20914,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27">
         <v>13.77</v>
@@ -20903,7 +21009,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -20998,7 +21104,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29">
         <v>13.77</v>
@@ -21093,7 +21199,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -21188,7 +21294,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -21279,1031 +21385,6 @@
       </c>
       <c r="AE31">
         <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="2">
-        <v>121829597</v>
-      </c>
-      <c r="E34" s="2">
-        <v>120744667</v>
-      </c>
-      <c r="H34" s="2">
-        <v>141023495</v>
-      </c>
-      <c r="K34" s="2">
-        <v>143179975</v>
-      </c>
-      <c r="N34" s="2">
-        <v>146957673</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>149821047</v>
-      </c>
-      <c r="T34" s="2">
-        <v>121897803</v>
-      </c>
-      <c r="W34" s="2">
-        <v>118000582</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>110908136</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>117194536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="2">
-        <v>160388</v>
-      </c>
-      <c r="E35" s="2">
-        <v>133695</v>
-      </c>
-      <c r="H35" s="2">
-        <v>297037</v>
-      </c>
-      <c r="K35" s="2">
-        <v>306017</v>
-      </c>
-      <c r="N35" s="2">
-        <v>321877</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>604885</v>
-      </c>
-      <c r="T35" s="2">
-        <v>360836</v>
-      </c>
-      <c r="W35" s="2">
-        <v>505419</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>432765</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>515403</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" s="2">
-        <v>829247</v>
-      </c>
-      <c r="E36" s="2">
-        <v>705082</v>
-      </c>
-      <c r="H36" s="2">
-        <v>745587</v>
-      </c>
-      <c r="K36" s="2">
-        <v>549107</v>
-      </c>
-      <c r="N36" s="2">
-        <v>371647</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>426783</v>
-      </c>
-      <c r="T36" s="2">
-        <v>747822</v>
-      </c>
-      <c r="W36" s="2">
-        <v>436914</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>583832</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>550366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" s="2">
-        <v>11527185</v>
-      </c>
-      <c r="E37" s="2">
-        <v>15813211</v>
-      </c>
-      <c r="H37" s="2">
-        <v>12114391</v>
-      </c>
-      <c r="K37" s="2">
-        <v>15512340</v>
-      </c>
-      <c r="N37" s="2">
-        <v>9847035</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>14497713</v>
-      </c>
-      <c r="T37" s="2">
-        <v>7954251</v>
-      </c>
-      <c r="W37" s="2">
-        <v>10246515</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>11543196</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>10014481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2537755</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1878470</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1825760</v>
-      </c>
-      <c r="K38" s="2">
-        <v>2565713</v>
-      </c>
-      <c r="N38" s="2">
-        <v>2144664</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>3449568</v>
-      </c>
-      <c r="T38" s="2">
-        <v>2602599</v>
-      </c>
-      <c r="W38" s="2">
-        <v>2833051</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>2874000</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>2318945</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="2">
-        <v>136884172</v>
-      </c>
-      <c r="E39" s="2">
-        <v>139275125</v>
-      </c>
-      <c r="H39" s="2">
-        <v>156006270</v>
-      </c>
-      <c r="K39" s="2">
-        <v>162113152</v>
-      </c>
-      <c r="N39" s="2">
-        <v>159642896</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>168799996</v>
-      </c>
-      <c r="T39" s="2">
-        <v>133563311</v>
-      </c>
-      <c r="W39" s="2">
-        <v>132022481</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>126341929</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>130593731</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="2">
-        <v>29278560</v>
-      </c>
-      <c r="E41" s="2">
-        <v>30059347</v>
-      </c>
-      <c r="H41" s="2">
-        <v>35726149</v>
-      </c>
-      <c r="K41" s="2">
-        <v>36632346</v>
-      </c>
-      <c r="N41" s="2">
-        <v>26377965</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>24837405</v>
-      </c>
-      <c r="T41" s="2">
-        <v>19059894</v>
-      </c>
-      <c r="W41" s="2">
-        <v>20549683</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>22881555</v>
-      </c>
-      <c r="AC41" s="2">
-        <v>23291204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="2">
-        <v>18706313</v>
-      </c>
-      <c r="E42" s="2">
-        <v>17777739</v>
-      </c>
-      <c r="H42" s="2">
-        <v>17796832</v>
-      </c>
-      <c r="K42" s="2">
-        <v>19055691</v>
-      </c>
-      <c r="N42" s="2">
-        <v>17600188</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>19980994</v>
-      </c>
-      <c r="T42" s="2">
-        <v>10622063</v>
-      </c>
-      <c r="W42" s="2">
-        <v>6080843</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>5707072</v>
-      </c>
-      <c r="AC42" s="2">
-        <v>4719120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="2">
-        <v>81805610</v>
-      </c>
-      <c r="E43" s="2">
-        <v>83039649</v>
-      </c>
-      <c r="H43" s="2">
-        <v>97656465</v>
-      </c>
-      <c r="K43" s="2">
-        <v>99229361</v>
-      </c>
-      <c r="N43" s="2">
-        <v>110370543</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>115865820</v>
-      </c>
-      <c r="T43" s="2">
-        <v>99086465</v>
-      </c>
-      <c r="W43" s="2">
-        <v>100310788</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>91267951</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>95772402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="2">
-        <v>129790483</v>
-      </c>
-      <c r="E44" s="2">
-        <v>130876735</v>
-      </c>
-      <c r="H44" s="2">
-        <v>151179446</v>
-      </c>
-      <c r="K44" s="2">
-        <v>154917398</v>
-      </c>
-      <c r="N44" s="2">
-        <v>154348696</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>160684219</v>
-      </c>
-      <c r="T44" s="2">
-        <v>128768422</v>
-      </c>
-      <c r="W44" s="2">
-        <v>126941314</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>119856578</v>
-      </c>
-      <c r="AC44" s="2">
-        <v>123782726</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="2">
-        <v>7093689</v>
-      </c>
-      <c r="E45" s="2">
-        <v>8398390</v>
-      </c>
-      <c r="H45" s="2">
-        <v>4826824</v>
-      </c>
-      <c r="K45" s="2">
-        <v>7195754</v>
-      </c>
-      <c r="N45" s="2">
-        <v>5294200</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>8115777</v>
-      </c>
-      <c r="T45" s="2">
-        <v>4794889</v>
-      </c>
-      <c r="W45" s="2">
-        <v>5081167</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>6485351</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>6811005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="2">
-        <v>136884172</v>
-      </c>
-      <c r="E46" s="2">
-        <v>139275125</v>
-      </c>
-      <c r="H46" s="2">
-        <v>156006270</v>
-      </c>
-      <c r="K46" s="2">
-        <v>162113152</v>
-      </c>
-      <c r="N46" s="2">
-        <v>159642896</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>168799996</v>
-      </c>
-      <c r="T46" s="2">
-        <v>133563311</v>
-      </c>
-      <c r="W46" s="2">
-        <v>132022481</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>126341929</v>
-      </c>
-      <c r="AC46" s="2">
-        <v>130593731</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="2">
-        <v>36416798</v>
-      </c>
-      <c r="E49" s="2">
-        <v>34508908</v>
-      </c>
-      <c r="H49" s="2">
-        <v>31540959</v>
-      </c>
-      <c r="K49" s="2">
-        <v>34880604</v>
-      </c>
-      <c r="N49" s="2">
-        <v>51195710</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>65105855</v>
-      </c>
-      <c r="T49" s="2">
-        <v>56911642</v>
-      </c>
-      <c r="W49" s="2">
-        <v>63716339</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>51902771</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>55618698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="2">
-        <v>24856735</v>
-      </c>
-      <c r="E50" s="2">
-        <v>21347322</v>
-      </c>
-      <c r="H50" s="2">
-        <v>21303286</v>
-      </c>
-      <c r="K50" s="2">
-        <v>22859813</v>
-      </c>
-      <c r="N50" s="2">
-        <v>39184907</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>48312575</v>
-      </c>
-      <c r="T50" s="2">
-        <v>39106213</v>
-      </c>
-      <c r="W50" s="2">
-        <v>40635920</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>26761031</v>
-      </c>
-      <c r="AC50" s="2">
-        <v>28143868</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="2">
-        <v>103033341</v>
-      </c>
-      <c r="E51" s="2">
-        <v>107597839</v>
-      </c>
-      <c r="H51" s="2">
-        <v>128657444</v>
-      </c>
-      <c r="K51" s="2">
-        <v>130303967</v>
-      </c>
-      <c r="N51" s="2">
-        <v>115190308</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>114647096</v>
-      </c>
-      <c r="T51" s="2">
-        <v>84255893</v>
-      </c>
-      <c r="W51" s="2">
-        <v>81810716</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>83984355</v>
-      </c>
-      <c r="AC51" s="2">
-        <v>87615303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>206</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1184077</v>
-      </c>
-      <c r="E52" s="2">
-        <v>950828</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1205307</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1319983</v>
-      </c>
-      <c r="N52" s="2">
-        <v>1880520</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>1872246</v>
-      </c>
-      <c r="T52" s="2">
-        <v>1754013</v>
-      </c>
-      <c r="W52" s="2">
-        <v>1644210</v>
-      </c>
-      <c r="Z52" s="2">
-        <v>1378425</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>1534828</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>207</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1220900</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1324039</v>
-      </c>
-      <c r="H53" s="2">
-        <v>1900332</v>
-      </c>
-      <c r="K53" s="2">
-        <v>2483241</v>
-      </c>
-      <c r="N53" s="2">
-        <v>3276235</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>4515417</v>
-      </c>
-      <c r="T53" s="2">
-        <v>6487202</v>
-      </c>
-      <c r="W53" s="2">
-        <v>8300375</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>7906591</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>7318267</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="2">
-        <v>11276583</v>
-      </c>
-      <c r="E54" s="2">
-        <v>6378780</v>
-      </c>
-      <c r="H54" s="2">
-        <v>4657875</v>
-      </c>
-      <c r="K54" s="2">
-        <v>6081616</v>
-      </c>
-      <c r="N54" s="2">
-        <v>16832574</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>22613394</v>
-      </c>
-      <c r="T54" s="2">
-        <v>27447477</v>
-      </c>
-      <c r="W54" s="2">
-        <v>27291041</v>
-      </c>
-      <c r="Z54" s="2">
-        <v>17473785</v>
-      </c>
-      <c r="AC54" s="2">
-        <v>14552049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>209</v>
-      </c>
-      <c r="B55" s="2">
-        <v>2350592</v>
-      </c>
-      <c r="E55" s="2">
-        <v>2276417</v>
-      </c>
-      <c r="H55" s="2">
-        <v>2275914</v>
-      </c>
-      <c r="K55" s="2">
-        <v>2275969</v>
-      </c>
-      <c r="N55" s="2">
-        <v>2420404</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>2304842</v>
-      </c>
-      <c r="T55" s="2">
-        <v>843462</v>
-      </c>
-      <c r="W55" s="2">
-        <v>3969048</v>
-      </c>
-      <c r="Z55" s="2">
-        <v>5202235</v>
-      </c>
-      <c r="AC55" s="2">
-        <v>8767301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="N56" s="2">
-        <v>3250000</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>3750000</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="Z56" s="2">
-        <v>1100000</v>
-      </c>
-      <c r="AC56" s="2">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>211</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="N57" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="T57" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="W57" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="Z57" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="AC57" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1127272</v>
-      </c>
-      <c r="E58" s="2">
-        <v>910705</v>
-      </c>
-      <c r="H58" s="2">
-        <v>348810</v>
-      </c>
-      <c r="K58" s="2">
-        <v>575884</v>
-      </c>
-      <c r="N58" s="2">
-        <v>353489</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>2663563</v>
-      </c>
-      <c r="T58" s="2">
-        <v>114071</v>
-      </c>
-      <c r="W58" s="2">
-        <v>1061765</v>
-      </c>
-      <c r="Z58" s="2">
-        <v>753906</v>
-      </c>
-      <c r="AC58" s="2">
-        <v>722132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" s="2">
-        <v>3241314</v>
-      </c>
-      <c r="E59" s="2">
-        <v>4217345</v>
-      </c>
-      <c r="H59" s="2">
-        <v>3546373</v>
-      </c>
-      <c r="K59" s="2">
-        <v>3224893</v>
-      </c>
-      <c r="N59" s="2">
-        <v>5690375</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>3448181</v>
-      </c>
-      <c r="T59" s="2">
-        <v>8587492</v>
-      </c>
-      <c r="W59" s="2">
-        <v>9445019</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>8807358</v>
-      </c>
-      <c r="AC59" s="2">
-        <v>7359949</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>214</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2">
-        <v>1415000</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>216</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>218</v>
-      </c>
-      <c r="B64" s="2">
-        <v>18843821</v>
-      </c>
-      <c r="E64" s="2">
-        <v>18785382</v>
-      </c>
-      <c r="H64" s="2">
-        <v>18508409</v>
-      </c>
-      <c r="K64" s="2">
-        <v>19322599</v>
-      </c>
-      <c r="N64" s="2">
-        <v>23966410</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>28612677</v>
-      </c>
-      <c r="T64" s="2">
-        <v>25226050</v>
-      </c>
-      <c r="W64" s="2">
-        <v>22647771</v>
-      </c>
-      <c r="Z64" s="2">
-        <v>17303600</v>
-      </c>
-      <c r="AC64" s="2">
-        <v>18389441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22312,11 +21393,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7205243-37F4-4C11-9EE2-CA27303963B5}">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="H1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="I1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="J1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="K1" s="1">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="2">
+        <v>121829597</v>
+      </c>
+      <c r="C3" s="2">
+        <v>120744667</v>
+      </c>
+      <c r="D3" s="2">
+        <v>141023495</v>
+      </c>
+      <c r="E3" s="2">
+        <v>143179975</v>
+      </c>
+      <c r="F3" s="2">
+        <v>146957673</v>
+      </c>
+      <c r="G3" s="2">
+        <v>149821047</v>
+      </c>
+      <c r="H3" s="2">
+        <v>121897803</v>
+      </c>
+      <c r="I3" s="2">
+        <v>118000582</v>
+      </c>
+      <c r="J3" s="2">
+        <v>110908136</v>
+      </c>
+      <c r="K3" s="2">
+        <v>117194536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="2">
+        <v>160388</v>
+      </c>
+      <c r="C4" s="2">
+        <v>133695</v>
+      </c>
+      <c r="D4" s="2">
+        <v>297037</v>
+      </c>
+      <c r="E4" s="2">
+        <v>306017</v>
+      </c>
+      <c r="F4" s="2">
+        <v>321877</v>
+      </c>
+      <c r="G4" s="2">
+        <v>604885</v>
+      </c>
+      <c r="H4" s="2">
+        <v>360836</v>
+      </c>
+      <c r="I4" s="2">
+        <v>505419</v>
+      </c>
+      <c r="J4" s="2">
+        <v>432765</v>
+      </c>
+      <c r="K4" s="2">
+        <v>515403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="2">
+        <v>829247</v>
+      </c>
+      <c r="C5" s="2">
+        <v>705082</v>
+      </c>
+      <c r="D5" s="2">
+        <v>745587</v>
+      </c>
+      <c r="E5" s="2">
+        <v>549107</v>
+      </c>
+      <c r="F5" s="2">
+        <v>371647</v>
+      </c>
+      <c r="G5" s="2">
+        <v>426783</v>
+      </c>
+      <c r="H5" s="2">
+        <v>747822</v>
+      </c>
+      <c r="I5" s="2">
+        <v>436914</v>
+      </c>
+      <c r="J5" s="2">
+        <v>583832</v>
+      </c>
+      <c r="K5" s="2">
+        <v>550366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11527185</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15813211</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12114391</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15512340</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9847035</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14497713</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7954251</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10246515</v>
+      </c>
+      <c r="J6" s="2">
+        <v>11543196</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10014481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2537755</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1878470</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1825760</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2565713</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2144664</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3449568</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2602599</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2833051</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2874000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2318945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2">
+        <v>136884172</v>
+      </c>
+      <c r="C8" s="2">
+        <v>139275125</v>
+      </c>
+      <c r="D8" s="2">
+        <v>156006270</v>
+      </c>
+      <c r="E8" s="2">
+        <v>162113152</v>
+      </c>
+      <c r="F8" s="2">
+        <v>159642896</v>
+      </c>
+      <c r="G8" s="2">
+        <v>168799996</v>
+      </c>
+      <c r="H8" s="2">
+        <v>133563311</v>
+      </c>
+      <c r="I8" s="2">
+        <v>132022481</v>
+      </c>
+      <c r="J8" s="2">
+        <v>126341929</v>
+      </c>
+      <c r="K8" s="2">
+        <v>130593731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="2">
+        <v>29278560</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30059347</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35726149</v>
+      </c>
+      <c r="E10" s="2">
+        <v>36632346</v>
+      </c>
+      <c r="F10" s="2">
+        <v>26377965</v>
+      </c>
+      <c r="G10" s="2">
+        <v>24837405</v>
+      </c>
+      <c r="H10" s="2">
+        <v>19059894</v>
+      </c>
+      <c r="I10" s="2">
+        <v>20549683</v>
+      </c>
+      <c r="J10" s="2">
+        <v>22881555</v>
+      </c>
+      <c r="K10" s="2">
+        <v>23291204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18706313</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17777739</v>
+      </c>
+      <c r="D11" s="2">
+        <v>17796832</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19055691</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17600188</v>
+      </c>
+      <c r="G11" s="2">
+        <v>19980994</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10622063</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6080843</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5707072</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4719120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="2">
+        <v>81805610</v>
+      </c>
+      <c r="C12" s="2">
+        <v>83039649</v>
+      </c>
+      <c r="D12" s="2">
+        <v>97656465</v>
+      </c>
+      <c r="E12" s="2">
+        <v>99229361</v>
+      </c>
+      <c r="F12" s="2">
+        <v>110370543</v>
+      </c>
+      <c r="G12" s="2">
+        <v>115865820</v>
+      </c>
+      <c r="H12" s="2">
+        <v>99086465</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100310788</v>
+      </c>
+      <c r="J12" s="2">
+        <v>91267951</v>
+      </c>
+      <c r="K12" s="2">
+        <v>95772402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="2">
+        <v>129790483</v>
+      </c>
+      <c r="C13" s="2">
+        <v>130876735</v>
+      </c>
+      <c r="D13" s="2">
+        <v>151179446</v>
+      </c>
+      <c r="E13" s="2">
+        <v>154917398</v>
+      </c>
+      <c r="F13" s="2">
+        <v>154348696</v>
+      </c>
+      <c r="G13" s="2">
+        <v>160684219</v>
+      </c>
+      <c r="H13" s="2">
+        <v>128768422</v>
+      </c>
+      <c r="I13" s="2">
+        <v>126941314</v>
+      </c>
+      <c r="J13" s="2">
+        <v>119856578</v>
+      </c>
+      <c r="K13" s="2">
+        <v>123782726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7093689</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8398390</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4826824</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7195754</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5294200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8115777</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4794889</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5081167</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6485351</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6811005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2">
+        <v>136884172</v>
+      </c>
+      <c r="C15" s="2">
+        <v>139275125</v>
+      </c>
+      <c r="D15" s="2">
+        <v>156006270</v>
+      </c>
+      <c r="E15" s="2">
+        <v>162113152</v>
+      </c>
+      <c r="F15" s="2">
+        <v>159642896</v>
+      </c>
+      <c r="G15" s="2">
+        <v>168799996</v>
+      </c>
+      <c r="H15" s="2">
+        <v>133563311</v>
+      </c>
+      <c r="I15" s="2">
+        <v>132022481</v>
+      </c>
+      <c r="J15" s="2">
+        <v>126341929</v>
+      </c>
+      <c r="K15" s="2">
+        <v>130593731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="2">
+        <v>36416798</v>
+      </c>
+      <c r="C18" s="2">
+        <v>34508908</v>
+      </c>
+      <c r="D18" s="2">
+        <v>31540959</v>
+      </c>
+      <c r="E18" s="2">
+        <v>34880604</v>
+      </c>
+      <c r="F18" s="2">
+        <v>51195710</v>
+      </c>
+      <c r="G18" s="2">
+        <v>65105855</v>
+      </c>
+      <c r="H18" s="2">
+        <v>56911642</v>
+      </c>
+      <c r="I18" s="2">
+        <v>63716339</v>
+      </c>
+      <c r="J18" s="2">
+        <v>51902771</v>
+      </c>
+      <c r="K18" s="2">
+        <v>55618698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>24856735</v>
+      </c>
+      <c r="C19" s="2">
+        <v>21347322</v>
+      </c>
+      <c r="D19" s="2">
+        <v>21303286</v>
+      </c>
+      <c r="E19" s="2">
+        <v>22859813</v>
+      </c>
+      <c r="F19" s="2">
+        <v>39184907</v>
+      </c>
+      <c r="G19" s="2">
+        <v>48312575</v>
+      </c>
+      <c r="H19" s="2">
+        <v>39106213</v>
+      </c>
+      <c r="I19" s="2">
+        <v>40635920</v>
+      </c>
+      <c r="J19" s="2">
+        <v>26761031</v>
+      </c>
+      <c r="K19" s="2">
+        <v>28143868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="2">
+        <v>103033341</v>
+      </c>
+      <c r="C20" s="2">
+        <v>107597839</v>
+      </c>
+      <c r="D20" s="2">
+        <v>128657444</v>
+      </c>
+      <c r="E20" s="2">
+        <v>130303967</v>
+      </c>
+      <c r="F20" s="2">
+        <v>115190308</v>
+      </c>
+      <c r="G20" s="2">
+        <v>114647096</v>
+      </c>
+      <c r="H20" s="2">
+        <v>84255893</v>
+      </c>
+      <c r="I20" s="2">
+        <v>81810716</v>
+      </c>
+      <c r="J20" s="2">
+        <v>83984355</v>
+      </c>
+      <c r="K20" s="2">
+        <v>87615303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1184077</v>
+      </c>
+      <c r="C21" s="2">
+        <v>950828</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1205307</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1319983</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1880520</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1872246</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1754013</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1644210</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1378425</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1534828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1220900</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1324039</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1900332</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2483241</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3276235</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4515417</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6487202</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8300375</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7906591</v>
+      </c>
+      <c r="K22" s="2">
+        <v>7318267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11276583</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6378780</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4657875</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6081616</v>
+      </c>
+      <c r="F23" s="2">
+        <v>16832574</v>
+      </c>
+      <c r="G23" s="2">
+        <v>22613394</v>
+      </c>
+      <c r="H23" s="2">
+        <v>27447477</v>
+      </c>
+      <c r="I23" s="2">
+        <v>27291041</v>
+      </c>
+      <c r="J23" s="2">
+        <v>17473785</v>
+      </c>
+      <c r="K23" s="2">
+        <v>14552049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2350592</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2276417</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2275914</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2275969</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2420404</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2304842</v>
+      </c>
+      <c r="H24" s="2">
+        <v>843462</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3969048</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5202235</v>
+      </c>
+      <c r="K24" s="2">
+        <v>8767301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3250000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3750000</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1127272</v>
+      </c>
+      <c r="C27" s="2">
+        <v>910705</v>
+      </c>
+      <c r="D27" s="2">
+        <v>348810</v>
+      </c>
+      <c r="E27" s="2">
+        <v>575884</v>
+      </c>
+      <c r="F27" s="2">
+        <v>353489</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2663563</v>
+      </c>
+      <c r="H27" s="2">
+        <v>114071</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1061765</v>
+      </c>
+      <c r="J27" s="2">
+        <v>753906</v>
+      </c>
+      <c r="K27" s="2">
+        <v>722132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3241314</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4217345</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3546373</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3224893</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5690375</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3448181</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8587492</v>
+      </c>
+      <c r="I28" s="2">
+        <v>9445019</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8807358</v>
+      </c>
+      <c r="K28" s="2">
+        <v>7359949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1415000</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="2">
+        <v>18843821</v>
+      </c>
+      <c r="C33" s="2">
+        <v>18785382</v>
+      </c>
+      <c r="D33" s="2">
+        <v>18508409</v>
+      </c>
+      <c r="E33" s="2">
+        <v>19322599</v>
+      </c>
+      <c r="F33" s="2">
+        <v>23966410</v>
+      </c>
+      <c r="G33" s="2">
+        <v>28612677</v>
+      </c>
+      <c r="H33" s="2">
+        <v>25226050</v>
+      </c>
+      <c r="I33" s="2">
+        <v>22647771</v>
+      </c>
+      <c r="J33" s="2">
+        <v>17303600</v>
+      </c>
+      <c r="K33" s="2">
+        <v>18389441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF13DDB7-C300-4754-AB4D-259095691DE0}">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22341,7 +22501,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="5">
         <v>44926</v>
@@ -22436,7 +22596,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -22626,7 +22786,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4">
         <v>7.0000000000000007E-2</v>
@@ -22721,7 +22881,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5">
         <v>41.17</v>
@@ -22816,7 +22976,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6">
         <v>13.04</v>
@@ -22911,17 +23071,17 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10">
         <v>29.39</v>
@@ -23016,7 +23176,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11">
         <v>0.01</v>
@@ -23111,7 +23271,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12">
         <v>46.76</v>
@@ -23206,7 +23366,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13">
         <v>16.71</v>
@@ -23301,7 +23461,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14">
         <v>1.17</v>
@@ -23396,7 +23556,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15">
         <v>0.31</v>
@@ -23491,7 +23651,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -23586,7 +23746,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -23681,7 +23841,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18">
         <v>5.31</v>
@@ -23776,7 +23936,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19">
         <v>0.34</v>
@@ -23871,7 +24031,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -23966,12 +24126,12 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -24066,7 +24226,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24">
         <v>-9.86</v>
@@ -24161,7 +24321,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25">
         <v>-6.22</v>
@@ -24256,7 +24416,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26">
         <v>-2.86</v>
@@ -24351,7 +24511,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27">
         <v>10.48</v>
@@ -24446,7 +24606,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28">
         <v>30.45</v>
@@ -24541,7 +24701,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29">
         <v>0.61</v>
@@ -24632,286 +24792,6 @@
       </c>
       <c r="AE29">
         <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="2">
-        <v>42409737</v>
-      </c>
-      <c r="E31" s="2">
-        <v>49337993</v>
-      </c>
-      <c r="H31" s="2">
-        <v>59281852</v>
-      </c>
-      <c r="K31" s="2">
-        <v>60982544</v>
-      </c>
-      <c r="N31" s="2">
-        <v>54889353</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>51312519</v>
-      </c>
-      <c r="T31" s="2">
-        <v>22565430</v>
-      </c>
-      <c r="W31" s="2">
-        <v>19766875</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>28744399</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>33966802</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="2">
-        <v>58719848</v>
-      </c>
-      <c r="E32" s="2">
-        <v>67851775</v>
-      </c>
-      <c r="H32" s="2">
-        <v>78089719</v>
-      </c>
-      <c r="K32" s="2">
-        <v>77585406</v>
-      </c>
-      <c r="N32" s="2">
-        <v>70389773</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>69462331</v>
-      </c>
-      <c r="T32" s="2">
-        <v>39450860</v>
-      </c>
-      <c r="W32" s="2">
-        <v>42522826</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>47041198</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>49940056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3645008</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5296566</v>
-      </c>
-      <c r="H36" s="2">
-        <v>8217147</v>
-      </c>
-      <c r="K36" s="2">
-        <v>7163408</v>
-      </c>
-      <c r="N36" s="2">
-        <v>9727333</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>9330385</v>
-      </c>
-      <c r="T36" s="2">
-        <v>8501819</v>
-      </c>
-      <c r="W36" s="2">
-        <v>11766488</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>9187207</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>8937447</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" s="2">
-        <v>17530039</v>
-      </c>
-      <c r="E37" s="2">
-        <v>16715665</v>
-      </c>
-      <c r="H37" s="2">
-        <v>17776643</v>
-      </c>
-      <c r="K37" s="2">
-        <v>21276960</v>
-      </c>
-      <c r="N37" s="2">
-        <v>18145915</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>14842321</v>
-      </c>
-      <c r="T37" s="2">
-        <v>14342340</v>
-      </c>
-      <c r="W37" s="2">
-        <v>17371102</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>18189525</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>16489396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>252</v>
-      </c>
-      <c r="B38" s="2">
-        <v>353556</v>
-      </c>
-      <c r="E38" s="2">
-        <v>488863</v>
-      </c>
-      <c r="H38" s="2">
-        <v>4217466</v>
-      </c>
-      <c r="K38" s="2">
-        <v>4105853</v>
-      </c>
-      <c r="N38" s="2">
-        <v>336764</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>141891</v>
-      </c>
-      <c r="T38" s="2">
-        <v>208903</v>
-      </c>
-      <c r="W38" s="2">
-        <v>130451</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>449744</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>122678</v>
       </c>
     </row>
   </sheetData>
@@ -24919,7 +24799,350 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB93C2A6-50CF-442B-9472-24A32F5E7AE2}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="5">
+        <v>44926</v>
+      </c>
+      <c r="C1" s="5">
+        <v>44742</v>
+      </c>
+      <c r="D1" s="5">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="5">
+        <v>44377</v>
+      </c>
+      <c r="F1" s="5">
+        <v>44196</v>
+      </c>
+      <c r="G1" s="5">
+        <v>44012</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43830</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43646</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43465</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42409737</v>
+      </c>
+      <c r="C2" s="2">
+        <v>49337993</v>
+      </c>
+      <c r="D2" s="2">
+        <v>59281852</v>
+      </c>
+      <c r="E2" s="2">
+        <v>60982544</v>
+      </c>
+      <c r="F2" s="2">
+        <v>54889353</v>
+      </c>
+      <c r="G2" s="2">
+        <v>51312519</v>
+      </c>
+      <c r="H2" s="2">
+        <v>22565430</v>
+      </c>
+      <c r="I2" s="2">
+        <v>19766875</v>
+      </c>
+      <c r="J2" s="2">
+        <v>28744399</v>
+      </c>
+      <c r="K2" s="2">
+        <v>33966802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="2">
+        <v>58719848</v>
+      </c>
+      <c r="C3" s="2">
+        <v>67851775</v>
+      </c>
+      <c r="D3" s="2">
+        <v>78089719</v>
+      </c>
+      <c r="E3" s="2">
+        <v>77585406</v>
+      </c>
+      <c r="F3" s="2">
+        <v>70389773</v>
+      </c>
+      <c r="G3" s="2">
+        <v>69462331</v>
+      </c>
+      <c r="H3" s="2">
+        <v>39450860</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42522826</v>
+      </c>
+      <c r="J3" s="2">
+        <v>47041198</v>
+      </c>
+      <c r="K3" s="2">
+        <v>49940056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3645008</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5296566</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8217147</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7163408</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9727333</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9330385</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8501819</v>
+      </c>
+      <c r="I7" s="2">
+        <v>11766488</v>
+      </c>
+      <c r="J7" s="2">
+        <v>9187207</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8937447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="2">
+        <v>17530039</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16715665</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17776643</v>
+      </c>
+      <c r="E8" s="2">
+        <v>21276960</v>
+      </c>
+      <c r="F8" s="2">
+        <v>18145915</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14842321</v>
+      </c>
+      <c r="H8" s="2">
+        <v>14342340</v>
+      </c>
+      <c r="I8" s="2">
+        <v>17371102</v>
+      </c>
+      <c r="J8" s="2">
+        <v>18189525</v>
+      </c>
+      <c r="K8" s="2">
+        <v>16489396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="2">
+        <v>353556</v>
+      </c>
+      <c r="C9" s="2">
+        <v>488863</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4217466</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4105853</v>
+      </c>
+      <c r="F9" s="2">
+        <v>336764</v>
+      </c>
+      <c r="G9" s="2">
+        <v>141891</v>
+      </c>
+      <c r="H9" s="2">
+        <v>208903</v>
+      </c>
+      <c r="I9" s="2">
+        <v>130451</v>
+      </c>
+      <c r="J9" s="2">
+        <v>449744</v>
+      </c>
+      <c r="K9" s="2">
+        <v>122678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C622C5-A61D-44BF-B27E-8BBFBEE8A96D}">
   <dimension ref="A1:K44"/>
   <sheetViews>
@@ -24935,7 +25158,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1">
         <v>44926</v>
@@ -24970,7 +25193,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -24980,42 +25203,42 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="2">
         <v>8010</v>
@@ -25050,7 +25273,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" s="2">
         <v>458000</v>
@@ -25085,42 +25308,42 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" s="2">
         <v>17992150</v>
@@ -25155,82 +25378,82 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="2">
         <v>681511</v>
@@ -25265,77 +25488,77 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="2">
         <v>2122305</v>
@@ -25370,12 +25593,12 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="2">
         <v>20114455</v>
@@ -25410,77 +25633,77 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" s="2">
         <v>20114455</v>
@@ -25515,17 +25738,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B26" s="2">
         <v>2484616</v>
@@ -25560,7 +25783,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" s="2">
         <v>8285177</v>
@@ -25595,7 +25818,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" s="2">
         <v>39760096</v>
@@ -25630,7 +25853,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2">
         <v>56044634</v>
@@ -25665,7 +25888,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2">
         <v>46923656</v>
@@ -25700,12 +25923,12 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2">
         <v>2245936</v>
@@ -25740,7 +25963,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2">
         <v>434955</v>
@@ -25775,7 +25998,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2">
         <v>38598233</v>
@@ -25810,7 +26033,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2">
         <v>42340843</v>
@@ -25845,7 +26068,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2">
         <v>1623125</v>
@@ -25880,12 +26103,12 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="2">
         <v>101331275</v>
@@ -25920,7 +26143,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -25955,7 +26178,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -25990,42 +26213,42 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2">
         <v>101331275</v>
